--- a/1. data/Barkley-Sk_pre-smolt_abundances.xlsx
+++ b/1. data/Barkley-Sk_pre-smolt_abundances.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brownn\Documents\WCVI\Barkley-Sk-CSAS\1. data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893F25A6-2EAD-4195-9651-269AEB3E401D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321E6AF1-8DE4-42B7-BEBD-2D81C307A95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{93B9BABA-C468-4873-970E-7D7E9A90394F}"/>
+    <workbookView xWindow="15180" yWindow="0" windowWidth="13395" windowHeight="15585" xr2:uid="{93B9BABA-C468-4873-970E-7D7E9A90394F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ATS_estimates" sheetId="2" r:id="rId1"/>
+    <sheet name="smolt_production" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ATS_estimates!$A$1:$G$90</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,8 +39,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={51828A2D-7DC2-4829-B811-13295E6A575B}</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{51828A2D-7DC2-4829-B811-13295E6A575B}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    SD? =sqrt(sum(transect variances)/N transects) </t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="18">
   <si>
     <t>smolt_year</t>
   </si>
@@ -61,18 +83,57 @@
   <si>
     <t>huc_ttl</t>
   </si>
+  <si>
+    <t>survey_year</t>
+  </si>
+  <si>
+    <t>survey_date</t>
+  </si>
+  <si>
+    <t>lake</t>
+  </si>
+  <si>
+    <t>GCL</t>
+  </si>
+  <si>
+    <t>SPR</t>
+  </si>
+  <si>
+    <t>HUC</t>
+  </si>
+  <si>
+    <t>presmolt_sd</t>
+  </si>
+  <si>
+    <t>stickleback_sd</t>
+  </si>
+  <si>
+    <t>presmolt_est</t>
+  </si>
+  <si>
+    <t>stickleback_est</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -95,11 +156,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -115,6 +182,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Brown, Nicholas (DFO/MPO)" id="{3DE5C77A-2EC9-410D-AF92-25A6BD2452F6}" userId="S::Nicholas.Brown@dfo-mpo.gc.ca::632ebe77-6995-4958-bf06-abfc772d892a" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -412,12 +485,6376 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E1" dT="2025-02-07T20:07:08.24" personId="{3DE5C77A-2EC9-410D-AF92-25A6BD2452F6}" id="{51828A2D-7DC2-4829-B811-13295E6A575B}">
+    <text xml:space="preserve">SD? =sqrt(sum(transect variances)/N transects) </text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CDFEE8-69FE-4C98-AD8C-E5081C486B0D}">
+  <dimension ref="A1:G273"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <f>YEAR(C2)</f>
+        <v>1977</v>
+      </c>
+      <c r="C2" s="2">
+        <v>28388</v>
+      </c>
+      <c r="D2">
+        <v>8054300</v>
+      </c>
+      <c r="E2">
+        <v>4633859</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <f>YEAR(C3)</f>
+        <v>1977</v>
+      </c>
+      <c r="C3" s="2">
+        <v>28436</v>
+      </c>
+      <c r="D3">
+        <v>9435981</v>
+      </c>
+      <c r="E3">
+        <v>2697500</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <f>YEAR(C4)</f>
+        <v>1978</v>
+      </c>
+      <c r="C4" s="2">
+        <v>28702</v>
+      </c>
+      <c r="D4">
+        <v>17586918</v>
+      </c>
+      <c r="E4">
+        <v>7230250</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <f>YEAR(C5)</f>
+        <v>1978</v>
+      </c>
+      <c r="C5" s="2">
+        <v>28739</v>
+      </c>
+      <c r="D5">
+        <v>12664316</v>
+      </c>
+      <c r="E5">
+        <v>3833606</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <f>YEAR(C6)</f>
+        <v>1978</v>
+      </c>
+      <c r="C6" s="2">
+        <v>28780</v>
+      </c>
+      <c r="D6">
+        <v>15692098</v>
+      </c>
+      <c r="E6">
+        <v>2431547</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <f>YEAR(C7)</f>
+        <v>1978</v>
+      </c>
+      <c r="C7" s="2">
+        <v>28829</v>
+      </c>
+      <c r="D7">
+        <v>15714117</v>
+      </c>
+      <c r="E7">
+        <v>5503380</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <f>YEAR(C8)</f>
+        <v>1979</v>
+      </c>
+      <c r="C8" s="2">
+        <v>28927</v>
+      </c>
+      <c r="D8">
+        <v>1023942</v>
+      </c>
+      <c r="E8">
+        <v>166760</v>
+      </c>
+      <c r="F8">
+        <v>1448413</v>
+      </c>
+      <c r="G8">
+        <v>867502</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <f>YEAR(C9)</f>
+        <v>1979</v>
+      </c>
+      <c r="C9" s="2">
+        <v>29054</v>
+      </c>
+      <c r="D9">
+        <v>8233944</v>
+      </c>
+      <c r="E9">
+        <v>5992339</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <f>YEAR(C10)</f>
+        <v>1979</v>
+      </c>
+      <c r="C10" s="2">
+        <v>29208</v>
+      </c>
+      <c r="D10">
+        <v>7347646</v>
+      </c>
+      <c r="E10">
+        <v>1594519</v>
+      </c>
+      <c r="F10">
+        <v>1616743</v>
+      </c>
+      <c r="G10">
+        <v>633405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <f>YEAR(C11)</f>
+        <v>1980</v>
+      </c>
+      <c r="C11" s="2">
+        <v>29460</v>
+      </c>
+      <c r="D11">
+        <v>18775304</v>
+      </c>
+      <c r="E11">
+        <v>5979761</v>
+      </c>
+      <c r="F11">
+        <v>2889128</v>
+      </c>
+      <c r="G11">
+        <v>1105842</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f>YEAR(C12)</f>
+        <v>1980</v>
+      </c>
+      <c r="C12" s="2">
+        <v>29552</v>
+      </c>
+      <c r="D12">
+        <v>11847307</v>
+      </c>
+      <c r="E12">
+        <v>6863219</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <f>YEAR(C13)</f>
+        <v>1981</v>
+      </c>
+      <c r="C13" s="2">
+        <v>29796</v>
+      </c>
+      <c r="D13">
+        <v>10640095</v>
+      </c>
+      <c r="E13">
+        <v>6083948</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <f>YEAR(C14)</f>
+        <v>1981</v>
+      </c>
+      <c r="C14" s="2">
+        <v>29843</v>
+      </c>
+      <c r="D14">
+        <v>15512806</v>
+      </c>
+      <c r="E14">
+        <v>5059232</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <f>YEAR(C15)</f>
+        <v>1981</v>
+      </c>
+      <c r="C15" s="2">
+        <v>29932</v>
+      </c>
+      <c r="D15">
+        <v>10160713</v>
+      </c>
+      <c r="E15">
+        <v>2630981</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <f>YEAR(C16)</f>
+        <v>1982</v>
+      </c>
+      <c r="C16" s="2">
+        <v>29984</v>
+      </c>
+      <c r="D16">
+        <v>9381613</v>
+      </c>
+      <c r="E16">
+        <v>3235221</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <f>YEAR(C17)</f>
+        <v>1982</v>
+      </c>
+      <c r="C17" s="2">
+        <v>30172</v>
+      </c>
+      <c r="D17">
+        <v>26780658</v>
+      </c>
+      <c r="E17">
+        <v>7565442</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <f>YEAR(C18)</f>
+        <v>1982</v>
+      </c>
+      <c r="C18" s="2">
+        <v>30266</v>
+      </c>
+      <c r="D18">
+        <v>15478608</v>
+      </c>
+      <c r="E18">
+        <v>5101583</v>
+      </c>
+      <c r="F18">
+        <v>482954</v>
+      </c>
+      <c r="G18">
+        <v>228544</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <f>YEAR(C19)</f>
+        <v>1983</v>
+      </c>
+      <c r="C19" s="2">
+        <v>30334</v>
+      </c>
+      <c r="D19">
+        <v>12938673</v>
+      </c>
+      <c r="E19">
+        <v>5222126</v>
+      </c>
+      <c r="F19">
+        <v>187161</v>
+      </c>
+      <c r="G19">
+        <v>149117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <f>YEAR(C20)</f>
+        <v>1983</v>
+      </c>
+      <c r="C20" s="2">
+        <v>30558</v>
+      </c>
+      <c r="D20">
+        <v>9203412</v>
+      </c>
+      <c r="E20">
+        <v>4013330</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <f>YEAR(C21)</f>
+        <v>1983</v>
+      </c>
+      <c r="C21" s="2">
+        <v>30621</v>
+      </c>
+      <c r="D21">
+        <v>10206568</v>
+      </c>
+      <c r="E21">
+        <v>6134254</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <f>YEAR(C22)</f>
+        <v>1984</v>
+      </c>
+      <c r="C22" s="2">
+        <v>30970</v>
+      </c>
+      <c r="D22">
+        <v>12355251</v>
+      </c>
+      <c r="E22">
+        <v>5197338</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <f>YEAR(C23)</f>
+        <v>1985</v>
+      </c>
+      <c r="C23" s="2">
+        <v>31391</v>
+      </c>
+      <c r="D23">
+        <v>10232639</v>
+      </c>
+      <c r="E23">
+        <v>2095915</v>
+      </c>
+      <c r="F23">
+        <v>6983</v>
+      </c>
+      <c r="G23">
+        <v>19743</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <f>YEAR(C24)</f>
+        <v>1985</v>
+      </c>
+      <c r="C24" s="2">
+        <v>31392</v>
+      </c>
+      <c r="D24">
+        <v>8248294</v>
+      </c>
+      <c r="E24">
+        <v>2365782</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <f>YEAR(C25)</f>
+        <v>1986</v>
+      </c>
+      <c r="C25" s="2">
+        <v>31687</v>
+      </c>
+      <c r="D25">
+        <v>6029598</v>
+      </c>
+      <c r="E25">
+        <v>1930290</v>
+      </c>
+      <c r="F25">
+        <v>160703</v>
+      </c>
+      <c r="G25">
+        <v>92253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26">
+        <f>YEAR(C26)</f>
+        <v>1986</v>
+      </c>
+      <c r="C26" s="2">
+        <v>31688</v>
+      </c>
+      <c r="D26">
+        <v>7724140</v>
+      </c>
+      <c r="E26">
+        <v>2722655</v>
+      </c>
+      <c r="F26">
+        <v>163243</v>
+      </c>
+      <c r="G26">
+        <v>70186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27">
+        <f>YEAR(C27)</f>
+        <v>1987</v>
+      </c>
+      <c r="C27" s="2">
+        <v>32043</v>
+      </c>
+      <c r="D27">
+        <v>4030046</v>
+      </c>
+      <c r="E27">
+        <v>2211638</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28">
+        <f>YEAR(C28)</f>
+        <v>1988</v>
+      </c>
+      <c r="C28" s="2">
+        <v>32168</v>
+      </c>
+      <c r="D28">
+        <v>5265480</v>
+      </c>
+      <c r="E28">
+        <v>1146983</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29">
+        <f>YEAR(C29)</f>
+        <v>1988</v>
+      </c>
+      <c r="C29" s="2">
+        <v>32429</v>
+      </c>
+      <c r="D29">
+        <v>7124665</v>
+      </c>
+      <c r="E29">
+        <v>2278308</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <f>YEAR(C30)</f>
+        <v>1989</v>
+      </c>
+      <c r="C30" s="2">
+        <v>32688</v>
+      </c>
+      <c r="D30">
+        <v>9064758</v>
+      </c>
+      <c r="E30">
+        <v>2933920</v>
+      </c>
+      <c r="F30">
+        <v>1236103</v>
+      </c>
+      <c r="G30">
+        <v>400080</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31">
+        <f>YEAR(C31)</f>
+        <v>1989</v>
+      </c>
+      <c r="C31" s="2">
+        <v>32804</v>
+      </c>
+      <c r="D31">
+        <v>9086681</v>
+      </c>
+      <c r="E31">
+        <v>5521265</v>
+      </c>
+      <c r="F31">
+        <v>81155</v>
+      </c>
+      <c r="G31">
+        <v>40348</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32">
+        <f>YEAR(C32)</f>
+        <v>1990</v>
+      </c>
+      <c r="C32" s="2">
+        <v>32947</v>
+      </c>
+      <c r="D32">
+        <v>12526401</v>
+      </c>
+      <c r="E32">
+        <v>3928391</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33">
+        <f>YEAR(C33)</f>
+        <v>1990</v>
+      </c>
+      <c r="C33" s="2">
+        <v>33037</v>
+      </c>
+      <c r="D33">
+        <v>10249075</v>
+      </c>
+      <c r="E33">
+        <v>2451060</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34">
+        <f>YEAR(C34)</f>
+        <v>1990</v>
+      </c>
+      <c r="C34" s="2">
+        <v>33038</v>
+      </c>
+      <c r="D34">
+        <v>11542138</v>
+      </c>
+      <c r="E34">
+        <v>2865559</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35">
+        <f>YEAR(C35)</f>
+        <v>1990</v>
+      </c>
+      <c r="C35" s="2">
+        <v>33161</v>
+      </c>
+      <c r="D35">
+        <v>8976128</v>
+      </c>
+      <c r="E35">
+        <v>4058049</v>
+      </c>
+      <c r="F35">
+        <v>6881584</v>
+      </c>
+      <c r="G35">
+        <v>5249683</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36">
+        <f>YEAR(C36)</f>
+        <v>1990</v>
+      </c>
+      <c r="C36" s="2">
+        <v>33162</v>
+      </c>
+      <c r="D36">
+        <v>4625605</v>
+      </c>
+      <c r="E36">
+        <v>2835295</v>
+      </c>
+      <c r="F36">
+        <v>9862965</v>
+      </c>
+      <c r="G36">
+        <v>5292344</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37">
+        <f>YEAR(C37)</f>
+        <v>1990</v>
+      </c>
+      <c r="C37" s="2">
+        <v>33163</v>
+      </c>
+      <c r="D37">
+        <v>4995646</v>
+      </c>
+      <c r="E37">
+        <v>3009734</v>
+      </c>
+      <c r="F37">
+        <v>9298527</v>
+      </c>
+      <c r="G37">
+        <v>4668519</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38">
+        <f>YEAR(C38)</f>
+        <v>1990</v>
+      </c>
+      <c r="C38" s="2">
+        <v>33164</v>
+      </c>
+      <c r="D38">
+        <v>8238132</v>
+      </c>
+      <c r="E38">
+        <v>3507287</v>
+      </c>
+      <c r="F38">
+        <v>6105924</v>
+      </c>
+      <c r="G38">
+        <v>4487517</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39">
+        <f>YEAR(C39)</f>
+        <v>1991</v>
+      </c>
+      <c r="C39" s="2">
+        <v>33302</v>
+      </c>
+      <c r="D39">
+        <v>7176973</v>
+      </c>
+      <c r="E39">
+        <v>2184271</v>
+      </c>
+      <c r="F39">
+        <v>4680443</v>
+      </c>
+      <c r="G39">
+        <v>2325204</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40">
+        <f>YEAR(C40)</f>
+        <v>1991</v>
+      </c>
+      <c r="C40" s="2">
+        <v>33303</v>
+      </c>
+      <c r="D40">
+        <v>9701784</v>
+      </c>
+      <c r="E40">
+        <v>3192381</v>
+      </c>
+      <c r="F40">
+        <v>2135452</v>
+      </c>
+      <c r="G40">
+        <v>846068</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41">
+        <f>YEAR(C41)</f>
+        <v>1991</v>
+      </c>
+      <c r="C41" s="2">
+        <v>33437</v>
+      </c>
+      <c r="D41">
+        <v>1751667</v>
+      </c>
+      <c r="E41">
+        <v>783280</v>
+      </c>
+      <c r="F41">
+        <v>6445118</v>
+      </c>
+      <c r="G41">
+        <v>2376569</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42">
+        <f>YEAR(C42)</f>
+        <v>1991</v>
+      </c>
+      <c r="C42" s="2">
+        <v>33541</v>
+      </c>
+      <c r="D42">
+        <v>4835345</v>
+      </c>
+      <c r="E42">
+        <v>1026063</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43">
+        <f>YEAR(C43)</f>
+        <v>1992</v>
+      </c>
+      <c r="C43" s="2">
+        <v>33659</v>
+      </c>
+      <c r="D43">
+        <v>3285165</v>
+      </c>
+      <c r="E43">
+        <v>1131045</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44">
+        <f>YEAR(C44)</f>
+        <v>1992</v>
+      </c>
+      <c r="C44" s="2">
+        <v>33800</v>
+      </c>
+      <c r="D44">
+        <v>12384003</v>
+      </c>
+      <c r="E44">
+        <v>8609798</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45">
+        <f>YEAR(C45)</f>
+        <v>1992</v>
+      </c>
+      <c r="C45" s="2">
+        <v>33904</v>
+      </c>
+      <c r="D45">
+        <v>8545829</v>
+      </c>
+      <c r="E45">
+        <v>4431412</v>
+      </c>
+      <c r="F45">
+        <v>72279</v>
+      </c>
+      <c r="G45">
+        <v>65938</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46">
+        <f>YEAR(C46)</f>
+        <v>1993</v>
+      </c>
+      <c r="C46" s="2">
+        <v>34011</v>
+      </c>
+      <c r="D46">
+        <v>7572948</v>
+      </c>
+      <c r="E46">
+        <v>2582659</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47">
+        <f>YEAR(C47)</f>
+        <v>1993</v>
+      </c>
+      <c r="C47" s="2">
+        <v>34012</v>
+      </c>
+      <c r="D47">
+        <v>6642414</v>
+      </c>
+      <c r="E47">
+        <v>2122286</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48">
+        <f>YEAR(C48)</f>
+        <v>1993</v>
+      </c>
+      <c r="C48" s="2">
+        <v>34178</v>
+      </c>
+      <c r="D48">
+        <v>7004666</v>
+      </c>
+      <c r="E48">
+        <v>2847107</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49">
+        <f>YEAR(C49)</f>
+        <v>1993</v>
+      </c>
+      <c r="C49" s="2">
+        <v>34255</v>
+      </c>
+      <c r="D49">
+        <v>4433004</v>
+      </c>
+      <c r="E49">
+        <v>1716699</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50">
+        <f>YEAR(C50)</f>
+        <v>1994</v>
+      </c>
+      <c r="C50" s="2">
+        <v>34367</v>
+      </c>
+      <c r="D50">
+        <v>4245992</v>
+      </c>
+      <c r="E50">
+        <v>1239111</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51">
+        <f>YEAR(C51)</f>
+        <v>1994</v>
+      </c>
+      <c r="C51" s="2">
+        <v>34627</v>
+      </c>
+      <c r="D51">
+        <v>4943465</v>
+      </c>
+      <c r="E51">
+        <v>1755597</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52">
+        <f>YEAR(C52)</f>
+        <v>1995</v>
+      </c>
+      <c r="C52" s="2">
+        <v>34724</v>
+      </c>
+      <c r="D52">
+        <v>9316189</v>
+      </c>
+      <c r="E52">
+        <v>2724388</v>
+      </c>
+      <c r="F52">
+        <v>1347304</v>
+      </c>
+      <c r="G52">
+        <v>534137</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53">
+        <f>YEAR(C53)</f>
+        <v>1995</v>
+      </c>
+      <c r="C53" s="2">
+        <v>34725</v>
+      </c>
+      <c r="D53">
+        <v>8613981</v>
+      </c>
+      <c r="E53">
+        <v>3076412</v>
+      </c>
+      <c r="F53">
+        <v>1101237</v>
+      </c>
+      <c r="G53">
+        <v>428387</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54">
+        <f>YEAR(C54)</f>
+        <v>1995</v>
+      </c>
+      <c r="C54" s="2">
+        <v>34894</v>
+      </c>
+      <c r="D54">
+        <v>16091906</v>
+      </c>
+      <c r="E54">
+        <v>7027258</v>
+      </c>
+      <c r="F54">
+        <v>407909</v>
+      </c>
+      <c r="G54">
+        <v>210812</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55">
+        <f>YEAR(C55)</f>
+        <v>1995</v>
+      </c>
+      <c r="C55" s="2">
+        <v>34895</v>
+      </c>
+      <c r="D55">
+        <v>15302296</v>
+      </c>
+      <c r="E55">
+        <v>7266554</v>
+      </c>
+      <c r="F55">
+        <v>7243979</v>
+      </c>
+      <c r="G55">
+        <v>6591475</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56">
+        <f>YEAR(C56)</f>
+        <v>1995</v>
+      </c>
+      <c r="C56" s="2">
+        <v>34896</v>
+      </c>
+      <c r="D56">
+        <v>21212910</v>
+      </c>
+      <c r="E56">
+        <v>10140386</v>
+      </c>
+      <c r="F56">
+        <v>545282</v>
+      </c>
+      <c r="G56">
+        <v>304743</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57">
+        <f>YEAR(C57)</f>
+        <v>1995</v>
+      </c>
+      <c r="C57" s="2">
+        <v>35026</v>
+      </c>
+      <c r="D57">
+        <v>10022815</v>
+      </c>
+      <c r="E57">
+        <v>2092650</v>
+      </c>
+      <c r="F57">
+        <v>299317</v>
+      </c>
+      <c r="G57">
+        <v>58277</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58">
+        <f>YEAR(C58)</f>
+        <v>1996</v>
+      </c>
+      <c r="C58" s="2">
+        <v>35096</v>
+      </c>
+      <c r="D58">
+        <v>8815595</v>
+      </c>
+      <c r="E58">
+        <v>2556398</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59">
+        <f>YEAR(C59)</f>
+        <v>1996</v>
+      </c>
+      <c r="C59" s="2">
+        <v>35271</v>
+      </c>
+      <c r="D59">
+        <v>6355778</v>
+      </c>
+      <c r="E59">
+        <v>2315279</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60">
+        <f>YEAR(C60)</f>
+        <v>1996</v>
+      </c>
+      <c r="C60" s="2">
+        <v>35389</v>
+      </c>
+      <c r="D60">
+        <v>4431103</v>
+      </c>
+      <c r="E60">
+        <v>950370</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61">
+        <v>1997</v>
+      </c>
+      <c r="C61" s="2">
+        <v>35754</v>
+      </c>
+      <c r="D61">
+        <v>17814000</v>
+      </c>
+      <c r="E61">
+        <f>0.42*D61</f>
+        <v>7481880</v>
+      </c>
+      <c r="F61">
+        <v>51000</v>
+      </c>
+      <c r="G61">
+        <f>0.42*F61</f>
+        <v>21420</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62">
+        <v>1998</v>
+      </c>
+      <c r="C62" s="2">
+        <v>36131</v>
+      </c>
+      <c r="D62">
+        <v>12144000</v>
+      </c>
+      <c r="E62">
+        <f>0.22*D62</f>
+        <v>2671680</v>
+      </c>
+      <c r="F62">
+        <v>1430000</v>
+      </c>
+      <c r="G62">
+        <f>0.22*F62</f>
+        <v>314600</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63">
+        <v>1999</v>
+      </c>
+      <c r="C63" s="4">
+        <v>36493</v>
+      </c>
+      <c r="D63" s="5">
+        <v>7431000</v>
+      </c>
+      <c r="E63">
+        <f>0.39*D63</f>
+        <v>2898090</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64">
+        <v>2000</v>
+      </c>
+      <c r="C64" s="2">
+        <v>36860</v>
+      </c>
+      <c r="D64">
+        <v>13605000</v>
+      </c>
+      <c r="E64">
+        <f>0.37*D64</f>
+        <v>5033850</v>
+      </c>
+      <c r="F64">
+        <v>5717000</v>
+      </c>
+      <c r="G64">
+        <f>0.37*F64</f>
+        <v>2115290</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65">
+        <v>2001</v>
+      </c>
+      <c r="C65" s="2">
+        <v>37229</v>
+      </c>
+      <c r="D65">
+        <v>3739000</v>
+      </c>
+      <c r="E65">
+        <f>0.25*D65</f>
+        <v>934750</v>
+      </c>
+      <c r="F65">
+        <v>145000</v>
+      </c>
+      <c r="G65">
+        <f>0.25*F65</f>
+        <v>36250</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66">
+        <v>2002</v>
+      </c>
+      <c r="C66" s="2"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67">
+        <v>2003</v>
+      </c>
+      <c r="C67" s="2">
+        <v>37636</v>
+      </c>
+      <c r="D67">
+        <v>10517000</v>
+      </c>
+      <c r="E67">
+        <f>0.45*D67</f>
+        <v>4732650</v>
+      </c>
+      <c r="F67">
+        <v>621000</v>
+      </c>
+      <c r="G67">
+        <f>0.45*F67</f>
+        <v>279450</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68">
+        <v>2004</v>
+      </c>
+      <c r="C68" s="2">
+        <v>38009</v>
+      </c>
+      <c r="D68">
+        <v>10861000</v>
+      </c>
+      <c r="E68">
+        <f>0.46*D68</f>
+        <v>4996060</v>
+      </c>
+      <c r="F68">
+        <v>2615000</v>
+      </c>
+      <c r="G68">
+        <f>0.46*F68</f>
+        <v>1202900</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69">
+        <v>2004</v>
+      </c>
+      <c r="C69" s="2">
+        <v>38329</v>
+      </c>
+      <c r="D69">
+        <v>8446000</v>
+      </c>
+      <c r="E69">
+        <f>0.26*D69</f>
+        <v>2195960</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70">
+        <v>2005</v>
+      </c>
+      <c r="C70" s="2"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71">
+        <v>2006</v>
+      </c>
+      <c r="C71" s="2">
+        <v>38764</v>
+      </c>
+      <c r="D71">
+        <v>3975000</v>
+      </c>
+      <c r="E71">
+        <f>0.34*D71</f>
+        <v>1351500</v>
+      </c>
+      <c r="F71">
+        <v>370000</v>
+      </c>
+      <c r="G71">
+        <f>0.34*F71</f>
+        <v>125800.00000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72">
+        <v>2007</v>
+      </c>
+      <c r="C72" s="2">
+        <v>39118</v>
+      </c>
+      <c r="D72">
+        <v>5654000</v>
+      </c>
+      <c r="E72">
+        <f>0.37*D72</f>
+        <v>2091980</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73">
+        <f>YEAR(C73)</f>
+        <v>2008</v>
+      </c>
+      <c r="C73" s="2">
+        <v>39646</v>
+      </c>
+      <c r="D73">
+        <v>13214207</v>
+      </c>
+      <c r="E73">
+        <v>5988381</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74">
+        <f>YEAR(C74)</f>
+        <v>2008</v>
+      </c>
+      <c r="C74" s="2">
+        <v>39769</v>
+      </c>
+      <c r="D74">
+        <v>4063328</v>
+      </c>
+      <c r="E74">
+        <v>1888607</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75">
+        <v>2009</v>
+      </c>
+      <c r="C75" s="2">
+        <v>39848</v>
+      </c>
+      <c r="D75">
+        <v>3800000</v>
+      </c>
+      <c r="E75">
+        <f>0.24*D75</f>
+        <v>912000</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76">
+        <f t="shared" ref="B76:B79" si="0">YEAR(C76)</f>
+        <v>2009</v>
+      </c>
+      <c r="C76" s="2">
+        <v>39965</v>
+      </c>
+      <c r="D76">
+        <v>10063784</v>
+      </c>
+      <c r="E76">
+        <f>0.42*D76</f>
+        <v>4226789.28</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+      <c r="C77" s="2">
+        <v>40010</v>
+      </c>
+      <c r="D77">
+        <v>16319982</v>
+      </c>
+      <c r="E77">
+        <f>0.48*D77</f>
+        <v>7833591.3599999994</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+      <c r="C78" s="2">
+        <v>40142</v>
+      </c>
+      <c r="D78">
+        <v>5171366</v>
+      </c>
+      <c r="E78">
+        <f>0.2*D78</f>
+        <v>1034273.2000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+      <c r="C79" s="2">
+        <v>40189</v>
+      </c>
+      <c r="D79">
+        <v>7593187</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80">
+        <f>YEAR(C80)</f>
+        <v>2010</v>
+      </c>
+      <c r="C80" s="2">
+        <v>40420</v>
+      </c>
+      <c r="D80">
+        <v>24557303</v>
+      </c>
+      <c r="E80">
+        <v>9501918</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81">
+        <f>YEAR(C81)</f>
+        <v>2010</v>
+      </c>
+      <c r="C81" s="2">
+        <v>40513</v>
+      </c>
+      <c r="D81">
+        <v>11015426</v>
+      </c>
+      <c r="E81">
+        <v>1738556</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82">
+        <f>YEAR(C82)</f>
+        <v>2011</v>
+      </c>
+      <c r="C82" s="2">
+        <v>40777</v>
+      </c>
+      <c r="D82">
+        <v>45991451</v>
+      </c>
+      <c r="E82">
+        <v>33622665</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83">
+        <f>YEAR(C83)</f>
+        <v>2011</v>
+      </c>
+      <c r="C83" s="2">
+        <v>40869</v>
+      </c>
+      <c r="D83">
+        <v>16267230</v>
+      </c>
+      <c r="E83">
+        <v>2692622</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84">
+        <f>YEAR(C84)</f>
+        <v>2012</v>
+      </c>
+      <c r="C84" s="2">
+        <v>41071</v>
+      </c>
+      <c r="D84">
+        <v>9890539</v>
+      </c>
+      <c r="E84">
+        <v>5223954</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85">
+        <f>YEAR(C85)</f>
+        <v>2012</v>
+      </c>
+      <c r="C85" s="2">
+        <v>41134</v>
+      </c>
+      <c r="D85">
+        <v>26914304</v>
+      </c>
+      <c r="E85">
+        <v>10547930</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86">
+        <f>YEAR(C86)</f>
+        <v>2012</v>
+      </c>
+      <c r="C86" s="2">
+        <v>41239</v>
+      </c>
+      <c r="D86">
+        <v>15175000</v>
+      </c>
+      <c r="E86">
+        <v>2825579</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87">
+        <f>YEAR(C87)</f>
+        <v>2013</v>
+      </c>
+      <c r="C87" s="2">
+        <v>41498</v>
+      </c>
+      <c r="D87">
+        <v>19155648</v>
+      </c>
+      <c r="E87">
+        <v>8179162</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88">
+        <f>YEAR(C88)</f>
+        <v>2013</v>
+      </c>
+      <c r="C88" s="2">
+        <v>41598</v>
+      </c>
+      <c r="D88">
+        <v>7927000</v>
+      </c>
+      <c r="E88">
+        <f>0.35*D88</f>
+        <v>2774450</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89">
+        <f>YEAR(C89)</f>
+        <v>2014</v>
+      </c>
+      <c r="C89" s="2">
+        <v>41681</v>
+      </c>
+      <c r="D89">
+        <v>10001684</v>
+      </c>
+      <c r="E89">
+        <f>0.19*D89</f>
+        <v>1900319.96</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90">
+        <f>YEAR(C90)</f>
+        <v>2014</v>
+      </c>
+      <c r="C90" s="2">
+        <v>41934</v>
+      </c>
+      <c r="D90">
+        <v>3711918</v>
+      </c>
+      <c r="E90">
+        <v>2419924</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91">
+        <f>YEAR(C91)</f>
+        <v>2015</v>
+      </c>
+      <c r="C91" s="2">
+        <v>42065</v>
+      </c>
+      <c r="D91">
+        <v>745221</v>
+      </c>
+      <c r="E91">
+        <v>206100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92">
+        <f>YEAR(C91)</f>
+        <v>2015</v>
+      </c>
+      <c r="C92" s="2">
+        <v>42320</v>
+      </c>
+      <c r="D92">
+        <v>3790083</v>
+      </c>
+      <c r="E92">
+        <v>839116</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>13</v>
+      </c>
+      <c r="B93">
+        <f>YEAR(C93)</f>
+        <v>1977</v>
+      </c>
+      <c r="C93" s="2">
+        <v>28402</v>
+      </c>
+      <c r="D93">
+        <v>4869510</v>
+      </c>
+      <c r="E93">
+        <v>1309300</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94">
+        <f>YEAR(C94)</f>
+        <v>1978</v>
+      </c>
+      <c r="C94" s="2">
+        <v>28562</v>
+      </c>
+      <c r="D94">
+        <v>1597985</v>
+      </c>
+      <c r="E94">
+        <v>362175</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>13</v>
+      </c>
+      <c r="B95">
+        <f t="shared" ref="B95" si="1">YEAR(C95)</f>
+        <v>1979</v>
+      </c>
+      <c r="C95" s="2">
+        <v>28927</v>
+      </c>
+      <c r="D95">
+        <v>1024000</v>
+      </c>
+      <c r="E95">
+        <f>0.37*D95</f>
+        <v>378880</v>
+      </c>
+      <c r="F95">
+        <v>1448000</v>
+      </c>
+      <c r="G95">
+        <f>0.37*F95</f>
+        <v>535760</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>13</v>
+      </c>
+      <c r="B96">
+        <f>YEAR(C96)</f>
+        <v>1980</v>
+      </c>
+      <c r="C96" s="2">
+        <v>29444</v>
+      </c>
+      <c r="D96">
+        <v>2255684</v>
+      </c>
+      <c r="E96">
+        <v>923740</v>
+      </c>
+      <c r="F96">
+        <v>752430</v>
+      </c>
+      <c r="G96">
+        <v>450219</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>13</v>
+      </c>
+      <c r="B97">
+        <f>YEAR(C97)</f>
+        <v>1980</v>
+      </c>
+      <c r="C97" s="2">
+        <v>29514</v>
+      </c>
+      <c r="D97">
+        <v>1922800</v>
+      </c>
+      <c r="E97">
+        <v>1247674</v>
+      </c>
+      <c r="F97">
+        <v>1729543</v>
+      </c>
+      <c r="G97">
+        <v>632674</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>13</v>
+      </c>
+      <c r="B98">
+        <f>YEAR(C98)</f>
+        <v>1981</v>
+      </c>
+      <c r="C98" s="2">
+        <v>29810</v>
+      </c>
+      <c r="D98">
+        <v>1720396</v>
+      </c>
+      <c r="E98">
+        <v>1192781</v>
+      </c>
+      <c r="F98">
+        <v>1762124</v>
+      </c>
+      <c r="G98">
+        <v>879281</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>13</v>
+      </c>
+      <c r="B99">
+        <f>YEAR(C99)</f>
+        <v>1981</v>
+      </c>
+      <c r="C99" s="2">
+        <v>29880</v>
+      </c>
+      <c r="D99">
+        <v>1687092</v>
+      </c>
+      <c r="E99">
+        <v>306485</v>
+      </c>
+      <c r="F99">
+        <v>1517810</v>
+      </c>
+      <c r="G99">
+        <v>337552</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>13</v>
+      </c>
+      <c r="B100">
+        <f>YEAR(C100)</f>
+        <v>1982</v>
+      </c>
+      <c r="C100" s="2">
+        <v>30016</v>
+      </c>
+      <c r="D100">
+        <v>2144947</v>
+      </c>
+      <c r="E100">
+        <v>375980</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>13</v>
+      </c>
+      <c r="B101">
+        <f>YEAR(C101)</f>
+        <v>1982</v>
+      </c>
+      <c r="C101" s="2">
+        <v>30116</v>
+      </c>
+      <c r="D101">
+        <v>4025640</v>
+      </c>
+      <c r="E101">
+        <v>2508385</v>
+      </c>
+      <c r="F101">
+        <v>535894</v>
+      </c>
+      <c r="G101">
+        <v>344340</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>13</v>
+      </c>
+      <c r="B102">
+        <f>YEAR(C102)</f>
+        <v>1982</v>
+      </c>
+      <c r="C102" s="2">
+        <v>30152</v>
+      </c>
+      <c r="D102">
+        <v>2992522</v>
+      </c>
+      <c r="E102">
+        <v>1569741</v>
+      </c>
+      <c r="F102">
+        <v>281139</v>
+      </c>
+      <c r="G102">
+        <v>170713</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>13</v>
+      </c>
+      <c r="B103">
+        <f>YEAR(C103)</f>
+        <v>1982</v>
+      </c>
+      <c r="C103" s="2">
+        <v>30173</v>
+      </c>
+      <c r="D103">
+        <v>4235338</v>
+      </c>
+      <c r="E103">
+        <v>1685478</v>
+      </c>
+      <c r="F103">
+        <v>36405</v>
+      </c>
+      <c r="G103">
+        <v>24295</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>13</v>
+      </c>
+      <c r="B104">
+        <f>YEAR(C104)</f>
+        <v>1982</v>
+      </c>
+      <c r="C104" s="2">
+        <v>30285</v>
+      </c>
+      <c r="D104">
+        <v>3771276</v>
+      </c>
+      <c r="E104">
+        <v>789354</v>
+      </c>
+      <c r="F104">
+        <v>79120</v>
+      </c>
+      <c r="G104">
+        <v>35838</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>13</v>
+      </c>
+      <c r="B105">
+        <f>YEAR(C105)</f>
+        <v>1983</v>
+      </c>
+      <c r="C105" s="2">
+        <v>30522</v>
+      </c>
+      <c r="D105">
+        <v>2911074</v>
+      </c>
+      <c r="E105">
+        <v>1045011</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>13</v>
+      </c>
+      <c r="B106">
+        <f>YEAR(C106)</f>
+        <v>1983</v>
+      </c>
+      <c r="C106" s="2">
+        <v>30573</v>
+      </c>
+      <c r="D106">
+        <v>4751148</v>
+      </c>
+      <c r="E106">
+        <v>1833885</v>
+      </c>
+      <c r="F106">
+        <v>1451384</v>
+      </c>
+      <c r="G106">
+        <v>751732</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>13</v>
+      </c>
+      <c r="B107">
+        <f>YEAR(C107)</f>
+        <v>1983</v>
+      </c>
+      <c r="C107" s="2">
+        <v>30622</v>
+      </c>
+      <c r="D107">
+        <v>4335868</v>
+      </c>
+      <c r="E107">
+        <v>1303277</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>13</v>
+      </c>
+      <c r="B108">
+        <f>YEAR(C108)</f>
+        <v>1984</v>
+      </c>
+      <c r="C108" s="2">
+        <v>30908</v>
+      </c>
+      <c r="D108">
+        <v>2508874</v>
+      </c>
+      <c r="E108">
+        <v>1210088</v>
+      </c>
+      <c r="F108">
+        <v>105297</v>
+      </c>
+      <c r="G108">
+        <v>131280</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>13</v>
+      </c>
+      <c r="B109">
+        <f>YEAR(C109)</f>
+        <v>1984</v>
+      </c>
+      <c r="C109" s="2">
+        <v>30983</v>
+      </c>
+      <c r="D109">
+        <v>3517182</v>
+      </c>
+      <c r="E109">
+        <v>887087</v>
+      </c>
+      <c r="F109">
+        <v>533780</v>
+      </c>
+      <c r="G109">
+        <v>167123</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>13</v>
+      </c>
+      <c r="B110">
+        <f>YEAR(C110)</f>
+        <v>1985</v>
+      </c>
+      <c r="C110" s="2">
+        <v>31276</v>
+      </c>
+      <c r="D110">
+        <v>2684345</v>
+      </c>
+      <c r="E110">
+        <v>628044</v>
+      </c>
+      <c r="F110">
+        <v>420917</v>
+      </c>
+      <c r="G110">
+        <v>119280</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>13</v>
+      </c>
+      <c r="B111">
+        <f>YEAR(C111)</f>
+        <v>1985</v>
+      </c>
+      <c r="C111" s="2">
+        <v>31277</v>
+      </c>
+      <c r="D111">
+        <v>4187392</v>
+      </c>
+      <c r="E111">
+        <v>1587204</v>
+      </c>
+      <c r="F111">
+        <v>680398</v>
+      </c>
+      <c r="G111">
+        <v>354008</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>13</v>
+      </c>
+      <c r="B112">
+        <f>YEAR(C112)</f>
+        <v>1986</v>
+      </c>
+      <c r="C112" s="2">
+        <v>31653</v>
+      </c>
+      <c r="D112">
+        <v>2693317</v>
+      </c>
+      <c r="E112">
+        <v>1396108</v>
+      </c>
+      <c r="F112">
+        <v>202723</v>
+      </c>
+      <c r="G112">
+        <v>105083</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>13</v>
+      </c>
+      <c r="B113">
+        <f>YEAR(C113)</f>
+        <v>1986</v>
+      </c>
+      <c r="C113" s="2">
+        <v>31654</v>
+      </c>
+      <c r="D113">
+        <v>2160057</v>
+      </c>
+      <c r="E113">
+        <v>1092649</v>
+      </c>
+      <c r="F113">
+        <v>162585</v>
+      </c>
+      <c r="G113">
+        <v>82242</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>13</v>
+      </c>
+      <c r="B114">
+        <f>YEAR(C114)</f>
+        <v>1986</v>
+      </c>
+      <c r="C114" s="2">
+        <v>31678</v>
+      </c>
+      <c r="D114">
+        <v>770382</v>
+      </c>
+      <c r="E114">
+        <v>382116</v>
+      </c>
+      <c r="F114">
+        <v>1520922</v>
+      </c>
+      <c r="G114">
+        <v>655143</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>13</v>
+      </c>
+      <c r="B115">
+        <f>YEAR(C115)</f>
+        <v>1986</v>
+      </c>
+      <c r="C115" s="2">
+        <v>31679</v>
+      </c>
+      <c r="D115">
+        <v>930628</v>
+      </c>
+      <c r="E115">
+        <v>708435</v>
+      </c>
+      <c r="F115">
+        <v>1954179</v>
+      </c>
+      <c r="G115">
+        <v>1740864</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>13</v>
+      </c>
+      <c r="B116">
+        <f>YEAR(C116)</f>
+        <v>1986</v>
+      </c>
+      <c r="C116" s="2">
+        <v>31748</v>
+      </c>
+      <c r="D116">
+        <v>1019693</v>
+      </c>
+      <c r="E116">
+        <v>244772</v>
+      </c>
+      <c r="F116">
+        <v>1073530</v>
+      </c>
+      <c r="G116">
+        <v>571977</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>13</v>
+      </c>
+      <c r="B117">
+        <f>YEAR(C117)</f>
+        <v>1987</v>
+      </c>
+      <c r="C117" s="2">
+        <v>31974</v>
+      </c>
+      <c r="D117">
+        <v>146470</v>
+      </c>
+      <c r="E117">
+        <v>69888</v>
+      </c>
+      <c r="F117">
+        <v>1194230</v>
+      </c>
+      <c r="G117">
+        <v>695731</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>13</v>
+      </c>
+      <c r="B118">
+        <f>YEAR(C118)</f>
+        <v>1987</v>
+      </c>
+      <c r="C118" s="2">
+        <v>32036</v>
+      </c>
+      <c r="D118">
+        <v>12133</v>
+      </c>
+      <c r="E118">
+        <v>2798</v>
+      </c>
+      <c r="F118">
+        <v>1201184</v>
+      </c>
+      <c r="G118">
+        <v>276998</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>13</v>
+      </c>
+      <c r="B119">
+        <f>YEAR(C119)</f>
+        <v>1988</v>
+      </c>
+      <c r="C119" s="2">
+        <v>32202</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>1924688</v>
+      </c>
+      <c r="G119">
+        <v>1289216</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>13</v>
+      </c>
+      <c r="B120">
+        <f>YEAR(C120)</f>
+        <v>1988</v>
+      </c>
+      <c r="C120" s="2">
+        <v>32331</v>
+      </c>
+      <c r="D120">
+        <v>772879</v>
+      </c>
+      <c r="E120">
+        <v>259838</v>
+      </c>
+      <c r="F120">
+        <v>1558447</v>
+      </c>
+      <c r="G120">
+        <v>513917</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>13</v>
+      </c>
+      <c r="B121">
+        <f>YEAR(C121)</f>
+        <v>1988</v>
+      </c>
+      <c r="C121" s="2">
+        <v>32408</v>
+      </c>
+      <c r="D121">
+        <v>1609995</v>
+      </c>
+      <c r="E121">
+        <v>401109</v>
+      </c>
+      <c r="F121">
+        <v>734761</v>
+      </c>
+      <c r="G121">
+        <v>273694</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>13</v>
+      </c>
+      <c r="B122">
+        <f>YEAR(C122)</f>
+        <v>1989</v>
+      </c>
+      <c r="C122" s="2">
+        <v>32680</v>
+      </c>
+      <c r="D122">
+        <v>2467806</v>
+      </c>
+      <c r="E122">
+        <v>735095</v>
+      </c>
+      <c r="F122">
+        <v>435714</v>
+      </c>
+      <c r="G122">
+        <v>206841</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>13</v>
+      </c>
+      <c r="B123">
+        <f>YEAR(C123)</f>
+        <v>1989</v>
+      </c>
+      <c r="C123" s="2">
+        <v>32782</v>
+      </c>
+      <c r="D123">
+        <v>4879499</v>
+      </c>
+      <c r="E123">
+        <v>1777770</v>
+      </c>
+      <c r="F123">
+        <v>51126</v>
+      </c>
+      <c r="G123">
+        <v>24280</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>13</v>
+      </c>
+      <c r="B124">
+        <f>YEAR(C124)</f>
+        <v>1990</v>
+      </c>
+      <c r="C124" s="2">
+        <v>32927</v>
+      </c>
+      <c r="D124">
+        <v>2206480</v>
+      </c>
+      <c r="E124">
+        <v>451481</v>
+      </c>
+      <c r="F124">
+        <v>832465</v>
+      </c>
+      <c r="G124">
+        <v>377288</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>13</v>
+      </c>
+      <c r="B125">
+        <f>YEAR(C125)</f>
+        <v>1990</v>
+      </c>
+      <c r="C125" s="2">
+        <v>33044</v>
+      </c>
+      <c r="D125">
+        <v>1311703</v>
+      </c>
+      <c r="E125">
+        <v>486583</v>
+      </c>
+      <c r="F125">
+        <v>869956</v>
+      </c>
+      <c r="G125">
+        <v>488319</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>13</v>
+      </c>
+      <c r="B126">
+        <f>YEAR(C126)</f>
+        <v>1990</v>
+      </c>
+      <c r="C126" s="2">
+        <v>33151</v>
+      </c>
+      <c r="D126">
+        <v>1080526</v>
+      </c>
+      <c r="E126">
+        <v>200865</v>
+      </c>
+      <c r="F126">
+        <v>1457453</v>
+      </c>
+      <c r="G126">
+        <v>270933</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>13</v>
+      </c>
+      <c r="B127">
+        <f>YEAR(C127)</f>
+        <v>1991</v>
+      </c>
+      <c r="C127" s="2">
+        <v>33414</v>
+      </c>
+      <c r="D127">
+        <v>620352</v>
+      </c>
+      <c r="E127">
+        <v>396826</v>
+      </c>
+      <c r="F127">
+        <v>236726</v>
+      </c>
+      <c r="G127">
+        <v>165938</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>13</v>
+      </c>
+      <c r="B128">
+        <f>YEAR(C128)</f>
+        <v>1991</v>
+      </c>
+      <c r="C128" s="2">
+        <v>33519</v>
+      </c>
+      <c r="D128">
+        <v>203549</v>
+      </c>
+      <c r="E128">
+        <v>134897</v>
+      </c>
+      <c r="F128">
+        <v>1043143</v>
+      </c>
+      <c r="G128">
+        <v>380799</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>13</v>
+      </c>
+      <c r="B129">
+        <f>YEAR(C129)</f>
+        <v>1992</v>
+      </c>
+      <c r="C129" s="2">
+        <v>33646</v>
+      </c>
+      <c r="D129">
+        <v>398606</v>
+      </c>
+      <c r="E129">
+        <v>130680</v>
+      </c>
+      <c r="F129">
+        <v>809291</v>
+      </c>
+      <c r="G129">
+        <v>265319</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>13</v>
+      </c>
+      <c r="B130">
+        <f>YEAR(C130)</f>
+        <v>1992</v>
+      </c>
+      <c r="C130" s="2">
+        <v>33778</v>
+      </c>
+      <c r="D130">
+        <v>1787851</v>
+      </c>
+      <c r="E130">
+        <v>1267712</v>
+      </c>
+      <c r="F130">
+        <v>74494</v>
+      </c>
+      <c r="G130">
+        <v>52821</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>13</v>
+      </c>
+      <c r="B131">
+        <f>YEAR(C131)</f>
+        <v>1992</v>
+      </c>
+      <c r="C131" s="2">
+        <v>33941</v>
+      </c>
+      <c r="D131">
+        <v>1053807</v>
+      </c>
+      <c r="E131">
+        <v>170897</v>
+      </c>
+      <c r="F131">
+        <v>1135896</v>
+      </c>
+      <c r="G131">
+        <v>1310377</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>13</v>
+      </c>
+      <c r="B132">
+        <f>YEAR(C132)</f>
+        <v>1993</v>
+      </c>
+      <c r="C132" s="2">
+        <v>34025</v>
+      </c>
+      <c r="D132">
+        <v>682035</v>
+      </c>
+      <c r="E132">
+        <v>130523</v>
+      </c>
+      <c r="F132">
+        <v>1113051</v>
+      </c>
+      <c r="G132">
+        <v>286599</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>13</v>
+      </c>
+      <c r="B133">
+        <f>YEAR(C133)</f>
+        <v>1993</v>
+      </c>
+      <c r="C133" s="2">
+        <v>34026</v>
+      </c>
+      <c r="D133">
+        <v>688612</v>
+      </c>
+      <c r="E133">
+        <v>129710</v>
+      </c>
+      <c r="F133">
+        <v>1106474</v>
+      </c>
+      <c r="G133">
+        <v>285541</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>13</v>
+      </c>
+      <c r="B134">
+        <f>YEAR(C134)</f>
+        <v>1993</v>
+      </c>
+      <c r="C134" s="2">
+        <v>34166</v>
+      </c>
+      <c r="D134">
+        <v>3362542</v>
+      </c>
+      <c r="E134">
+        <v>1550376</v>
+      </c>
+      <c r="F134">
+        <v>32484</v>
+      </c>
+      <c r="G134">
+        <v>15483</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>13</v>
+      </c>
+      <c r="B135">
+        <f>YEAR(C135)</f>
+        <v>1993</v>
+      </c>
+      <c r="C135" s="2">
+        <v>34167</v>
+      </c>
+      <c r="D135">
+        <v>2324777</v>
+      </c>
+      <c r="E135">
+        <v>562255</v>
+      </c>
+      <c r="F135">
+        <v>22060</v>
+      </c>
+      <c r="G135">
+        <v>5609</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>13</v>
+      </c>
+      <c r="B136">
+        <f>YEAR(C136)</f>
+        <v>1993</v>
+      </c>
+      <c r="C136" s="2">
+        <v>34268</v>
+      </c>
+      <c r="D136">
+        <v>1618378</v>
+      </c>
+      <c r="E136">
+        <v>593986</v>
+      </c>
+      <c r="F136">
+        <v>400585</v>
+      </c>
+      <c r="G136">
+        <v>893130</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>13</v>
+      </c>
+      <c r="B137">
+        <f>YEAR(C137)</f>
+        <v>1994</v>
+      </c>
+      <c r="C137" s="2">
+        <v>34380</v>
+      </c>
+      <c r="D137">
+        <v>580562</v>
+      </c>
+      <c r="E137">
+        <v>57882</v>
+      </c>
+      <c r="F137">
+        <v>669616</v>
+      </c>
+      <c r="G137">
+        <v>98466</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>13</v>
+      </c>
+      <c r="B138">
+        <f>YEAR(C138)</f>
+        <v>1994</v>
+      </c>
+      <c r="C138" s="2">
+        <v>34511</v>
+      </c>
+      <c r="D138">
+        <v>4558506</v>
+      </c>
+      <c r="E138">
+        <v>1021958</v>
+      </c>
+      <c r="F138">
+        <v>36426</v>
+      </c>
+      <c r="G138">
+        <v>14758</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>13</v>
+      </c>
+      <c r="B139">
+        <f>YEAR(C139)</f>
+        <v>1994</v>
+      </c>
+      <c r="C139" s="2">
+        <v>34512</v>
+      </c>
+      <c r="D139">
+        <v>3525545</v>
+      </c>
+      <c r="E139">
+        <v>1293850</v>
+      </c>
+      <c r="F139">
+        <v>35368</v>
+      </c>
+      <c r="G139">
+        <v>14502</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>13</v>
+      </c>
+      <c r="B140">
+        <f>YEAR(C140)</f>
+        <v>1994</v>
+      </c>
+      <c r="C140" s="2">
+        <v>34556</v>
+      </c>
+      <c r="D140">
+        <v>7674953</v>
+      </c>
+      <c r="E140">
+        <v>1426691</v>
+      </c>
+      <c r="F140">
+        <v>105788</v>
+      </c>
+      <c r="G140">
+        <v>24193</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>13</v>
+      </c>
+      <c r="B141">
+        <f>YEAR(C141)</f>
+        <v>1994</v>
+      </c>
+      <c r="C141" s="2">
+        <v>34655</v>
+      </c>
+      <c r="D141">
+        <v>5458849</v>
+      </c>
+      <c r="E141">
+        <v>369398</v>
+      </c>
+      <c r="F141">
+        <v>280441</v>
+      </c>
+      <c r="G141">
+        <v>62673</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>13</v>
+      </c>
+      <c r="B142">
+        <f>YEAR(C142)</f>
+        <v>1995</v>
+      </c>
+      <c r="C142" s="2">
+        <v>34760</v>
+      </c>
+      <c r="D142">
+        <v>5676601</v>
+      </c>
+      <c r="E142">
+        <v>492869</v>
+      </c>
+      <c r="F142">
+        <v>198950</v>
+      </c>
+      <c r="G142">
+        <v>30347</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>13</v>
+      </c>
+      <c r="B143">
+        <f>YEAR(C143)</f>
+        <v>1995</v>
+      </c>
+      <c r="C143" s="2">
+        <v>34870</v>
+      </c>
+      <c r="D143">
+        <v>698523</v>
+      </c>
+      <c r="E143">
+        <v>124464</v>
+      </c>
+      <c r="F143">
+        <v>385025</v>
+      </c>
+      <c r="G143">
+        <v>75839</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>13</v>
+      </c>
+      <c r="B144">
+        <f>YEAR(C144)</f>
+        <v>1995</v>
+      </c>
+      <c r="C144" s="2">
+        <v>34871</v>
+      </c>
+      <c r="D144">
+        <v>902286</v>
+      </c>
+      <c r="E144">
+        <v>120601</v>
+      </c>
+      <c r="F144">
+        <v>278206</v>
+      </c>
+      <c r="G144">
+        <v>36419</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>13</v>
+      </c>
+      <c r="B145">
+        <f>YEAR(C145)</f>
+        <v>1995</v>
+      </c>
+      <c r="C145" s="2">
+        <v>34873</v>
+      </c>
+      <c r="D145">
+        <v>975466</v>
+      </c>
+      <c r="E145">
+        <v>145868</v>
+      </c>
+      <c r="F145">
+        <v>462863</v>
+      </c>
+      <c r="G145">
+        <v>87893</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>13</v>
+      </c>
+      <c r="B146">
+        <f>YEAR(C146)</f>
+        <v>1995</v>
+      </c>
+      <c r="C146" s="2">
+        <v>34983</v>
+      </c>
+      <c r="D146">
+        <v>329750</v>
+      </c>
+      <c r="E146">
+        <v>52749</v>
+      </c>
+      <c r="F146">
+        <v>2135979</v>
+      </c>
+      <c r="G146">
+        <v>439520</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>13</v>
+      </c>
+      <c r="B147">
+        <f>YEAR(C147)</f>
+        <v>1996</v>
+      </c>
+      <c r="C147" s="2">
+        <v>35107</v>
+      </c>
+      <c r="D147">
+        <v>416061</v>
+      </c>
+      <c r="E147">
+        <v>94174</v>
+      </c>
+      <c r="F147">
+        <v>1742564</v>
+      </c>
+      <c r="G147">
+        <v>539162</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>13</v>
+      </c>
+      <c r="B148">
+        <f>YEAR(C148)</f>
+        <v>1996</v>
+      </c>
+      <c r="C148" s="2">
+        <v>35249</v>
+      </c>
+      <c r="D148">
+        <v>8275</v>
+      </c>
+      <c r="E148">
+        <v>2718</v>
+      </c>
+      <c r="F148">
+        <v>1448883</v>
+      </c>
+      <c r="G148">
+        <v>471845</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>13</v>
+      </c>
+      <c r="B149">
+        <f>YEAR(C149)</f>
+        <v>1996</v>
+      </c>
+      <c r="C149" s="2">
+        <v>35272</v>
+      </c>
+      <c r="D149">
+        <v>42648</v>
+      </c>
+      <c r="E149">
+        <v>12106</v>
+      </c>
+      <c r="F149">
+        <v>1277873</v>
+      </c>
+      <c r="G149">
+        <v>313811</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>13</v>
+      </c>
+      <c r="B150">
+        <f>YEAR(C150)</f>
+        <v>1996</v>
+      </c>
+      <c r="C150" s="2">
+        <v>35273</v>
+      </c>
+      <c r="D150">
+        <v>45685</v>
+      </c>
+      <c r="E150">
+        <v>13079</v>
+      </c>
+      <c r="F150">
+        <v>1314644</v>
+      </c>
+      <c r="G150">
+        <v>314306</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>13</v>
+      </c>
+      <c r="B151">
+        <f>YEAR(C151)</f>
+        <v>1997</v>
+      </c>
+      <c r="C151" s="2">
+        <v>35465</v>
+      </c>
+      <c r="D151">
+        <v>8278</v>
+      </c>
+      <c r="E151">
+        <v>3525</v>
+      </c>
+      <c r="F151">
+        <v>1432259</v>
+      </c>
+      <c r="G151">
+        <v>438266</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>13</v>
+      </c>
+      <c r="B152">
+        <v>1997</v>
+      </c>
+      <c r="C152" s="2">
+        <v>35592</v>
+      </c>
+      <c r="D152">
+        <v>3460000</v>
+      </c>
+      <c r="E152">
+        <f>D152*0.19</f>
+        <v>657400</v>
+      </c>
+      <c r="F152">
+        <v>71000</v>
+      </c>
+      <c r="G152">
+        <f>F152*0.19</f>
+        <v>13490</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>13</v>
+      </c>
+      <c r="B153">
+        <v>1997</v>
+      </c>
+      <c r="C153" s="2">
+        <v>35645</v>
+      </c>
+      <c r="D153">
+        <v>1816000</v>
+      </c>
+      <c r="E153">
+        <f>D153*0.31</f>
+        <v>562960</v>
+      </c>
+      <c r="F153">
+        <v>71000</v>
+      </c>
+      <c r="G153">
+        <f>F153*0.31</f>
+        <v>22010</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>13</v>
+      </c>
+      <c r="B154">
+        <v>1997</v>
+      </c>
+      <c r="C154" s="2">
+        <v>35748</v>
+      </c>
+      <c r="D154">
+        <v>1943000</v>
+      </c>
+      <c r="E154">
+        <f>D154*0.11</f>
+        <v>213730</v>
+      </c>
+      <c r="F154">
+        <v>28000</v>
+      </c>
+      <c r="G154">
+        <f>F154*0.11</f>
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>13</v>
+      </c>
+      <c r="B155">
+        <v>1998</v>
+      </c>
+      <c r="C155" s="2">
+        <v>35848</v>
+      </c>
+      <c r="D155">
+        <v>1971000</v>
+      </c>
+      <c r="E155">
+        <f>D155*0.12</f>
+        <v>236520</v>
+      </c>
+      <c r="F155">
+        <v>530000</v>
+      </c>
+      <c r="G155">
+        <f>F155*0.12</f>
+        <v>63600</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>13</v>
+      </c>
+      <c r="B156">
+        <v>1998</v>
+      </c>
+      <c r="C156" s="2">
+        <v>35961</v>
+      </c>
+      <c r="D156">
+        <v>1007000</v>
+      </c>
+      <c r="E156">
+        <f>D156*0.2</f>
+        <v>201400</v>
+      </c>
+      <c r="F156">
+        <v>487000</v>
+      </c>
+      <c r="G156">
+        <f>F156*0.2</f>
+        <v>97400</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>13</v>
+      </c>
+      <c r="B157">
+        <v>1999</v>
+      </c>
+      <c r="C157" s="2">
+        <v>36218</v>
+      </c>
+      <c r="D157">
+        <v>11000</v>
+      </c>
+      <c r="E157">
+        <f>D157*0.1</f>
+        <v>1100</v>
+      </c>
+      <c r="F157">
+        <v>1093000</v>
+      </c>
+      <c r="G157">
+        <f>F157*0.1</f>
+        <v>109300</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>13</v>
+      </c>
+      <c r="B158">
+        <v>1999</v>
+      </c>
+      <c r="C158" s="2">
+        <v>36395</v>
+      </c>
+      <c r="D158">
+        <v>2209000</v>
+      </c>
+      <c r="E158">
+        <f>D158*0.19</f>
+        <v>419710</v>
+      </c>
+      <c r="F158">
+        <v>234000</v>
+      </c>
+      <c r="G158">
+        <f>F158*0.19</f>
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>13</v>
+      </c>
+      <c r="B159">
+        <v>2000</v>
+      </c>
+      <c r="C159" s="2">
+        <v>36718</v>
+      </c>
+      <c r="D159">
+        <v>920000</v>
+      </c>
+      <c r="E159">
+        <f>D159*0.14</f>
+        <v>128800.00000000001</v>
+      </c>
+      <c r="F159">
+        <v>84000</v>
+      </c>
+      <c r="G159">
+        <f>F159*0.14</f>
+        <v>11760.000000000002</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>13</v>
+      </c>
+      <c r="B160">
+        <v>2000</v>
+      </c>
+      <c r="C160" s="2">
+        <v>36719</v>
+      </c>
+      <c r="D160">
+        <v>1013000</v>
+      </c>
+      <c r="E160">
+        <f>D160*0.28</f>
+        <v>283640</v>
+      </c>
+      <c r="F160">
+        <v>82000</v>
+      </c>
+      <c r="G160">
+        <f>F160*0.28</f>
+        <v>22960.000000000004</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>13</v>
+      </c>
+      <c r="B161">
+        <v>2000</v>
+      </c>
+      <c r="C161" s="2">
+        <v>36851</v>
+      </c>
+      <c r="D161">
+        <v>1066000</v>
+      </c>
+      <c r="E161">
+        <f>D161*0.17</f>
+        <v>181220</v>
+      </c>
+      <c r="F161">
+        <v>101000</v>
+      </c>
+      <c r="G161">
+        <f>F161*0.17</f>
+        <v>17170</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>13</v>
+      </c>
+      <c r="B162">
+        <v>2001</v>
+      </c>
+      <c r="C162" s="2">
+        <v>37193</v>
+      </c>
+      <c r="D162">
+        <v>2136000</v>
+      </c>
+      <c r="E162">
+        <f>D162*0.1</f>
+        <v>213600</v>
+      </c>
+      <c r="F162">
+        <v>130000</v>
+      </c>
+      <c r="G162">
+        <f>F162*0.1</f>
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>13</v>
+      </c>
+      <c r="B163">
+        <f t="shared" ref="B163:B172" si="2">YEAR(C163)</f>
+        <v>2002</v>
+      </c>
+      <c r="C163" s="3">
+        <v>37565</v>
+      </c>
+      <c r="D163">
+        <v>1824000</v>
+      </c>
+      <c r="E163">
+        <v>164160</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>13</v>
+      </c>
+      <c r="B164">
+        <f t="shared" si="2"/>
+        <v>2004</v>
+      </c>
+      <c r="C164" s="2">
+        <v>38054</v>
+      </c>
+      <c r="D164">
+        <v>392000</v>
+      </c>
+      <c r="E164">
+        <f>D164*0.19</f>
+        <v>74480</v>
+      </c>
+      <c r="F164">
+        <v>1858000</v>
+      </c>
+      <c r="G164">
+        <f>F164*0.19</f>
+        <v>353020</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>13</v>
+      </c>
+      <c r="B165">
+        <f t="shared" si="2"/>
+        <v>2004</v>
+      </c>
+      <c r="C165" s="2">
+        <v>38321</v>
+      </c>
+      <c r="D165">
+        <v>1185000</v>
+      </c>
+      <c r="E165">
+        <f>D165*0.1</f>
+        <v>118500</v>
+      </c>
+      <c r="F165">
+        <v>205000</v>
+      </c>
+      <c r="G165">
+        <f>F165*0.1</f>
+        <v>20500</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>13</v>
+      </c>
+      <c r="B166">
+        <f t="shared" si="2"/>
+        <v>2005</v>
+      </c>
+      <c r="C166" s="2">
+        <v>38531</v>
+      </c>
+      <c r="D166">
+        <v>1530000</v>
+      </c>
+      <c r="E166">
+        <f>D166*0.14</f>
+        <v>214200.00000000003</v>
+      </c>
+      <c r="F166">
+        <v>476000</v>
+      </c>
+      <c r="G166">
+        <f>F166*0.14</f>
+        <v>66640</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>13</v>
+      </c>
+      <c r="B167">
+        <f t="shared" si="2"/>
+        <v>2005</v>
+      </c>
+      <c r="C167" s="2">
+        <v>38560</v>
+      </c>
+      <c r="D167">
+        <v>668000</v>
+      </c>
+      <c r="E167">
+        <f>D167*0.27</f>
+        <v>180360</v>
+      </c>
+      <c r="F167">
+        <v>102000</v>
+      </c>
+      <c r="G167">
+        <f>F167*0.27</f>
+        <v>27540</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>13</v>
+      </c>
+      <c r="B168">
+        <f t="shared" si="2"/>
+        <v>2005</v>
+      </c>
+      <c r="C168" s="2">
+        <v>38622</v>
+      </c>
+      <c r="D168">
+        <v>1627000</v>
+      </c>
+      <c r="E168">
+        <f>D168*0.19</f>
+        <v>309130</v>
+      </c>
+      <c r="F168">
+        <v>635000</v>
+      </c>
+      <c r="G168">
+        <f>F168*0.19</f>
+        <v>120650</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>13</v>
+      </c>
+      <c r="B169">
+        <f t="shared" si="2"/>
+        <v>2006</v>
+      </c>
+      <c r="C169" s="2">
+        <v>38726</v>
+      </c>
+      <c r="D169">
+        <v>830000</v>
+      </c>
+      <c r="E169">
+        <f>D169*0.13</f>
+        <v>107900</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <f>F169*0.13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>13</v>
+      </c>
+      <c r="B170">
+        <f t="shared" si="2"/>
+        <v>2006</v>
+      </c>
+      <c r="C170" s="2">
+        <v>38889</v>
+      </c>
+      <c r="D170">
+        <v>274000</v>
+      </c>
+      <c r="E170">
+        <f>D170*0.31</f>
+        <v>84940</v>
+      </c>
+      <c r="F170">
+        <v>215000</v>
+      </c>
+      <c r="G170">
+        <f>F170*0.31</f>
+        <v>66650</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>13</v>
+      </c>
+      <c r="B171">
+        <f t="shared" si="2"/>
+        <v>2006</v>
+      </c>
+      <c r="C171" s="2">
+        <v>38918</v>
+      </c>
+      <c r="D171">
+        <v>52000</v>
+      </c>
+      <c r="E171">
+        <f>D171*0.26</f>
+        <v>13520</v>
+      </c>
+      <c r="F171">
+        <v>799000</v>
+      </c>
+      <c r="G171">
+        <f>F171*0.26</f>
+        <v>207740</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>13</v>
+      </c>
+      <c r="B172">
+        <f t="shared" si="2"/>
+        <v>2006</v>
+      </c>
+      <c r="C172" s="2">
+        <v>38979</v>
+      </c>
+      <c r="D172">
+        <v>783000</v>
+      </c>
+      <c r="E172">
+        <f>D172*0.11</f>
+        <v>86130</v>
+      </c>
+      <c r="F172">
+        <v>1162000</v>
+      </c>
+      <c r="G172">
+        <f>F172*0.11</f>
+        <v>127820</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>13</v>
+      </c>
+      <c r="B173">
+        <v>2007</v>
+      </c>
+      <c r="C173" s="2">
+        <v>39107</v>
+      </c>
+      <c r="D173">
+        <v>634000</v>
+      </c>
+      <c r="E173">
+        <f>D173*0.26</f>
+        <v>164840</v>
+      </c>
+      <c r="F173">
+        <v>430000</v>
+      </c>
+      <c r="G173">
+        <v>164840</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>13</v>
+      </c>
+      <c r="B174">
+        <v>2007</v>
+      </c>
+      <c r="C174" s="2">
+        <v>39261</v>
+      </c>
+      <c r="D174">
+        <v>1126000</v>
+      </c>
+      <c r="E174">
+        <f>D174*0.24</f>
+        <v>270240</v>
+      </c>
+      <c r="F174">
+        <v>41000</v>
+      </c>
+      <c r="G174">
+        <v>270240</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>13</v>
+      </c>
+      <c r="B175">
+        <v>2007</v>
+      </c>
+      <c r="C175" s="2">
+        <v>39289</v>
+      </c>
+      <c r="D175">
+        <v>711000</v>
+      </c>
+      <c r="E175">
+        <f>D175*0.41</f>
+        <v>291510</v>
+      </c>
+      <c r="F175">
+        <v>41000</v>
+      </c>
+      <c r="G175">
+        <v>291510</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>13</v>
+      </c>
+      <c r="B176">
+        <v>2007</v>
+      </c>
+      <c r="C176" s="2">
+        <v>39317</v>
+      </c>
+      <c r="D176">
+        <v>419000</v>
+      </c>
+      <c r="E176">
+        <f>D176*0.21</f>
+        <v>87990</v>
+      </c>
+      <c r="F176">
+        <v>506000</v>
+      </c>
+      <c r="G176">
+        <v>87990</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>13</v>
+      </c>
+      <c r="B177">
+        <v>2008</v>
+      </c>
+      <c r="C177" s="2">
+        <v>39644</v>
+      </c>
+      <c r="D177">
+        <v>237000</v>
+      </c>
+      <c r="E177">
+        <f>D177*0.35</f>
+        <v>82950</v>
+      </c>
+      <c r="F177">
+        <v>1586000</v>
+      </c>
+      <c r="G177">
+        <f>F177*0.35</f>
+        <v>555100</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>13</v>
+      </c>
+      <c r="B178">
+        <v>2008</v>
+      </c>
+      <c r="C178" s="2">
+        <v>39770</v>
+      </c>
+      <c r="D178">
+        <v>829000</v>
+      </c>
+      <c r="E178">
+        <f>D178*0.16</f>
+        <v>132640</v>
+      </c>
+      <c r="F178">
+        <v>1771000</v>
+      </c>
+      <c r="G178">
+        <f>F178*0.16</f>
+        <v>283360</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>13</v>
+      </c>
+      <c r="B179">
+        <f>YEAR(C179)</f>
+        <v>2009</v>
+      </c>
+      <c r="C179" s="2">
+        <v>40057</v>
+      </c>
+      <c r="D179">
+        <v>1527448</v>
+      </c>
+      <c r="E179">
+        <f>D179*0.25</f>
+        <v>381862</v>
+      </c>
+      <c r="F179">
+        <v>1716196</v>
+      </c>
+      <c r="G179">
+        <f>F179*0.25</f>
+        <v>429049</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>13</v>
+      </c>
+      <c r="B180">
+        <f>YEAR(C180)</f>
+        <v>2010</v>
+      </c>
+      <c r="C180" s="2">
+        <v>40420</v>
+      </c>
+      <c r="D180">
+        <v>1034736</v>
+      </c>
+      <c r="E180">
+        <f>D180*0.23</f>
+        <v>237989.28</v>
+      </c>
+      <c r="F180">
+        <v>887151</v>
+      </c>
+      <c r="G180">
+        <f>F180*0.23</f>
+        <v>204044.73</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>13</v>
+      </c>
+      <c r="B181">
+        <f>YEAR(C181)</f>
+        <v>2011</v>
+      </c>
+      <c r="C181" s="2">
+        <v>40574</v>
+      </c>
+      <c r="D181">
+        <v>1105480</v>
+      </c>
+      <c r="E181">
+        <f>D181*0.22</f>
+        <v>243205.6</v>
+      </c>
+      <c r="F181">
+        <v>84116</v>
+      </c>
+      <c r="G181">
+        <f>F181*0.22</f>
+        <v>18505.52</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>13</v>
+      </c>
+      <c r="B182">
+        <f>YEAR(C182)</f>
+        <v>2011</v>
+      </c>
+      <c r="C182" s="2">
+        <v>40779</v>
+      </c>
+      <c r="D182">
+        <v>10975946</v>
+      </c>
+      <c r="E182">
+        <v>2169613</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>13</v>
+      </c>
+      <c r="B183">
+        <f>YEAR(C183)</f>
+        <v>2012</v>
+      </c>
+      <c r="C183" s="2">
+        <v>41248</v>
+      </c>
+      <c r="D183">
+        <v>3126603</v>
+      </c>
+      <c r="E183">
+        <f>D183*0.21</f>
+        <v>656586.63</v>
+      </c>
+      <c r="F183">
+        <v>15851</v>
+      </c>
+      <c r="G183">
+        <f>F183*0.21</f>
+        <v>3328.71</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>13</v>
+      </c>
+      <c r="B184">
+        <f>YEAR(C184)</f>
+        <v>2012</v>
+      </c>
+      <c r="C184" s="2">
+        <v>40973</v>
+      </c>
+      <c r="D184">
+        <v>236957</v>
+      </c>
+      <c r="E184">
+        <f>D184*0.27</f>
+        <v>63978.390000000007</v>
+      </c>
+      <c r="F184">
+        <v>236957</v>
+      </c>
+      <c r="G184">
+        <f>F184*0.27</f>
+        <v>63978.390000000007</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>13</v>
+      </c>
+      <c r="B185">
+        <f>YEAR(C185)</f>
+        <v>2012</v>
+      </c>
+      <c r="C185" s="2">
+        <v>41142</v>
+      </c>
+      <c r="D185">
+        <v>4155368</v>
+      </c>
+      <c r="E185">
+        <v>900467</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>13</v>
+      </c>
+      <c r="B186">
+        <f>YEAR(C186)</f>
+        <v>2013</v>
+      </c>
+      <c r="C186" s="2">
+        <v>41493</v>
+      </c>
+      <c r="D186">
+        <v>1819210</v>
+      </c>
+      <c r="E186">
+        <f>D186*0.21</f>
+        <v>382034.1</v>
+      </c>
+      <c r="F186">
+        <v>2106890</v>
+      </c>
+      <c r="G186">
+        <f>F186*0.21</f>
+        <v>442446.89999999997</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>13</v>
+      </c>
+      <c r="B187">
+        <f>YEAR(C187)</f>
+        <v>2014</v>
+      </c>
+      <c r="C187" s="2">
+        <v>41716</v>
+      </c>
+      <c r="D187">
+        <v>1222987</v>
+      </c>
+      <c r="E187">
+        <f>D187*0.2</f>
+        <v>244597.40000000002</v>
+      </c>
+      <c r="F187">
+        <v>588254</v>
+      </c>
+      <c r="G187">
+        <f>F187*0.2</f>
+        <v>117650.8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>13</v>
+      </c>
+      <c r="B188">
+        <f>YEAR(C188)</f>
+        <v>2014</v>
+      </c>
+      <c r="C188" s="2">
+        <v>41968</v>
+      </c>
+      <c r="D188">
+        <v>975320</v>
+      </c>
+      <c r="E188">
+        <f>0.21*D188</f>
+        <v>204817.19999999998</v>
+      </c>
+      <c r="F188">
+        <v>1626770</v>
+      </c>
+      <c r="G188">
+        <f>0.21*F188</f>
+        <v>341621.7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>13</v>
+      </c>
+      <c r="B189">
+        <f>YEAR(C189)</f>
+        <v>2015</v>
+      </c>
+      <c r="C189" s="2">
+        <v>42059</v>
+      </c>
+      <c r="D189">
+        <v>611271</v>
+      </c>
+      <c r="E189">
+        <f>D189*0.021</f>
+        <v>12836.691000000001</v>
+      </c>
+      <c r="F189">
+        <v>1964649</v>
+      </c>
+      <c r="G189">
+        <f>F189*0.21</f>
+        <v>412576.29</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>13</v>
+      </c>
+      <c r="B190">
+        <f>YEAR(C190)</f>
+        <v>2015</v>
+      </c>
+      <c r="C190" s="2">
+        <v>42334</v>
+      </c>
+      <c r="D190">
+        <v>219913</v>
+      </c>
+      <c r="E190">
+        <f>0.21*D190</f>
+        <v>46181.729999999996</v>
+      </c>
+      <c r="F190">
+        <v>1505881</v>
+      </c>
+      <c r="G190">
+        <f>0.21*F190</f>
+        <v>316235.01</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>12</v>
+      </c>
+      <c r="B191">
+        <f>YEAR(C191)</f>
+        <v>1980</v>
+      </c>
+      <c r="C191" s="2">
+        <v>29277</v>
+      </c>
+      <c r="D191">
+        <v>4623613</v>
+      </c>
+      <c r="E191">
+        <v>698082</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>12</v>
+      </c>
+      <c r="B192">
+        <f>YEAR(C192)</f>
+        <v>1981</v>
+      </c>
+      <c r="C192" s="2">
+        <v>29606</v>
+      </c>
+      <c r="D192">
+        <v>5684292</v>
+      </c>
+      <c r="E192">
+        <v>1116531</v>
+      </c>
+      <c r="F192">
+        <v>158639</v>
+      </c>
+      <c r="G192">
+        <v>163338</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>12</v>
+      </c>
+      <c r="B193">
+        <f>YEAR(C193)</f>
+        <v>1981</v>
+      </c>
+      <c r="C193" s="2">
+        <v>29803</v>
+      </c>
+      <c r="D193">
+        <v>14396081</v>
+      </c>
+      <c r="E193">
+        <v>3293857</v>
+      </c>
+      <c r="F193">
+        <v>123261</v>
+      </c>
+      <c r="G193">
+        <v>36969</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>12</v>
+      </c>
+      <c r="B194">
+        <f>YEAR(C194)</f>
+        <v>1981</v>
+      </c>
+      <c r="C194" s="2">
+        <v>29858</v>
+      </c>
+      <c r="D194">
+        <v>11189652</v>
+      </c>
+      <c r="E194">
+        <v>1612712</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>12</v>
+      </c>
+      <c r="B195">
+        <f>YEAR(C195)</f>
+        <v>1981</v>
+      </c>
+      <c r="C195" s="2">
+        <v>29923</v>
+      </c>
+      <c r="D195">
+        <v>8335707</v>
+      </c>
+      <c r="E195">
+        <v>1379346</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>12</v>
+      </c>
+      <c r="B196">
+        <f>YEAR(C196)</f>
+        <v>1982</v>
+      </c>
+      <c r="C196" s="2">
+        <v>30188</v>
+      </c>
+      <c r="D196">
+        <v>19786826</v>
+      </c>
+      <c r="E196">
+        <v>3687338</v>
+      </c>
+      <c r="F196">
+        <v>1171047</v>
+      </c>
+      <c r="G196">
+        <v>212426</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>12</v>
+      </c>
+      <c r="B197">
+        <f>YEAR(C197)</f>
+        <v>1982</v>
+      </c>
+      <c r="C197" s="2">
+        <v>30265</v>
+      </c>
+      <c r="D197">
+        <v>7249794</v>
+      </c>
+      <c r="E197">
+        <v>1890346</v>
+      </c>
+      <c r="F197">
+        <v>435913</v>
+      </c>
+      <c r="G197">
+        <v>137604</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>12</v>
+      </c>
+      <c r="B198">
+        <f>YEAR(C198)</f>
+        <v>1983</v>
+      </c>
+      <c r="C198" s="2">
+        <v>30377</v>
+      </c>
+      <c r="D198">
+        <v>8427632</v>
+      </c>
+      <c r="E198">
+        <v>1378401</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>12</v>
+      </c>
+      <c r="B199">
+        <f>YEAR(C199)</f>
+        <v>1983</v>
+      </c>
+      <c r="C199" s="2">
+        <v>30551</v>
+      </c>
+      <c r="D199">
+        <v>13176917</v>
+      </c>
+      <c r="E199">
+        <v>4038902</v>
+      </c>
+      <c r="F199">
+        <v>4662</v>
+      </c>
+      <c r="G199">
+        <v>5826</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>12</v>
+      </c>
+      <c r="B200">
+        <f>YEAR(C200)</f>
+        <v>1983</v>
+      </c>
+      <c r="C200" s="2">
+        <v>30648</v>
+      </c>
+      <c r="D200">
+        <v>9639172</v>
+      </c>
+      <c r="E200">
+        <v>1563720</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>12</v>
+      </c>
+      <c r="B201">
+        <f>YEAR(C201)</f>
+        <v>1984</v>
+      </c>
+      <c r="C201" s="2">
+        <v>30956</v>
+      </c>
+      <c r="D201">
+        <v>19564054</v>
+      </c>
+      <c r="E201">
+        <v>3521352</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>12</v>
+      </c>
+      <c r="B202">
+        <f>YEAR(C202)</f>
+        <v>1985</v>
+      </c>
+      <c r="C202" s="2">
+        <v>31316</v>
+      </c>
+      <c r="D202">
+        <v>6970095</v>
+      </c>
+      <c r="E202">
+        <v>1145018</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>12</v>
+      </c>
+      <c r="B203">
+        <f>YEAR(C203)</f>
+        <v>1985</v>
+      </c>
+      <c r="C203" s="2">
+        <v>31317</v>
+      </c>
+      <c r="D203">
+        <v>9079741</v>
+      </c>
+      <c r="E203">
+        <v>1433266</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>12</v>
+      </c>
+      <c r="B204">
+        <f>YEAR(C204)</f>
+        <v>1986</v>
+      </c>
+      <c r="C204" s="2">
+        <v>31651</v>
+      </c>
+      <c r="D204">
+        <v>8825549</v>
+      </c>
+      <c r="E204">
+        <v>2013110</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>12</v>
+      </c>
+      <c r="B205">
+        <f>YEAR(C205)</f>
+        <v>1986</v>
+      </c>
+      <c r="C205" s="2">
+        <v>31652</v>
+      </c>
+      <c r="D205">
+        <v>11232287</v>
+      </c>
+      <c r="E205">
+        <v>2012645</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>12</v>
+      </c>
+      <c r="B206">
+        <f>YEAR(C206)</f>
+        <v>1986</v>
+      </c>
+      <c r="C206" s="2">
+        <v>31715</v>
+      </c>
+      <c r="D206">
+        <v>4983068</v>
+      </c>
+      <c r="E206">
+        <v>114988</v>
+      </c>
+      <c r="F206">
+        <v>53880</v>
+      </c>
+      <c r="G206">
+        <v>23107</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>12</v>
+      </c>
+      <c r="B207">
+        <f>YEAR(C207)</f>
+        <v>1987</v>
+      </c>
+      <c r="C207" s="2">
+        <v>31831</v>
+      </c>
+      <c r="D207">
+        <v>4762461</v>
+      </c>
+      <c r="E207">
+        <v>785400</v>
+      </c>
+      <c r="F207">
+        <v>98338</v>
+      </c>
+      <c r="G207">
+        <v>78489</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>12</v>
+      </c>
+      <c r="B208">
+        <f>YEAR(C208)</f>
+        <v>1987</v>
+      </c>
+      <c r="C208" s="2">
+        <v>32021</v>
+      </c>
+      <c r="D208">
+        <v>8560289</v>
+      </c>
+      <c r="E208">
+        <v>1390335</v>
+      </c>
+      <c r="F208">
+        <v>57659</v>
+      </c>
+      <c r="G208">
+        <v>14564</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>12</v>
+      </c>
+      <c r="B209">
+        <f>YEAR(C209)</f>
+        <v>1987</v>
+      </c>
+      <c r="C209" s="2">
+        <v>32119</v>
+      </c>
+      <c r="D209">
+        <v>10840544</v>
+      </c>
+      <c r="E209">
+        <v>1397888</v>
+      </c>
+      <c r="F209">
+        <v>200451</v>
+      </c>
+      <c r="G209">
+        <v>41137</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>12</v>
+      </c>
+      <c r="B210">
+        <f>YEAR(C210)</f>
+        <v>1988</v>
+      </c>
+      <c r="C210" s="2">
+        <v>32169</v>
+      </c>
+      <c r="D210">
+        <v>8892056</v>
+      </c>
+      <c r="E210">
+        <v>950613</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>12</v>
+      </c>
+      <c r="B211">
+        <f>YEAR(C211)</f>
+        <v>1988</v>
+      </c>
+      <c r="C211" s="2">
+        <v>32427</v>
+      </c>
+      <c r="D211">
+        <v>9187558</v>
+      </c>
+      <c r="E211">
+        <v>1141438</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>12</v>
+      </c>
+      <c r="B212">
+        <f>YEAR(C212)</f>
+        <v>1989</v>
+      </c>
+      <c r="C212" s="2">
+        <v>32687</v>
+      </c>
+      <c r="D212">
+        <v>11813897</v>
+      </c>
+      <c r="E212">
+        <v>1910313</v>
+      </c>
+      <c r="F212">
+        <v>1923193</v>
+      </c>
+      <c r="G212">
+        <v>310981</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>12</v>
+      </c>
+      <c r="B213">
+        <f>YEAR(C213)</f>
+        <v>1989</v>
+      </c>
+      <c r="C213" s="2">
+        <v>32799</v>
+      </c>
+      <c r="D213">
+        <v>11183261</v>
+      </c>
+      <c r="E213">
+        <v>1959673</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>12</v>
+      </c>
+      <c r="B214">
+        <f>YEAR(C214)</f>
+        <v>1989</v>
+      </c>
+      <c r="C214" s="2">
+        <v>32800</v>
+      </c>
+      <c r="D214">
+        <v>13224299</v>
+      </c>
+      <c r="E214">
+        <v>2304833</v>
+      </c>
+      <c r="F214">
+        <v>42305</v>
+      </c>
+      <c r="G214">
+        <v>11020</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>12</v>
+      </c>
+      <c r="B215">
+        <f>YEAR(C215)</f>
+        <v>1990</v>
+      </c>
+      <c r="C215" s="2">
+        <v>32946</v>
+      </c>
+      <c r="D215">
+        <v>7487085</v>
+      </c>
+      <c r="E215">
+        <v>1092031</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+      <c r="G215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>12</v>
+      </c>
+      <c r="B216">
+        <f>YEAR(C216)</f>
+        <v>1990</v>
+      </c>
+      <c r="C216" s="2">
+        <v>33035</v>
+      </c>
+      <c r="D216">
+        <v>4226888</v>
+      </c>
+      <c r="E216">
+        <v>965642</v>
+      </c>
+      <c r="F216">
+        <v>1286444</v>
+      </c>
+      <c r="G216">
+        <v>293891</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>12</v>
+      </c>
+      <c r="B217">
+        <f>YEAR(C217)</f>
+        <v>1990</v>
+      </c>
+      <c r="C217" s="2">
+        <v>33036</v>
+      </c>
+      <c r="D217">
+        <v>4876891</v>
+      </c>
+      <c r="E217">
+        <v>1186063</v>
+      </c>
+      <c r="F217">
+        <v>1484271</v>
+      </c>
+      <c r="G217">
+        <v>360976</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>12</v>
+      </c>
+      <c r="B218">
+        <f>YEAR(C218)</f>
+        <v>1990</v>
+      </c>
+      <c r="C218" s="2">
+        <v>33037</v>
+      </c>
+      <c r="D218">
+        <v>5477969</v>
+      </c>
+      <c r="E218">
+        <v>1287579</v>
+      </c>
+      <c r="F218">
+        <v>1667208</v>
+      </c>
+      <c r="G218">
+        <v>391872</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>12</v>
+      </c>
+      <c r="B219">
+        <f>YEAR(C219)</f>
+        <v>1990</v>
+      </c>
+      <c r="C219" s="2">
+        <v>33161</v>
+      </c>
+      <c r="D219">
+        <v>10173989</v>
+      </c>
+      <c r="E219">
+        <v>2119602</v>
+      </c>
+      <c r="F219">
+        <v>2594501</v>
+      </c>
+      <c r="G219">
+        <v>659443</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>12</v>
+      </c>
+      <c r="B220">
+        <f>YEAR(C220)</f>
+        <v>1990</v>
+      </c>
+      <c r="C220" s="2">
+        <v>33162</v>
+      </c>
+      <c r="D220">
+        <v>9156313</v>
+      </c>
+      <c r="E220">
+        <v>1485174</v>
+      </c>
+      <c r="F220">
+        <v>2250977</v>
+      </c>
+      <c r="G220">
+        <v>360135</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>12</v>
+      </c>
+      <c r="B221">
+        <f>YEAR(C221)</f>
+        <v>1990</v>
+      </c>
+      <c r="C221" s="2">
+        <v>33163</v>
+      </c>
+      <c r="D221">
+        <v>10967889</v>
+      </c>
+      <c r="E221">
+        <v>1980273</v>
+      </c>
+      <c r="F221">
+        <v>2706287</v>
+      </c>
+      <c r="G221">
+        <v>607388</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>12</v>
+      </c>
+      <c r="B222">
+        <f>YEAR(C222)</f>
+        <v>1990</v>
+      </c>
+      <c r="C222" s="2">
+        <v>33164</v>
+      </c>
+      <c r="D222">
+        <v>9142123</v>
+      </c>
+      <c r="E222">
+        <v>1627897</v>
+      </c>
+      <c r="F222">
+        <v>2244214</v>
+      </c>
+      <c r="G222">
+        <v>445150</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>12</v>
+      </c>
+      <c r="B223">
+        <f>YEAR(C223)</f>
+        <v>1991</v>
+      </c>
+      <c r="C223" s="2">
+        <v>33275</v>
+      </c>
+      <c r="D223">
+        <v>8541187</v>
+      </c>
+      <c r="E223">
+        <v>1149338</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>12</v>
+      </c>
+      <c r="B224">
+        <f>YEAR(C224)</f>
+        <v>1991</v>
+      </c>
+      <c r="C224" s="2">
+        <v>33278</v>
+      </c>
+      <c r="D224">
+        <v>8659533</v>
+      </c>
+      <c r="E224">
+        <v>2139007</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>12</v>
+      </c>
+      <c r="B225">
+        <f>YEAR(C225)</f>
+        <v>1991</v>
+      </c>
+      <c r="C225" s="2">
+        <v>33438</v>
+      </c>
+      <c r="D225">
+        <v>5960245</v>
+      </c>
+      <c r="E225">
+        <v>1254240</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>12</v>
+      </c>
+      <c r="B226">
+        <f>YEAR(C226)</f>
+        <v>1991</v>
+      </c>
+      <c r="C226" s="2">
+        <v>33527</v>
+      </c>
+      <c r="D226">
+        <v>5883006</v>
+      </c>
+      <c r="E226">
+        <v>1124826</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>12</v>
+      </c>
+      <c r="B227">
+        <f>YEAR(C227)</f>
+        <v>1992</v>
+      </c>
+      <c r="C227" s="2">
+        <v>33658</v>
+      </c>
+      <c r="D227">
+        <v>4776046</v>
+      </c>
+      <c r="E227">
+        <v>731461</v>
+      </c>
+      <c r="F227">
+        <v>162138</v>
+      </c>
+      <c r="G227">
+        <v>252918</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>12</v>
+      </c>
+      <c r="B228">
+        <f>YEAR(C228)</f>
+        <v>1992</v>
+      </c>
+      <c r="C228" s="2">
+        <v>33798</v>
+      </c>
+      <c r="D228">
+        <v>6032231</v>
+      </c>
+      <c r="E228">
+        <v>1248407</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>12</v>
+      </c>
+      <c r="B229">
+        <f>YEAR(C229)</f>
+        <v>1992</v>
+      </c>
+      <c r="C229" s="2">
+        <v>33799</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>12</v>
+      </c>
+      <c r="B230">
+        <f>YEAR(C230)</f>
+        <v>1992</v>
+      </c>
+      <c r="C230" s="2">
+        <v>33903</v>
+      </c>
+      <c r="D230">
+        <v>3372678</v>
+      </c>
+      <c r="E230">
+        <v>692662</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>12</v>
+      </c>
+      <c r="B231">
+        <f>YEAR(C231)</f>
+        <v>1992</v>
+      </c>
+      <c r="C231" s="2">
+        <v>33903</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>12</v>
+      </c>
+      <c r="B232">
+        <f>YEAR(C232)</f>
+        <v>1993</v>
+      </c>
+      <c r="C232" s="2">
+        <v>34010</v>
+      </c>
+      <c r="D232">
+        <v>4560412</v>
+      </c>
+      <c r="E232">
+        <v>604464</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>12</v>
+      </c>
+      <c r="B233">
+        <f>YEAR(C233)</f>
+        <v>1993</v>
+      </c>
+      <c r="C233" s="2">
+        <v>34177</v>
+      </c>
+      <c r="D233">
+        <v>10198355</v>
+      </c>
+      <c r="E233">
+        <v>3860607</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>12</v>
+      </c>
+      <c r="B234">
+        <f>YEAR(C234)</f>
+        <v>1993</v>
+      </c>
+      <c r="C234" s="2">
+        <v>34254</v>
+      </c>
+      <c r="D234">
+        <v>5992046</v>
+      </c>
+      <c r="E234">
+        <v>806992</v>
+      </c>
+      <c r="F234">
+        <v>57164</v>
+      </c>
+      <c r="G234">
+        <v>58691</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>12</v>
+      </c>
+      <c r="B235">
+        <f>YEAR(C235)</f>
+        <v>1994</v>
+      </c>
+      <c r="C235" s="2">
+        <v>34365</v>
+      </c>
+      <c r="D235">
+        <v>5895395</v>
+      </c>
+      <c r="E235">
+        <v>780598</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>12</v>
+      </c>
+      <c r="B236">
+        <f>YEAR(C236)</f>
+        <v>1994</v>
+      </c>
+      <c r="C236" s="2">
+        <v>34626</v>
+      </c>
+      <c r="D236">
+        <v>6769766</v>
+      </c>
+      <c r="E236">
+        <v>732204</v>
+      </c>
+      <c r="F236">
+        <v>109137</v>
+      </c>
+      <c r="G236">
+        <v>23773</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>12</v>
+      </c>
+      <c r="B237">
+        <f>YEAR(C237)</f>
+        <v>1995</v>
+      </c>
+      <c r="C237" s="2">
+        <v>34893</v>
+      </c>
+      <c r="D237">
+        <v>15664682</v>
+      </c>
+      <c r="E237">
+        <v>2908795</v>
+      </c>
+      <c r="F237">
+        <v>0</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>12</v>
+      </c>
+      <c r="B238">
+        <f>YEAR(C238)</f>
+        <v>1995</v>
+      </c>
+      <c r="C238" s="2">
+        <v>34894</v>
+      </c>
+      <c r="D238">
+        <v>10913020</v>
+      </c>
+      <c r="E238">
+        <v>1990404</v>
+      </c>
+      <c r="F238">
+        <v>0</v>
+      </c>
+      <c r="G238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>12</v>
+      </c>
+      <c r="B239">
+        <f>YEAR(C239)</f>
+        <v>1995</v>
+      </c>
+      <c r="C239" s="2">
+        <v>35023</v>
+      </c>
+      <c r="D239">
+        <v>10634355</v>
+      </c>
+      <c r="E239">
+        <v>1445908</v>
+      </c>
+      <c r="F239">
+        <v>3462461</v>
+      </c>
+      <c r="G239">
+        <v>545953</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>12</v>
+      </c>
+      <c r="B240">
+        <f>YEAR(C240)</f>
+        <v>1995</v>
+      </c>
+      <c r="C240" s="2">
+        <v>35024</v>
+      </c>
+      <c r="D240">
+        <v>11699308</v>
+      </c>
+      <c r="E240">
+        <v>1924264</v>
+      </c>
+      <c r="F240">
+        <v>2394737</v>
+      </c>
+      <c r="G240">
+        <v>962122</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>12</v>
+      </c>
+      <c r="B241">
+        <f>YEAR(C241)</f>
+        <v>1996</v>
+      </c>
+      <c r="C241" s="2">
+        <v>35094</v>
+      </c>
+      <c r="D241">
+        <v>9780873</v>
+      </c>
+      <c r="E241">
+        <v>10122076</v>
+      </c>
+      <c r="F241">
+        <v>390379</v>
+      </c>
+      <c r="G241">
+        <v>158443</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>12</v>
+      </c>
+      <c r="B242">
+        <f>YEAR(C242)</f>
+        <v>1996</v>
+      </c>
+      <c r="C242" s="2">
+        <v>35268</v>
+      </c>
+      <c r="D242">
+        <v>7258271</v>
+      </c>
+      <c r="E242">
+        <v>1351084</v>
+      </c>
+      <c r="F242">
+        <v>163067</v>
+      </c>
+      <c r="G242">
+        <v>88455</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>12</v>
+      </c>
+      <c r="B243">
+        <f>YEAR(C243)</f>
+        <v>1996</v>
+      </c>
+      <c r="C243" s="2">
+        <v>35388</v>
+      </c>
+      <c r="D243">
+        <v>4471744</v>
+      </c>
+      <c r="E243">
+        <v>756874</v>
+      </c>
+      <c r="F243">
+        <v>1083062</v>
+      </c>
+      <c r="G243">
+        <v>253372</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>12</v>
+      </c>
+      <c r="B244">
+        <v>1997</v>
+      </c>
+      <c r="C244" s="2"/>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>12</v>
+      </c>
+      <c r="B245">
+        <v>1998</v>
+      </c>
+      <c r="C245" s="2"/>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>12</v>
+      </c>
+      <c r="B246">
+        <v>1999</v>
+      </c>
+      <c r="C246" s="2"/>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>12</v>
+      </c>
+      <c r="B247">
+        <v>2000</v>
+      </c>
+      <c r="C247" s="2"/>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>12</v>
+      </c>
+      <c r="B248">
+        <v>2001</v>
+      </c>
+      <c r="C248" s="2"/>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>12</v>
+      </c>
+      <c r="B249">
+        <v>2002</v>
+      </c>
+      <c r="C249" s="2"/>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>12</v>
+      </c>
+      <c r="B250">
+        <v>2003</v>
+      </c>
+      <c r="C250" s="2"/>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>12</v>
+      </c>
+      <c r="B251">
+        <v>2004</v>
+      </c>
+      <c r="C251" s="2"/>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>12</v>
+      </c>
+      <c r="B252">
+        <v>2005</v>
+      </c>
+      <c r="C252" s="2"/>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>12</v>
+      </c>
+      <c r="B253">
+        <v>2006</v>
+      </c>
+      <c r="C253" s="2">
+        <v>38721</v>
+      </c>
+      <c r="D253">
+        <v>3525291</v>
+      </c>
+      <c r="E253">
+        <v>719392</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
+      <c r="G253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>12</v>
+      </c>
+      <c r="B254">
+        <v>2007</v>
+      </c>
+      <c r="C254" s="2"/>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>12</v>
+      </c>
+      <c r="B255">
+        <v>2008</v>
+      </c>
+      <c r="C255" s="2">
+        <v>39651</v>
+      </c>
+      <c r="D255">
+        <v>5541000</v>
+      </c>
+      <c r="E255">
+        <f>0.28*D255</f>
+        <v>1551480.0000000002</v>
+      </c>
+      <c r="F255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>12</v>
+      </c>
+      <c r="B256">
+        <v>2008</v>
+      </c>
+      <c r="C256" s="2">
+        <v>39769</v>
+      </c>
+      <c r="D256">
+        <v>6017000</v>
+      </c>
+      <c r="E256">
+        <f>0.16*D256</f>
+        <v>962720</v>
+      </c>
+      <c r="F256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>12</v>
+      </c>
+      <c r="B257">
+        <f>YEAR(C257)</f>
+        <v>2008</v>
+      </c>
+      <c r="C257" s="2">
+        <v>39783</v>
+      </c>
+      <c r="D257">
+        <v>6017335</v>
+      </c>
+      <c r="E257">
+        <v>935967</v>
+      </c>
+      <c r="F257">
+        <v>0</v>
+      </c>
+      <c r="G257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>12</v>
+      </c>
+      <c r="B258">
+        <v>2009</v>
+      </c>
+      <c r="C258" s="2">
+        <v>39973</v>
+      </c>
+      <c r="D258">
+        <v>5540818</v>
+      </c>
+      <c r="E258">
+        <f>0.28*D258</f>
+        <v>1551429.04</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>12</v>
+      </c>
+      <c r="B259">
+        <f t="shared" ref="B259:B273" si="3">YEAR(C259)</f>
+        <v>2009</v>
+      </c>
+      <c r="C259" s="2">
+        <v>40049</v>
+      </c>
+      <c r="D259">
+        <v>7596484</v>
+      </c>
+      <c r="E259">
+        <f>0.2*D259</f>
+        <v>1519296.8</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>12</v>
+      </c>
+      <c r="B260">
+        <f t="shared" si="3"/>
+        <v>2009</v>
+      </c>
+      <c r="C260" s="2">
+        <v>40147</v>
+      </c>
+      <c r="D260">
+        <v>2450742</v>
+      </c>
+      <c r="E260">
+        <f>0.19*D260</f>
+        <v>465640.98</v>
+      </c>
+      <c r="F260">
+        <v>0</v>
+      </c>
+      <c r="G260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>12</v>
+      </c>
+      <c r="B261">
+        <v>2010</v>
+      </c>
+      <c r="C261" s="2">
+        <v>40191</v>
+      </c>
+      <c r="D261">
+        <v>4979378</v>
+      </c>
+      <c r="E261">
+        <f>0.12*D261</f>
+        <v>597525.36</v>
+      </c>
+      <c r="F261">
+        <v>0</v>
+      </c>
+      <c r="G261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>12</v>
+      </c>
+      <c r="B262">
+        <f t="shared" si="3"/>
+        <v>2010</v>
+      </c>
+      <c r="C262" s="2">
+        <v>40406</v>
+      </c>
+      <c r="D262">
+        <v>16661391</v>
+      </c>
+      <c r="E262">
+        <v>5621822</v>
+      </c>
+      <c r="F262">
+        <v>0</v>
+      </c>
+      <c r="G262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>12</v>
+      </c>
+      <c r="B263">
+        <f t="shared" si="3"/>
+        <v>2010</v>
+      </c>
+      <c r="C263" s="2">
+        <v>40414</v>
+      </c>
+      <c r="D263">
+        <v>8166458</v>
+      </c>
+      <c r="E263">
+        <v>2639773</v>
+      </c>
+      <c r="F263">
+        <v>0</v>
+      </c>
+      <c r="G263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>12</v>
+      </c>
+      <c r="B264">
+        <v>2011</v>
+      </c>
+      <c r="C264" s="2">
+        <v>40771</v>
+      </c>
+      <c r="D264">
+        <v>16661391</v>
+      </c>
+      <c r="E264">
+        <f>0.34*D264</f>
+        <v>5664872.9400000004</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>12</v>
+      </c>
+      <c r="B265">
+        <v>2011</v>
+      </c>
+      <c r="C265" s="2">
+        <v>40868</v>
+      </c>
+      <c r="D265">
+        <v>13444391</v>
+      </c>
+      <c r="E265">
+        <f>0.09*D265</f>
+        <v>1209995.19</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>12</v>
+      </c>
+      <c r="B266">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+      <c r="C266" s="2">
+        <v>41226</v>
+      </c>
+      <c r="D266">
+        <v>14526189</v>
+      </c>
+      <c r="E266">
+        <v>2099030</v>
+      </c>
+      <c r="F266">
+        <v>14526189</v>
+      </c>
+      <c r="G266">
+        <v>2099030</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>12</v>
+      </c>
+      <c r="B267">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+      <c r="C267" s="2">
+        <v>41073</v>
+      </c>
+      <c r="D267">
+        <v>15262441</v>
+      </c>
+      <c r="E267">
+        <v>5573233</v>
+      </c>
+      <c r="F267">
+        <v>0</v>
+      </c>
+      <c r="G267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>12</v>
+      </c>
+      <c r="B268">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+      <c r="C268" s="2">
+        <v>41136</v>
+      </c>
+      <c r="D268">
+        <v>21862120</v>
+      </c>
+      <c r="E268">
+        <v>7651741.9999999991</v>
+      </c>
+      <c r="F268">
+        <v>0</v>
+      </c>
+      <c r="G268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>12</v>
+      </c>
+      <c r="B269">
+        <f t="shared" si="3"/>
+        <v>2013</v>
+      </c>
+      <c r="C269" s="2">
+        <v>41513</v>
+      </c>
+      <c r="D269">
+        <v>11210000</v>
+      </c>
+      <c r="E269">
+        <f>0.21*D269</f>
+        <v>2354100</v>
+      </c>
+      <c r="F269">
+        <v>0</v>
+      </c>
+      <c r="G269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>12</v>
+      </c>
+      <c r="B270">
+        <f t="shared" si="3"/>
+        <v>2013</v>
+      </c>
+      <c r="C270" s="2">
+        <v>41591</v>
+      </c>
+      <c r="D270">
+        <v>3687000</v>
+      </c>
+      <c r="E270">
+        <f>0.31*D270</f>
+        <v>1142970</v>
+      </c>
+      <c r="F270">
+        <v>0</v>
+      </c>
+      <c r="G270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>12</v>
+      </c>
+      <c r="B271">
+        <f t="shared" si="3"/>
+        <v>2014</v>
+      </c>
+      <c r="C271" s="4">
+        <v>41932</v>
+      </c>
+      <c r="D271">
+        <v>13157290</v>
+      </c>
+      <c r="E271">
+        <f>0.28*D271</f>
+        <v>3684041.2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>12</v>
+      </c>
+      <c r="B272">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="C272" s="4">
+        <v>42042</v>
+      </c>
+      <c r="D272">
+        <v>1210757</v>
+      </c>
+      <c r="E272">
+        <f>D272*0.23</f>
+        <v>278474.11</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>12</v>
+      </c>
+      <c r="B273">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="C273" s="4">
+        <v>42317</v>
+      </c>
+      <c r="D273">
+        <v>4151619</v>
+      </c>
+      <c r="E273">
+        <f>0.3*D273</f>
+        <v>1245485.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G90" xr:uid="{47CDFEE8-69FE-4C98-AD8C-E5081C486B0D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G230">
+      <sortCondition ref="A1:A90"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E33CA0F3-68C3-4F60-B516-F4CB80D1245F}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,17 +6889,11 @@
       <c r="A2">
         <v>1976</v>
       </c>
-      <c r="H2">
-        <v>1.5980000000000001</v>
-      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1977</v>
       </c>
-      <c r="H3">
-        <v>0.76800000000000002</v>
-      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -477,6 +6908,9 @@
       <c r="D4">
         <v>8.9102833158447012</v>
       </c>
+      <c r="H4">
+        <v>1.5980000000000001</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -492,7 +6926,7 @@
         <v>15.7</v>
       </c>
       <c r="H5">
-        <v>2.8769999999999998</v>
+        <v>0.76800000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -517,9 +6951,6 @@
       <c r="G6">
         <v>4.6239999999999997</v>
       </c>
-      <c r="H6">
-        <v>2.145</v>
-      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -544,7 +6975,7 @@
         <v>5.6840000000000002</v>
       </c>
       <c r="H7">
-        <v>3.7850000000000001</v>
+        <v>2.8769999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -570,7 +7001,7 @@
         <v>8.3360000000000003</v>
       </c>
       <c r="H8">
-        <v>4.298</v>
+        <v>2.145</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -596,7 +7027,7 @@
         <v>8.4269999999999996</v>
       </c>
       <c r="H9">
-        <v>3.512</v>
+        <v>3.7850000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -622,7 +7053,7 @@
         <v>9.6389999999999993</v>
       </c>
       <c r="H10">
-        <v>4.2549999999999999</v>
+        <v>4.298</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -648,7 +7079,7 @@
         <v>19.564</v>
       </c>
       <c r="H11">
-        <v>0.96</v>
+        <v>3.512</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -674,7 +7105,7 @@
         <v>6.97</v>
       </c>
       <c r="H12">
-        <v>2.5000000000000001E-2</v>
+        <v>4.2549999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -700,7 +7131,7 @@
         <v>5.04</v>
       </c>
       <c r="H13">
-        <v>2.0670000000000002</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -726,7 +7157,7 @@
         <v>8.89</v>
       </c>
       <c r="H14">
-        <v>2.5710000000000002</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -752,7 +7183,7 @@
         <v>9.19</v>
       </c>
       <c r="H15">
-        <v>1.68</v>
+        <v>2.0670000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -778,7 +7209,7 @@
         <v>11.18</v>
       </c>
       <c r="H16">
-        <v>0.85899999999999999</v>
+        <v>2.5710000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -804,7 +7235,7 @@
         <v>8.5399999999999991</v>
       </c>
       <c r="H17">
-        <v>0.94699999999999995</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -830,7 +7261,7 @@
         <v>5.88</v>
       </c>
       <c r="H18">
-        <v>0.89900000000000002</v>
+        <v>0.85899999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -856,7 +7287,7 @@
         <v>3.37</v>
       </c>
       <c r="H19">
-        <v>5.4619999999999997</v>
+        <v>0.94699999999999995</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -882,7 +7313,7 @@
         <v>5.99</v>
       </c>
       <c r="H20">
-        <v>0.33</v>
+        <v>0.89900000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -908,7 +7339,7 @@
         <v>5.9</v>
       </c>
       <c r="H21">
-        <v>2.5999999999999999E-2</v>
+        <v>5.4619999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -934,7 +7365,7 @@
         <v>9.7799999999999994</v>
       </c>
       <c r="H22">
-        <v>1.9650000000000001</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -960,7 +7391,7 @@
         <v>4.76</v>
       </c>
       <c r="H23">
-        <v>4.9000000000000002E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -986,7 +7417,7 @@
         <v>18.12</v>
       </c>
       <c r="H24">
-        <v>2.0579999999999998</v>
+        <v>1.9650000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1012,7 +7443,7 @@
         <v>8.23</v>
       </c>
       <c r="H25">
-        <v>1.0660000000000001</v>
+        <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1038,7 +7469,7 @@
         <v>8.4600000000000009</v>
       </c>
       <c r="H26">
-        <v>2.1360000000000001</v>
+        <v>2.0579999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1064,7 +7495,7 @@
         <v>9.68</v>
       </c>
       <c r="H27">
-        <v>1.8240000000000001</v>
+        <v>1.0660000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1090,7 +7521,7 @@
         <v>7.48</v>
       </c>
       <c r="H28">
-        <v>1.367</v>
+        <v>2.1360000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1116,7 +7547,7 @@
         <v>4.7699999999999996</v>
       </c>
       <c r="H29">
-        <v>1.2270000000000001</v>
+        <v>1.8240000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1142,7 +7573,7 @@
         <v>8.6</v>
       </c>
       <c r="H30">
-        <v>0.83</v>
+        <v>1.367</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1168,7 +7599,7 @@
         <v>6.7</v>
       </c>
       <c r="H31">
-        <v>0.63400000000000001</v>
+        <v>1.2270000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1194,7 +7625,7 @@
         <v>3.5</v>
       </c>
       <c r="H32">
-        <v>0.48199999999999998</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1220,7 +7651,7 @@
         <v>3.6</v>
       </c>
       <c r="H33">
-        <v>1.7568999999999999</v>
+        <v>0.63400000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1246,7 +7677,7 @@
         <v>5</v>
       </c>
       <c r="H34">
-        <v>1.39</v>
+        <v>0.48199999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1272,7 +7703,7 @@
         <v>6.02</v>
       </c>
       <c r="H35">
-        <v>1.19</v>
+        <v>1.7568999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1298,7 +7729,7 @@
         <v>4.9800000000000004</v>
       </c>
       <c r="H36">
-        <v>0.28000000000000003</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1324,7 +7755,7 @@
         <v>14.53</v>
       </c>
       <c r="H37">
-        <v>3.14</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1350,7 +7781,7 @@
         <v>13.44</v>
       </c>
       <c r="H38">
-        <v>1.81</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1376,7 +7807,7 @@
         <v>14.53</v>
       </c>
       <c r="H39">
-        <v>0.61099999999999999</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1395,6 +7826,9 @@
       <c r="G40">
         <v>3.69</v>
       </c>
+      <c r="H40">
+        <v>1.81</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
@@ -1405,6 +7839,9 @@
       </c>
       <c r="G41">
         <v>1.21</v>
+      </c>
+      <c r="H41">
+        <v>0.61099999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">

--- a/1. data/Barkley-Sk_pre-smolt_abundances.xlsx
+++ b/1. data/Barkley-Sk_pre-smolt_abundances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brownn\Documents\WCVI\Barkley-Sk-CSAS\1. data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055FBC1F-361D-402F-A563-A6E69B7F02CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB19D0AE-3FF2-4634-9D94-E12E568BC19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{93B9BABA-C468-4873-970E-7D7E9A90394F}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ATS_estimates!$A$1:$I$96</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -610,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CDFEE8-69FE-4C98-AD8C-E5081C486B0D}">
   <dimension ref="A1:J307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E271" sqref="E271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7423,7 +7423,7 @@
         <v>41716</v>
       </c>
       <c r="D206" s="4">
-        <f t="shared" si="21"/>
+        <f>IF(MONTH(C206)&lt;4,B206-2,B206-1)</f>
         <v>2012</v>
       </c>
       <c r="E206" s="4">
@@ -9588,16 +9588,13 @@
         <v>12</v>
       </c>
       <c r="B271">
-        <f t="shared" si="25"/>
-        <v>1900</v>
+        <v>2002</v>
       </c>
       <c r="D271" s="4">
-        <f t="shared" si="28"/>
-        <v>1898</v>
+        <v>2001</v>
       </c>
       <c r="E271" s="4">
-        <f t="shared" si="29"/>
-        <v>1897</v>
+        <v>2000</v>
       </c>
       <c r="G271" s="9"/>
     </row>
@@ -10850,7 +10847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E33CA0F3-68C3-4F60-B516-F4CB80D1245F}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>

--- a/1. data/Barkley-Sk_pre-smolt_abundances.xlsx
+++ b/1. data/Barkley-Sk_pre-smolt_abundances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brownn\Documents\WCVI\Barkley-Sk-CSAS\1. data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB19D0AE-3FF2-4634-9D94-E12E568BC19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE94DA91-C754-4CC7-852D-8C06ACF18513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{93B9BABA-C468-4873-970E-7D7E9A90394F}"/>
   </bookViews>
@@ -44,6 +44,8 @@
   <authors>
     <author>tc={51828A2D-7DC2-4829-B811-13295E6A575B}</author>
     <author>Brown, Nicholas</author>
+    <author>tc={9450F348-AFEB-4317-AD43-51976EFBA421}</author>
+    <author>tc={C335BF2D-8A76-4A85-B639-EC939DD5E53A}</author>
   </authors>
   <commentList>
     <comment ref="G1" authorId="0" shapeId="0" xr:uid="{51828A2D-7DC2-4829-B811-13295E6A575B}">
@@ -100,6 +102,22 @@
           <t xml:space="preserve">
 My choice, overriding Hyatt's choice.</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="F112" authorId="2" shapeId="0" xr:uid="{9450F348-AFEB-4317-AD43-51976EFBA421}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    From Howard Stiff via log-linear regression of total abundance versus smolt length (62mm in Nov 1979) in Hucuktlis Lake.</t>
+      </text>
+    </comment>
+    <comment ref="G112" authorId="3" shapeId="0" xr:uid="{C335BF2D-8A76-4A85-B639-EC939DD5E53A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    1977-1985 average CV applied to guesstimated mean</t>
       </text>
     </comment>
     <comment ref="J251" authorId="1" shapeId="0" xr:uid="{F52DD24B-5ABC-4F49-A632-F9389FACE903}">
@@ -204,7 +222,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +258,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -262,7 +287,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -279,6 +304,8 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -603,6 +630,12 @@
   <threadedComment ref="G1" dT="2025-02-07T20:07:08.24" personId="{3DE5C77A-2EC9-410D-AF92-25A6BD2452F6}" id="{51828A2D-7DC2-4829-B811-13295E6A575B}">
     <text xml:space="preserve">SD? =sqrt(sum(transect variances)/N transects) </text>
   </threadedComment>
+  <threadedComment ref="F112" dT="2025-03-04T16:49:42.59" personId="{3DE5C77A-2EC9-410D-AF92-25A6BD2452F6}" id="{9450F348-AFEB-4317-AD43-51976EFBA421}">
+    <text>From Howard Stiff via log-linear regression of total abundance versus smolt length (62mm in Nov 1979) in Hucuktlis Lake.</text>
+  </threadedComment>
+  <threadedComment ref="G112" dT="2025-03-04T16:50:12.85" personId="{3DE5C77A-2EC9-410D-AF92-25A6BD2452F6}" id="{C335BF2D-8A76-4A85-B639-EC939DD5E53A}">
+    <text>1977-1985 average CV applied to guesstimated mean</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -610,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CDFEE8-69FE-4C98-AD8C-E5081C486B0D}">
   <dimension ref="A1:J307"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E271" sqref="E271"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="G112" sqref="G112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4261,6 +4294,13 @@
       <c r="E112" s="4">
         <f t="shared" si="10"/>
         <v>1977</v>
+      </c>
+      <c r="F112" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="G112" s="11">
+        <f>(SUM(G109:G111,G113:G128)/SUM(F109:F111,F113:F128))*F112</f>
+        <v>363579.76303034025</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">

--- a/1. data/Barkley-Sk_pre-smolt_abundances.xlsx
+++ b/1. data/Barkley-Sk_pre-smolt_abundances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brownn\Documents\WCVI\Barkley-Sk-CSAS\1. data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE94DA91-C754-4CC7-852D-8C06ACF18513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC51F338-AF2D-4FB0-BC0A-317A9970497F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{93B9BABA-C468-4873-970E-7D7E9A90394F}"/>
   </bookViews>
@@ -643,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CDFEE8-69FE-4C98-AD8C-E5081C486B0D}">
   <dimension ref="A1:J307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="G112" sqref="G112"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="H112" sqref="H112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4301,6 +4301,9 @@
       <c r="G112" s="11">
         <f>(SUM(G109:G111,G113:G128)/SUM(F109:F111,F113:F128))*F112</f>
         <v>363579.76303034025</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">

--- a/1. data/Barkley-Sk_pre-smolt_abundances.xlsx
+++ b/1. data/Barkley-Sk_pre-smolt_abundances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brownn\Documents\WCVI\Barkley-Sk-CSAS\1. data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC51F338-AF2D-4FB0-BC0A-317A9970497F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45793E4F-63E2-43BF-B8B4-A5720D5BF6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{93B9BABA-C468-4873-970E-7D7E9A90394F}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{93B9BABA-C468-4873-970E-7D7E9A90394F}"/>
   </bookViews>
   <sheets>
     <sheet name="ATS_estimates" sheetId="2" r:id="rId1"/>
@@ -46,6 +46,14 @@
     <author>Brown, Nicholas</author>
     <author>tc={9450F348-AFEB-4317-AD43-51976EFBA421}</author>
     <author>tc={C335BF2D-8A76-4A85-B639-EC939DD5E53A}</author>
+    <author>tc={288476D4-5EF1-4853-B334-5E56430540C8}</author>
+    <author>tc={FC5C3F1C-3F41-443B-A044-4AEECF017EAF}</author>
+    <author>tc={80809EA6-1C75-4782-B75F-9B8D8E1FF3DD}</author>
+    <author>tc={4AD49B9C-A1D0-4A25-B5DF-3F2CF529CCE3}</author>
+    <author>tc={C9E6BF89-D9D3-4E3C-B697-A5DC0E655E3C}</author>
+    <author>tc={30CBB802-82F2-45BB-8B27-7315D97962A6}</author>
+    <author>tc={1FC59F05-C26A-4351-8236-C828500ADDBC}</author>
+    <author>tc={1348B42C-4137-429B-A693-D62CB5C3BC03}</author>
   </authors>
   <commentList>
     <comment ref="G1" authorId="0" shapeId="0" xr:uid="{51828A2D-7DC2-4829-B811-13295E6A575B}">
@@ -104,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F112" authorId="2" shapeId="0" xr:uid="{9450F348-AFEB-4317-AD43-51976EFBA421}">
+    <comment ref="F113" authorId="2" shapeId="0" xr:uid="{9450F348-AFEB-4317-AD43-51976EFBA421}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -112,7 +120,7 @@
     From Howard Stiff via log-linear regression of total abundance versus smolt length (62mm in Nov 1979) in Hucuktlis Lake.</t>
       </text>
     </comment>
-    <comment ref="G112" authorId="3" shapeId="0" xr:uid="{C335BF2D-8A76-4A85-B639-EC939DD5E53A}">
+    <comment ref="G113" authorId="3" shapeId="0" xr:uid="{C335BF2D-8A76-4A85-B639-EC939DD5E53A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -120,7 +128,77 @@
     1977-1985 average CV applied to guesstimated mean</t>
       </text>
     </comment>
-    <comment ref="J251" authorId="1" shapeId="0" xr:uid="{F52DD24B-5ABC-4F49-A632-F9389FACE903}">
+    <comment ref="G211" authorId="4" shapeId="0" xr:uid="{288476D4-5EF1-4853-B334-5E56430540C8}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Converts 95% CI of the total limnetic fish estimate to a coefficient of variation, and then multiplies that by the species specific estimate to yield and SD value. </t>
+      </text>
+    </comment>
+    <comment ref="I211" authorId="5" shapeId="0" xr:uid="{FC5C3F1C-3F41-443B-A044-4AEECF017EAF}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Converts 95% CI of the total limnetic fish estimate to a coefficient of variation, and then multiplies that by the species specific estimate to yield and SD value. </t>
+      </text>
+    </comment>
+    <comment ref="G212" authorId="6" shapeId="0" xr:uid="{80809EA6-1C75-4782-B75F-9B8D8E1FF3DD}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Converts 95% CI of the total limnetic fish estimate to a coefficient of variation, and then multiplies that by the species specific estimate to yield and SD value. 
+</t>
+      </text>
+    </comment>
+    <comment ref="I212" authorId="7" shapeId="0" xr:uid="{4AD49B9C-A1D0-4A25-B5DF-3F2CF529CCE3}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Converts 95% CI of the total limnetic fish estimate to a coefficient of variation, and then multiplies that by the species specific estimate to yield and SD value. 
+</t>
+      </text>
+    </comment>
+    <comment ref="G213" authorId="8" shapeId="0" xr:uid="{C9E6BF89-D9D3-4E3C-B697-A5DC0E655E3C}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Converts 95% CI of the total limnetic fish estimate to a coefficient of variation, and then multiplies that by the species specific estimate to yield and SD value. 
+</t>
+      </text>
+    </comment>
+    <comment ref="I213" authorId="9" shapeId="0" xr:uid="{30CBB802-82F2-45BB-8B27-7315D97962A6}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Converts 95% CI of the total limnetic fish estimate to a coefficient of variation, and then multiplies that by the species specific estimate to yield and SD value. 
+</t>
+      </text>
+    </comment>
+    <comment ref="G214" authorId="10" shapeId="0" xr:uid="{1FC59F05-C26A-4351-8236-C828500ADDBC}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Converts 95% CI of the total limnetic fish estimate to a coefficient of variation, and then multiplies that by the species specific estimate to yield and SD value. 
+</t>
+      </text>
+    </comment>
+    <comment ref="I214" authorId="11" shapeId="0" xr:uid="{1348B42C-4137-429B-A693-D62CB5C3BC03}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Converts 95% CI of the total limnetic fish estimate to a coefficient of variation, and then multiplies that by the species specific estimate to yield and SD value. 
+</t>
+      </text>
+    </comment>
+    <comment ref="J256" authorId="1" shapeId="0" xr:uid="{F52DD24B-5ABC-4F49-A632-F9389FACE903}">
       <text>
         <r>
           <rPr>
@@ -149,7 +227,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="21">
   <si>
     <t>smolt_year</t>
   </si>
@@ -630,21 +708,51 @@
   <threadedComment ref="G1" dT="2025-02-07T20:07:08.24" personId="{3DE5C77A-2EC9-410D-AF92-25A6BD2452F6}" id="{51828A2D-7DC2-4829-B811-13295E6A575B}">
     <text xml:space="preserve">SD? =sqrt(sum(transect variances)/N transects) </text>
   </threadedComment>
-  <threadedComment ref="F112" dT="2025-03-04T16:49:42.59" personId="{3DE5C77A-2EC9-410D-AF92-25A6BD2452F6}" id="{9450F348-AFEB-4317-AD43-51976EFBA421}">
+  <threadedComment ref="F113" dT="2025-03-04T16:49:42.59" personId="{3DE5C77A-2EC9-410D-AF92-25A6BD2452F6}" id="{9450F348-AFEB-4317-AD43-51976EFBA421}">
     <text>From Howard Stiff via log-linear regression of total abundance versus smolt length (62mm in Nov 1979) in Hucuktlis Lake.</text>
   </threadedComment>
-  <threadedComment ref="G112" dT="2025-03-04T16:50:12.85" personId="{3DE5C77A-2EC9-410D-AF92-25A6BD2452F6}" id="{C335BF2D-8A76-4A85-B639-EC939DD5E53A}">
+  <threadedComment ref="G113" dT="2025-03-04T16:50:12.85" personId="{3DE5C77A-2EC9-410D-AF92-25A6BD2452F6}" id="{C335BF2D-8A76-4A85-B639-EC939DD5E53A}">
     <text>1977-1985 average CV applied to guesstimated mean</text>
+  </threadedComment>
+  <threadedComment ref="G211" dT="2025-07-23T21:51:33.73" personId="{3DE5C77A-2EC9-410D-AF92-25A6BD2452F6}" id="{288476D4-5EF1-4853-B334-5E56430540C8}">
+    <text xml:space="preserve">Converts 95% CI of the total limnetic fish estimate to a coefficient of variation, and then multiplies that by the species specific estimate to yield and SD value. </text>
+  </threadedComment>
+  <threadedComment ref="I211" dT="2025-07-23T21:51:33.73" personId="{3DE5C77A-2EC9-410D-AF92-25A6BD2452F6}" id="{FC5C3F1C-3F41-443B-A044-4AEECF017EAF}">
+    <text xml:space="preserve">Converts 95% CI of the total limnetic fish estimate to a coefficient of variation, and then multiplies that by the species specific estimate to yield and SD value. </text>
+  </threadedComment>
+  <threadedComment ref="G212" dT="2025-07-23T21:53:41.91" personId="{3DE5C77A-2EC9-410D-AF92-25A6BD2452F6}" id="{80809EA6-1C75-4782-B75F-9B8D8E1FF3DD}">
+    <text xml:space="preserve">Converts 95% CI of the total limnetic fish estimate to a coefficient of variation, and then multiplies that by the species specific estimate to yield and SD value. 
+</text>
+  </threadedComment>
+  <threadedComment ref="I212" dT="2025-07-23T21:53:41.91" personId="{3DE5C77A-2EC9-410D-AF92-25A6BD2452F6}" id="{4AD49B9C-A1D0-4A25-B5DF-3F2CF529CCE3}">
+    <text xml:space="preserve">Converts 95% CI of the total limnetic fish estimate to a coefficient of variation, and then multiplies that by the species specific estimate to yield and SD value. 
+</text>
+  </threadedComment>
+  <threadedComment ref="G213" dT="2025-07-23T21:53:45.87" personId="{3DE5C77A-2EC9-410D-AF92-25A6BD2452F6}" id="{C9E6BF89-D9D3-4E3C-B697-A5DC0E655E3C}">
+    <text xml:space="preserve">Converts 95% CI of the total limnetic fish estimate to a coefficient of variation, and then multiplies that by the species specific estimate to yield and SD value. 
+</text>
+  </threadedComment>
+  <threadedComment ref="I213" dT="2025-07-23T21:53:45.87" personId="{3DE5C77A-2EC9-410D-AF92-25A6BD2452F6}" id="{30CBB802-82F2-45BB-8B27-7315D97962A6}">
+    <text xml:space="preserve">Converts 95% CI of the total limnetic fish estimate to a coefficient of variation, and then multiplies that by the species specific estimate to yield and SD value. 
+</text>
+  </threadedComment>
+  <threadedComment ref="G214" dT="2025-07-23T21:53:49.52" personId="{3DE5C77A-2EC9-410D-AF92-25A6BD2452F6}" id="{1FC59F05-C26A-4351-8236-C828500ADDBC}">
+    <text xml:space="preserve">Converts 95% CI of the total limnetic fish estimate to a coefficient of variation, and then multiplies that by the species specific estimate to yield and SD value. 
+</text>
+  </threadedComment>
+  <threadedComment ref="I214" dT="2025-07-23T21:53:49.52" personId="{3DE5C77A-2EC9-410D-AF92-25A6BD2452F6}" id="{1348B42C-4137-429B-A693-D62CB5C3BC03}">
+    <text xml:space="preserve">Converts 95% CI of the total limnetic fish estimate to a coefficient of variation, and then multiplies that by the species specific estimate to yield and SD value. 
+</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CDFEE8-69FE-4C98-AD8C-E5081C486B0D}">
-  <dimension ref="A1:J307"/>
+  <dimension ref="A1:J313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="H112" sqref="H112"/>
+    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
+      <selection activeCell="J314" sqref="J314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3020,11 +3128,11 @@
         <v>37636</v>
       </c>
       <c r="D72" s="4">
-        <f t="shared" ref="D72:D137" si="9">IF(MONTH(C72)&lt;4,B72-2,B72-1)</f>
+        <f t="shared" ref="D72:D138" si="9">IF(MONTH(C72)&lt;4,B72-2,B72-1)</f>
         <v>2001</v>
       </c>
       <c r="E72" s="4">
-        <f t="shared" ref="E72:E137" si="10">IF(MONTH(C72)&lt;4,B72-3,B72-2)</f>
+        <f t="shared" ref="E72:E138" si="10">IF(MONTH(C72)&lt;4,B72-3,B72-2)</f>
         <v>2000</v>
       </c>
       <c r="F72">
@@ -4174,34 +4282,31 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B109">
-        <f>YEAR(C109)</f>
-        <v>1977</v>
+        <v>2024</v>
       </c>
       <c r="C109" s="2">
-        <v>28402</v>
+        <v>45330</v>
       </c>
       <c r="D109" s="4">
-        <f t="shared" si="9"/>
-        <v>1976</v>
+        <f>IF(MONTH(C109)&lt;4,B109-2,B109-1)</f>
+        <v>2022</v>
       </c>
       <c r="E109" s="4">
-        <f t="shared" si="10"/>
-        <v>1975</v>
+        <f>IF(MONTH(C109)&lt;4,B109-3,B109-2)</f>
+        <v>2021</v>
       </c>
       <c r="F109">
-        <v>4869510</v>
+        <v>4473417</v>
       </c>
       <c r="G109">
-        <v>1309300</v>
-      </c>
-      <c r="H109">
-        <v>0</v>
-      </c>
-      <c r="I109">
-        <v>0</v>
+        <f>(4903172-4072181)/1.96</f>
+        <v>423975</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
@@ -4210,10 +4315,10 @@
       </c>
       <c r="B110">
         <f>YEAR(C110)</f>
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="C110" s="2">
-        <v>28562</v>
+        <v>28402</v>
       </c>
       <c r="D110" s="4">
         <f t="shared" si="9"/>
@@ -4224,19 +4329,16 @@
         <v>1975</v>
       </c>
       <c r="F110">
-        <v>1597985</v>
+        <v>4869510</v>
       </c>
       <c r="G110">
-        <v>362175</v>
+        <v>1309300</v>
       </c>
       <c r="H110">
         <v>0</v>
       </c>
       <c r="I110">
         <v>0</v>
-      </c>
-      <c r="J110">
-        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -4244,33 +4346,31 @@
         <v>13</v>
       </c>
       <c r="B111">
-        <f t="shared" ref="B111:B112" si="14">YEAR(C111)</f>
-        <v>1979</v>
+        <f>YEAR(C111)</f>
+        <v>1978</v>
       </c>
       <c r="C111" s="2">
-        <v>28927</v>
+        <v>28562</v>
       </c>
       <c r="D111" s="4">
         <f t="shared" si="9"/>
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="E111" s="4">
         <f t="shared" si="10"/>
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="F111">
-        <v>768000</v>
+        <v>1597985</v>
       </c>
       <c r="G111">
-        <f>0.37*F111</f>
-        <v>284160</v>
+        <v>362175</v>
       </c>
       <c r="H111">
-        <v>1448000</v>
+        <v>0</v>
       </c>
       <c r="I111">
-        <f>0.37*H111</f>
-        <v>535760</v>
+        <v>0</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -4281,26 +4381,33 @@
         <v>13</v>
       </c>
       <c r="B112">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="B112:B113" si="14">YEAR(C112)</f>
         <v>1979</v>
       </c>
       <c r="C112" s="2">
-        <v>29186</v>
+        <v>28927</v>
       </c>
       <c r="D112" s="4">
         <f t="shared" si="9"/>
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="E112" s="4">
         <f t="shared" si="10"/>
-        <v>1977</v>
-      </c>
-      <c r="F112" s="10">
-        <v>1000000</v>
-      </c>
-      <c r="G112" s="11">
-        <f>(SUM(G109:G111,G113:G128)/SUM(F109:F111,F113:F128))*F112</f>
-        <v>363579.76303034025</v>
+        <v>1976</v>
+      </c>
+      <c r="F112">
+        <v>768000</v>
+      </c>
+      <c r="G112">
+        <f>0.37*F112</f>
+        <v>284160</v>
+      </c>
+      <c r="H112">
+        <v>1448000</v>
+      </c>
+      <c r="I112">
+        <f>0.37*H112</f>
+        <v>535760</v>
       </c>
       <c r="J112">
         <v>1</v>
@@ -4311,31 +4418,29 @@
         <v>13</v>
       </c>
       <c r="B113">
-        <f t="shared" ref="B113:B144" si="15">YEAR(C113)</f>
-        <v>1980</v>
+        <f t="shared" si="14"/>
+        <v>1979</v>
       </c>
       <c r="C113" s="2">
-        <v>29444</v>
+        <v>29186</v>
       </c>
       <c r="D113" s="4">
         <f t="shared" si="9"/>
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E113" s="4">
         <f t="shared" si="10"/>
-        <v>1978</v>
-      </c>
-      <c r="F113">
-        <v>2255684</v>
-      </c>
-      <c r="G113">
-        <v>923740</v>
-      </c>
-      <c r="H113">
-        <v>752430</v>
-      </c>
-      <c r="I113">
-        <v>450219</v>
+        <v>1977</v>
+      </c>
+      <c r="F113" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="G113" s="11">
+        <f>(SUM(G110:G112,G114:G129)/SUM(F110:F112,F114:F129))*F113</f>
+        <v>363579.76303034025</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
@@ -4343,11 +4448,11 @@
         <v>13</v>
       </c>
       <c r="B114">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="B114:B145" si="15">YEAR(C114)</f>
         <v>1980</v>
       </c>
       <c r="C114" s="2">
-        <v>29514</v>
+        <v>29444</v>
       </c>
       <c r="D114" s="4">
         <f t="shared" si="9"/>
@@ -4358,21 +4463,16 @@
         <v>1978</v>
       </c>
       <c r="F114">
-        <v>2877000</v>
+        <v>2255684</v>
       </c>
       <c r="G114">
-        <f>0.41*F114</f>
-        <v>1179570</v>
+        <v>923740</v>
       </c>
       <c r="H114">
-        <v>775000</v>
+        <v>752430</v>
       </c>
       <c r="I114">
-        <f>0.41*H114</f>
-        <v>317750</v>
-      </c>
-      <c r="J114">
-        <v>1</v>
+        <v>450219</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -4381,30 +4481,35 @@
       </c>
       <c r="B115">
         <f t="shared" si="15"/>
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C115" s="2">
-        <v>29810</v>
+        <v>29514</v>
       </c>
       <c r="D115" s="4">
         <f t="shared" si="9"/>
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="E115" s="4">
         <f t="shared" si="10"/>
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="F115">
-        <v>1720396</v>
+        <v>2877000</v>
       </c>
       <c r="G115">
-        <v>1192781</v>
+        <f>0.41*F115</f>
+        <v>1179570</v>
       </c>
       <c r="H115">
-        <v>1762124</v>
+        <v>775000</v>
       </c>
       <c r="I115">
-        <v>879281</v>
+        <f>0.41*H115</f>
+        <v>317750</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -4416,7 +4521,7 @@
         <v>1981</v>
       </c>
       <c r="C116" s="2">
-        <v>29880</v>
+        <v>29810</v>
       </c>
       <c r="D116" s="4">
         <f t="shared" si="9"/>
@@ -4427,16 +4532,16 @@
         <v>1979</v>
       </c>
       <c r="F116">
-        <v>1687092</v>
+        <v>1720396</v>
       </c>
       <c r="G116">
-        <v>306485</v>
+        <v>1192781</v>
       </c>
       <c r="H116">
-        <v>1517810</v>
+        <v>1762124</v>
       </c>
       <c r="I116">
-        <v>337552</v>
+        <v>879281</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
@@ -4445,10 +4550,10 @@
       </c>
       <c r="B117">
         <f t="shared" si="15"/>
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C117" s="2">
-        <v>30016</v>
+        <v>29880</v>
       </c>
       <c r="D117" s="4">
         <f t="shared" si="9"/>
@@ -4459,19 +4564,16 @@
         <v>1979</v>
       </c>
       <c r="F117">
-        <v>2144947</v>
+        <v>1687092</v>
       </c>
       <c r="G117">
-        <v>375980</v>
+        <v>306485</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1517810</v>
       </c>
       <c r="I117">
-        <v>0</v>
-      </c>
-      <c r="J117">
-        <v>1</v>
+        <v>337552</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
@@ -4483,27 +4585,30 @@
         <v>1982</v>
       </c>
       <c r="C118" s="2">
-        <v>30116</v>
+        <v>30016</v>
       </c>
       <c r="D118" s="4">
         <f t="shared" si="9"/>
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="E118" s="4">
         <f t="shared" si="10"/>
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="F118">
-        <v>4025640</v>
+        <v>2144947</v>
       </c>
       <c r="G118">
-        <v>2508385</v>
+        <v>375980</v>
       </c>
       <c r="H118">
-        <v>535894</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>344340</v>
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
@@ -4515,7 +4620,7 @@
         <v>1982</v>
       </c>
       <c r="C119" s="2">
-        <v>30152</v>
+        <v>30116</v>
       </c>
       <c r="D119" s="4">
         <f t="shared" si="9"/>
@@ -4526,16 +4631,16 @@
         <v>1980</v>
       </c>
       <c r="F119">
-        <v>2992522</v>
+        <v>4025640</v>
       </c>
       <c r="G119">
-        <v>1569741</v>
+        <v>2508385</v>
       </c>
       <c r="H119">
-        <v>281139</v>
+        <v>535894</v>
       </c>
       <c r="I119">
-        <v>170713</v>
+        <v>344340</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
@@ -4547,7 +4652,7 @@
         <v>1982</v>
       </c>
       <c r="C120" s="2">
-        <v>30173</v>
+        <v>30152</v>
       </c>
       <c r="D120" s="4">
         <f t="shared" si="9"/>
@@ -4558,16 +4663,16 @@
         <v>1980</v>
       </c>
       <c r="F120">
-        <v>4235338</v>
+        <v>2992522</v>
       </c>
       <c r="G120">
-        <v>1685478</v>
+        <v>1569741</v>
       </c>
       <c r="H120">
-        <v>36405</v>
+        <v>281139</v>
       </c>
       <c r="I120">
-        <v>24295</v>
+        <v>170713</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
@@ -4579,7 +4684,7 @@
         <v>1982</v>
       </c>
       <c r="C121" s="2">
-        <v>30285</v>
+        <v>30173</v>
       </c>
       <c r="D121" s="4">
         <f t="shared" si="9"/>
@@ -4590,21 +4695,16 @@
         <v>1980</v>
       </c>
       <c r="F121">
-        <v>3785000</v>
+        <v>4235338</v>
       </c>
       <c r="G121">
-        <f>0.21*F121</f>
-        <v>794850</v>
+        <v>1685478</v>
       </c>
       <c r="H121">
-        <v>66000</v>
+        <v>36405</v>
       </c>
       <c r="I121">
-        <f>0.21*H121</f>
-        <v>13860</v>
-      </c>
-      <c r="J121">
-        <v>1</v>
+        <v>24295</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
@@ -4613,30 +4713,35 @@
       </c>
       <c r="B122">
         <f t="shared" si="15"/>
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C122" s="2">
-        <v>30522</v>
+        <v>30285</v>
       </c>
       <c r="D122" s="4">
         <f t="shared" si="9"/>
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="E122" s="4">
         <f t="shared" si="10"/>
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="F122">
-        <v>2911074</v>
+        <v>3785000</v>
       </c>
       <c r="G122">
-        <v>1045011</v>
+        <f>0.21*F122</f>
+        <v>794850</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>66000</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <f>0.21*H122</f>
+        <v>13860</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
@@ -4648,7 +4753,7 @@
         <v>1983</v>
       </c>
       <c r="C123" s="2">
-        <v>30573</v>
+        <v>30522</v>
       </c>
       <c r="D123" s="4">
         <f t="shared" si="9"/>
@@ -4659,16 +4764,16 @@
         <v>1981</v>
       </c>
       <c r="F123">
-        <v>4751148</v>
+        <v>2911074</v>
       </c>
       <c r="G123">
-        <v>1833885</v>
+        <v>1045011</v>
       </c>
       <c r="H123">
-        <v>1451384</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>751732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
@@ -4680,7 +4785,7 @@
         <v>1983</v>
       </c>
       <c r="C124" s="2">
-        <v>30622</v>
+        <v>30573</v>
       </c>
       <c r="D124" s="4">
         <f t="shared" si="9"/>
@@ -4691,19 +4796,16 @@
         <v>1981</v>
       </c>
       <c r="F124">
-        <v>4335868</v>
+        <v>4751148</v>
       </c>
       <c r="G124">
-        <v>1303277</v>
+        <v>1833885</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1451384</v>
       </c>
       <c r="I124">
-        <v>0</v>
-      </c>
-      <c r="J124">
-        <v>1</v>
+        <v>751732</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -4712,30 +4814,33 @@
       </c>
       <c r="B125">
         <f t="shared" si="15"/>
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C125" s="2">
-        <v>30908</v>
+        <v>30622</v>
       </c>
       <c r="D125" s="4">
         <f t="shared" si="9"/>
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="E125" s="4">
         <f t="shared" si="10"/>
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="F125">
-        <v>2508874</v>
+        <v>4335868</v>
       </c>
       <c r="G125">
-        <v>1210088</v>
+        <v>1303277</v>
       </c>
       <c r="H125">
-        <v>105297</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>131280</v>
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
@@ -4747,7 +4852,7 @@
         <v>1984</v>
       </c>
       <c r="C126" s="2">
-        <v>30983</v>
+        <v>30908</v>
       </c>
       <c r="D126" s="4">
         <f t="shared" si="9"/>
@@ -4758,19 +4863,16 @@
         <v>1982</v>
       </c>
       <c r="F126">
-        <v>3517182</v>
+        <v>2508874</v>
       </c>
       <c r="G126">
-        <v>887087</v>
+        <v>1210088</v>
       </c>
       <c r="H126">
-        <v>533780</v>
+        <v>105297</v>
       </c>
       <c r="I126">
-        <v>167123</v>
-      </c>
-      <c r="J126">
-        <v>1</v>
+        <v>131280</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
@@ -4779,30 +4881,33 @@
       </c>
       <c r="B127">
         <f t="shared" si="15"/>
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C127" s="2">
-        <v>31276</v>
+        <v>30983</v>
       </c>
       <c r="D127" s="4">
         <f t="shared" si="9"/>
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="E127" s="4">
         <f t="shared" si="10"/>
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="F127">
-        <v>2684345</v>
+        <v>3517182</v>
       </c>
       <c r="G127">
-        <v>628044</v>
+        <v>887087</v>
       </c>
       <c r="H127">
-        <v>420917</v>
+        <v>533780</v>
       </c>
       <c r="I127">
-        <v>119280</v>
+        <v>167123</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -4814,7 +4919,7 @@
         <v>1985</v>
       </c>
       <c r="C128" s="2">
-        <v>31277</v>
+        <v>31276</v>
       </c>
       <c r="D128" s="4">
         <f t="shared" si="9"/>
@@ -4825,21 +4930,16 @@
         <v>1983</v>
       </c>
       <c r="F128">
-        <v>4255000</v>
+        <v>2684345</v>
       </c>
       <c r="G128">
-        <f>0.39*F128</f>
-        <v>1659450</v>
+        <v>628044</v>
       </c>
       <c r="H128">
-        <v>612000</v>
+        <v>420917</v>
       </c>
       <c r="I128">
-        <f>0.39*H128</f>
-        <v>238680</v>
-      </c>
-      <c r="J128">
-        <v>1</v>
+        <v>119280</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -4848,30 +4948,35 @@
       </c>
       <c r="B129">
         <f t="shared" si="15"/>
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C129" s="2">
-        <v>31653</v>
+        <v>31277</v>
       </c>
       <c r="D129" s="4">
         <f t="shared" si="9"/>
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="E129" s="4">
         <f t="shared" si="10"/>
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="F129">
-        <v>2693317</v>
+        <v>4255000</v>
       </c>
       <c r="G129">
-        <v>1396108</v>
+        <f>0.39*F129</f>
+        <v>1659450</v>
       </c>
       <c r="H129">
-        <v>202723</v>
+        <v>612000</v>
       </c>
       <c r="I129">
-        <v>105083</v>
+        <f>0.39*H129</f>
+        <v>238680</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -4883,7 +4988,7 @@
         <v>1986</v>
       </c>
       <c r="C130" s="2">
-        <v>31654</v>
+        <v>31653</v>
       </c>
       <c r="D130" s="4">
         <f t="shared" si="9"/>
@@ -4894,16 +4999,16 @@
         <v>1984</v>
       </c>
       <c r="F130">
-        <v>2160057</v>
+        <v>2693317</v>
       </c>
       <c r="G130">
-        <v>1092649</v>
+        <v>1396108</v>
       </c>
       <c r="H130">
-        <v>162585</v>
+        <v>202723</v>
       </c>
       <c r="I130">
-        <v>82242</v>
+        <v>105083</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -4915,7 +5020,7 @@
         <v>1986</v>
       </c>
       <c r="C131" s="2">
-        <v>31678</v>
+        <v>31654</v>
       </c>
       <c r="D131" s="4">
         <f t="shared" si="9"/>
@@ -4926,16 +5031,16 @@
         <v>1984</v>
       </c>
       <c r="F131">
-        <v>770382</v>
+        <v>2160057</v>
       </c>
       <c r="G131">
-        <v>382116</v>
+        <v>1092649</v>
       </c>
       <c r="H131">
-        <v>1520922</v>
+        <v>162585</v>
       </c>
       <c r="I131">
-        <v>655143</v>
+        <v>82242</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -4947,7 +5052,7 @@
         <v>1986</v>
       </c>
       <c r="C132" s="2">
-        <v>31679</v>
+        <v>31678</v>
       </c>
       <c r="D132" s="4">
         <f t="shared" si="9"/>
@@ -4958,16 +5063,16 @@
         <v>1984</v>
       </c>
       <c r="F132">
-        <v>930628</v>
+        <v>770382</v>
       </c>
       <c r="G132">
-        <v>708435</v>
+        <v>382116</v>
       </c>
       <c r="H132">
-        <v>1954179</v>
+        <v>1520922</v>
       </c>
       <c r="I132">
-        <v>1740864</v>
+        <v>655143</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
@@ -4979,7 +5084,7 @@
         <v>1986</v>
       </c>
       <c r="C133" s="2">
-        <v>31748</v>
+        <v>31679</v>
       </c>
       <c r="D133" s="4">
         <f t="shared" si="9"/>
@@ -4990,21 +5095,16 @@
         <v>1984</v>
       </c>
       <c r="F133">
-        <v>960000</v>
+        <v>930628</v>
       </c>
       <c r="G133">
-        <f>0.3*F133</f>
-        <v>288000</v>
+        <v>708435</v>
       </c>
       <c r="H133">
-        <v>1133000</v>
+        <v>1954179</v>
       </c>
       <c r="I133">
-        <f>0.3*H133</f>
-        <v>339900</v>
-      </c>
-      <c r="J133">
-        <v>1</v>
+        <v>1740864</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
@@ -5013,30 +5113,35 @@
       </c>
       <c r="B134">
         <f t="shared" si="15"/>
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C134" s="2">
-        <v>31974</v>
+        <v>31748</v>
       </c>
       <c r="D134" s="4">
         <f t="shared" si="9"/>
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="E134" s="4">
         <f t="shared" si="10"/>
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F134">
-        <v>146470</v>
+        <v>960000</v>
       </c>
       <c r="G134">
-        <v>69888</v>
+        <f>0.3*F134</f>
+        <v>288000</v>
       </c>
       <c r="H134">
-        <v>1194230</v>
+        <v>1133000</v>
       </c>
       <c r="I134">
-        <v>695731</v>
+        <f>0.3*H134</f>
+        <v>339900</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -5048,7 +5153,7 @@
         <v>1987</v>
       </c>
       <c r="C135" s="2">
-        <v>32036</v>
+        <v>31974</v>
       </c>
       <c r="D135" s="4">
         <f t="shared" si="9"/>
@@ -5059,21 +5164,16 @@
         <v>1985</v>
       </c>
       <c r="F135">
-        <v>25000</v>
+        <v>146470</v>
       </c>
       <c r="G135">
-        <f>0.23*F135</f>
-        <v>5750</v>
+        <v>69888</v>
       </c>
       <c r="H135">
-        <v>1188000</v>
+        <v>1194230</v>
       </c>
       <c r="I135">
-        <f>0.23*H135</f>
-        <v>273240</v>
-      </c>
-      <c r="J135">
-        <v>1</v>
+        <v>695731</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -5082,10 +5182,10 @@
       </c>
       <c r="B136">
         <f t="shared" si="15"/>
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C136" s="2">
-        <v>32202</v>
+        <v>32036</v>
       </c>
       <c r="D136" s="4">
         <f t="shared" si="9"/>
@@ -5096,16 +5196,21 @@
         <v>1985</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="G136">
-        <v>0</v>
+        <f>0.23*F136</f>
+        <v>5750</v>
       </c>
       <c r="H136">
-        <v>1924688</v>
+        <v>1188000</v>
       </c>
       <c r="I136">
-        <v>1289216</v>
+        <f>0.23*H136</f>
+        <v>273240</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
@@ -5117,27 +5222,27 @@
         <v>1988</v>
       </c>
       <c r="C137" s="2">
-        <v>32331</v>
+        <v>32202</v>
       </c>
       <c r="D137" s="4">
         <f t="shared" si="9"/>
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="E137" s="4">
         <f t="shared" si="10"/>
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="F137">
-        <v>772879</v>
+        <v>0</v>
       </c>
       <c r="G137">
-        <v>259838</v>
+        <v>0</v>
       </c>
       <c r="H137">
-        <v>1558447</v>
+        <v>1924688</v>
       </c>
       <c r="I137">
-        <v>513917</v>
+        <v>1289216</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -5149,32 +5254,27 @@
         <v>1988</v>
       </c>
       <c r="C138" s="2">
-        <v>32408</v>
+        <v>32331</v>
       </c>
       <c r="D138" s="4">
-        <f t="shared" ref="D138:D201" si="16">IF(MONTH(C138)&lt;4,B138-2,B138-1)</f>
+        <f t="shared" si="9"/>
         <v>1987</v>
       </c>
       <c r="E138" s="4">
-        <f t="shared" ref="E138:E201" si="17">IF(MONTH(C138)&lt;4,B138-3,B138-2)</f>
+        <f t="shared" si="10"/>
         <v>1986</v>
       </c>
       <c r="F138">
-        <v>2067000</v>
+        <v>772879</v>
       </c>
       <c r="G138">
-        <f>0.25*F138</f>
-        <v>516750</v>
+        <v>259838</v>
       </c>
       <c r="H138">
-        <v>278000</v>
+        <v>1558447</v>
       </c>
       <c r="I138">
-        <f>0.25*H138</f>
-        <v>69500</v>
-      </c>
-      <c r="J138">
-        <v>1</v>
+        <v>513917</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -5183,30 +5283,35 @@
       </c>
       <c r="B139">
         <f t="shared" si="15"/>
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C139" s="2">
-        <v>32680</v>
+        <v>32408</v>
       </c>
       <c r="D139" s="4">
-        <f t="shared" si="16"/>
-        <v>1988</v>
+        <f t="shared" ref="D139:D202" si="16">IF(MONTH(C139)&lt;4,B139-2,B139-1)</f>
+        <v>1987</v>
       </c>
       <c r="E139" s="4">
-        <f t="shared" si="17"/>
-        <v>1987</v>
+        <f t="shared" ref="E139:E202" si="17">IF(MONTH(C139)&lt;4,B139-3,B139-2)</f>
+        <v>1986</v>
       </c>
       <c r="F139">
-        <v>2467806</v>
+        <v>2067000</v>
       </c>
       <c r="G139">
-        <v>735095</v>
+        <f>0.25*F139</f>
+        <v>516750</v>
       </c>
       <c r="H139">
-        <v>435714</v>
+        <v>278000</v>
       </c>
       <c r="I139">
-        <v>206841</v>
+        <f>0.25*H139</f>
+        <v>69500</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -5218,7 +5323,7 @@
         <v>1989</v>
       </c>
       <c r="C140" s="2">
-        <v>32782</v>
+        <v>32680</v>
       </c>
       <c r="D140" s="4">
         <f t="shared" si="16"/>
@@ -5229,16 +5334,16 @@
         <v>1987</v>
       </c>
       <c r="F140">
-        <v>4879499</v>
+        <v>2467806</v>
       </c>
       <c r="G140">
-        <v>1777770</v>
+        <v>735095</v>
       </c>
       <c r="H140">
-        <v>51126</v>
+        <v>435714</v>
       </c>
       <c r="I140">
-        <v>24280</v>
+        <v>206841</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -5247,10 +5352,10 @@
       </c>
       <c r="B141">
         <f t="shared" si="15"/>
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="C141" s="2">
-        <v>32927</v>
+        <v>32782</v>
       </c>
       <c r="D141" s="4">
         <f t="shared" si="16"/>
@@ -5261,21 +5366,16 @@
         <v>1987</v>
       </c>
       <c r="F141">
-        <v>2571000</v>
+        <v>4879499</v>
       </c>
       <c r="G141">
-        <f>0.23*F141</f>
-        <v>591330</v>
+        <v>1777770</v>
       </c>
       <c r="H141">
-        <v>468000</v>
+        <v>51126</v>
       </c>
       <c r="I141">
-        <f>0.23*H141</f>
-        <v>107640</v>
-      </c>
-      <c r="J141">
-        <v>1</v>
+        <v>24280</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
@@ -5287,27 +5387,32 @@
         <v>1990</v>
       </c>
       <c r="C142" s="2">
-        <v>33044</v>
+        <v>32927</v>
       </c>
       <c r="D142" s="4">
         <f t="shared" si="16"/>
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="E142" s="4">
         <f t="shared" si="17"/>
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="F142">
-        <v>1311703</v>
+        <v>2571000</v>
       </c>
       <c r="G142">
-        <v>486583</v>
+        <f>0.23*F142</f>
+        <v>591330</v>
       </c>
       <c r="H142">
-        <v>869956</v>
+        <v>468000</v>
       </c>
       <c r="I142">
-        <v>488319</v>
+        <f>0.23*H142</f>
+        <v>107640</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -5319,7 +5424,7 @@
         <v>1990</v>
       </c>
       <c r="C143" s="2">
-        <v>33151</v>
+        <v>33044</v>
       </c>
       <c r="D143" s="4">
         <f t="shared" si="16"/>
@@ -5330,21 +5435,16 @@
         <v>1988</v>
       </c>
       <c r="F143">
-        <v>1680000</v>
+        <v>1311703</v>
       </c>
       <c r="G143">
-        <f>0.26*F143</f>
-        <v>436800</v>
+        <v>486583</v>
       </c>
       <c r="H143">
-        <v>502000</v>
+        <v>869956</v>
       </c>
       <c r="I143">
-        <f>0.26*H143</f>
-        <v>130520</v>
-      </c>
-      <c r="J143">
-        <v>1</v>
+        <v>488319</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -5353,30 +5453,35 @@
       </c>
       <c r="B144">
         <f t="shared" si="15"/>
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="C144" s="2">
-        <v>33414</v>
+        <v>33151</v>
       </c>
       <c r="D144" s="4">
         <f t="shared" si="16"/>
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="E144" s="4">
         <f t="shared" si="17"/>
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="F144">
-        <v>620352</v>
+        <v>1680000</v>
       </c>
       <c r="G144">
-        <v>396826</v>
+        <f>0.26*F144</f>
+        <v>436800</v>
       </c>
       <c r="H144">
-        <v>236726</v>
+        <v>502000</v>
       </c>
       <c r="I144">
-        <v>165938</v>
+        <f>0.26*H144</f>
+        <v>130520</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
@@ -5384,11 +5489,11 @@
         <v>13</v>
       </c>
       <c r="B145">
-        <f t="shared" ref="B145:B168" si="18">YEAR(C145)</f>
+        <f t="shared" si="15"/>
         <v>1991</v>
       </c>
       <c r="C145" s="2">
-        <v>33519</v>
+        <v>33414</v>
       </c>
       <c r="D145" s="4">
         <f t="shared" si="16"/>
@@ -5399,16 +5504,16 @@
         <v>1989</v>
       </c>
       <c r="F145">
-        <v>203549</v>
+        <v>620352</v>
       </c>
       <c r="G145">
-        <v>134897</v>
+        <v>396826</v>
       </c>
       <c r="H145">
-        <v>1043143</v>
+        <v>236726</v>
       </c>
       <c r="I145">
-        <v>380799</v>
+        <v>165938</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
@@ -5416,11 +5521,11 @@
         <v>13</v>
       </c>
       <c r="B146">
-        <f t="shared" si="18"/>
-        <v>1992</v>
+        <f t="shared" ref="B146:B169" si="18">YEAR(C146)</f>
+        <v>1991</v>
       </c>
       <c r="C146" s="2">
-        <v>33646</v>
+        <v>33519</v>
       </c>
       <c r="D146" s="4">
         <f t="shared" si="16"/>
@@ -5431,21 +5536,16 @@
         <v>1989</v>
       </c>
       <c r="F146">
-        <v>859000</v>
+        <v>203549</v>
       </c>
       <c r="G146">
-        <f>0.33*F146</f>
-        <v>283470</v>
+        <v>134897</v>
       </c>
       <c r="H146">
-        <v>349000</v>
+        <v>1043143</v>
       </c>
       <c r="I146">
-        <f>0.33*H146</f>
-        <v>115170</v>
-      </c>
-      <c r="J146">
-        <v>1</v>
+        <v>380799</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
@@ -5457,27 +5557,32 @@
         <v>1992</v>
       </c>
       <c r="C147" s="2">
-        <v>33778</v>
+        <v>33646</v>
       </c>
       <c r="D147" s="4">
         <f t="shared" si="16"/>
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="E147" s="4">
         <f t="shared" si="17"/>
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="F147">
-        <v>1787851</v>
+        <v>859000</v>
       </c>
       <c r="G147">
-        <v>1267712</v>
+        <f>0.33*F147</f>
+        <v>283470</v>
       </c>
       <c r="H147">
-        <v>74494</v>
+        <v>349000</v>
       </c>
       <c r="I147">
-        <v>52821</v>
+        <f>0.33*H147</f>
+        <v>115170</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
@@ -5489,7 +5594,7 @@
         <v>1992</v>
       </c>
       <c r="C148" s="2">
-        <v>33941</v>
+        <v>33778</v>
       </c>
       <c r="D148" s="4">
         <f t="shared" si="16"/>
@@ -5500,16 +5605,16 @@
         <v>1990</v>
       </c>
       <c r="F148">
-        <v>1053807</v>
+        <v>1787851</v>
       </c>
       <c r="G148">
-        <v>170897</v>
+        <v>1267712</v>
       </c>
       <c r="H148">
-        <v>1135896</v>
+        <v>74494</v>
       </c>
       <c r="I148">
-        <v>1310377</v>
+        <v>52821</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
@@ -5518,10 +5623,10 @@
       </c>
       <c r="B149">
         <f t="shared" si="18"/>
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="C149" s="2">
-        <v>34025</v>
+        <v>33941</v>
       </c>
       <c r="D149" s="4">
         <f t="shared" si="16"/>
@@ -5532,21 +5637,16 @@
         <v>1990</v>
       </c>
       <c r="F149">
-        <v>947000</v>
+        <v>1053807</v>
       </c>
       <c r="G149">
-        <f>0.17*F149</f>
-        <v>160990</v>
+        <v>170897</v>
       </c>
       <c r="H149">
-        <v>852000</v>
+        <v>1135896</v>
       </c>
       <c r="I149">
-        <f>0.17*H149</f>
-        <v>144840</v>
-      </c>
-      <c r="J149">
-        <v>1</v>
+        <v>1310377</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
@@ -5558,7 +5658,7 @@
         <v>1993</v>
       </c>
       <c r="C150" s="2">
-        <v>34026</v>
+        <v>34025</v>
       </c>
       <c r="D150" s="4">
         <f t="shared" si="16"/>
@@ -5569,16 +5669,21 @@
         <v>1990</v>
       </c>
       <c r="F150">
-        <v>688612</v>
+        <v>947000</v>
       </c>
       <c r="G150">
-        <v>129710</v>
+        <f>0.17*F150</f>
+        <v>160990</v>
       </c>
       <c r="H150">
-        <v>1106474</v>
+        <v>852000</v>
       </c>
       <c r="I150">
-        <v>285541</v>
+        <f>0.17*H150</f>
+        <v>144840</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
@@ -5590,27 +5695,27 @@
         <v>1993</v>
       </c>
       <c r="C151" s="2">
-        <v>34166</v>
+        <v>34026</v>
       </c>
       <c r="D151" s="4">
         <f t="shared" si="16"/>
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="E151" s="4">
         <f t="shared" si="17"/>
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="F151">
-        <v>3362542</v>
+        <v>688612</v>
       </c>
       <c r="G151">
-        <v>1550376</v>
+        <v>129710</v>
       </c>
       <c r="H151">
-        <v>32484</v>
+        <v>1106474</v>
       </c>
       <c r="I151">
-        <v>15483</v>
+        <v>285541</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
@@ -5622,7 +5727,7 @@
         <v>1993</v>
       </c>
       <c r="C152" s="2">
-        <v>34167</v>
+        <v>34166</v>
       </c>
       <c r="D152" s="4">
         <f t="shared" si="16"/>
@@ -5633,16 +5738,16 @@
         <v>1991</v>
       </c>
       <c r="F152">
-        <v>2324777</v>
+        <v>3362542</v>
       </c>
       <c r="G152">
-        <v>562255</v>
+        <v>1550376</v>
       </c>
       <c r="H152">
-        <v>22060</v>
+        <v>32484</v>
       </c>
       <c r="I152">
-        <v>5609</v>
+        <v>15483</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
@@ -5654,7 +5759,7 @@
         <v>1993</v>
       </c>
       <c r="C153" s="2">
-        <v>34268</v>
+        <v>34167</v>
       </c>
       <c r="D153" s="4">
         <f t="shared" si="16"/>
@@ -5665,16 +5770,16 @@
         <v>1991</v>
       </c>
       <c r="F153">
-        <v>1618378</v>
+        <v>2324777</v>
       </c>
       <c r="G153">
-        <v>593986</v>
+        <v>562255</v>
       </c>
       <c r="H153">
-        <v>400585</v>
+        <v>22060</v>
       </c>
       <c r="I153">
-        <v>893130</v>
+        <v>5609</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
@@ -5683,10 +5788,10 @@
       </c>
       <c r="B154">
         <f t="shared" si="18"/>
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="C154" s="2">
-        <v>34380</v>
+        <v>34268</v>
       </c>
       <c r="D154" s="4">
         <f t="shared" si="16"/>
@@ -5697,21 +5802,16 @@
         <v>1991</v>
       </c>
       <c r="F154">
-        <v>899000</v>
+        <v>1618378</v>
       </c>
       <c r="G154">
-        <f>0.11*F154</f>
-        <v>98890</v>
+        <v>593986</v>
       </c>
       <c r="H154">
-        <v>352000</v>
+        <v>400585</v>
       </c>
       <c r="I154">
-        <f>0.11*H154</f>
-        <v>38720</v>
-      </c>
-      <c r="J154">
-        <v>1</v>
+        <v>893130</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
@@ -5723,27 +5823,32 @@
         <v>1994</v>
       </c>
       <c r="C155" s="2">
-        <v>34511</v>
+        <v>34380</v>
       </c>
       <c r="D155" s="4">
         <f t="shared" si="16"/>
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="E155" s="4">
         <f t="shared" si="17"/>
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="F155">
-        <v>4558506</v>
+        <v>899000</v>
       </c>
       <c r="G155">
-        <v>1021958</v>
+        <f>0.11*F155</f>
+        <v>98890</v>
       </c>
       <c r="H155">
-        <v>36426</v>
+        <v>352000</v>
       </c>
       <c r="I155">
-        <v>14758</v>
+        <f>0.11*H155</f>
+        <v>38720</v>
+      </c>
+      <c r="J155">
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
@@ -5755,7 +5860,7 @@
         <v>1994</v>
       </c>
       <c r="C156" s="2">
-        <v>34512</v>
+        <v>34511</v>
       </c>
       <c r="D156" s="4">
         <f t="shared" si="16"/>
@@ -5766,16 +5871,16 @@
         <v>1992</v>
       </c>
       <c r="F156">
-        <v>3525545</v>
+        <v>4558506</v>
       </c>
       <c r="G156">
-        <v>1293850</v>
+        <v>1021958</v>
       </c>
       <c r="H156">
-        <v>35368</v>
+        <v>36426</v>
       </c>
       <c r="I156">
-        <v>14502</v>
+        <v>14758</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
@@ -5787,7 +5892,7 @@
         <v>1994</v>
       </c>
       <c r="C157" s="2">
-        <v>34556</v>
+        <v>34512</v>
       </c>
       <c r="D157" s="4">
         <f t="shared" si="16"/>
@@ -5798,16 +5903,16 @@
         <v>1992</v>
       </c>
       <c r="F157">
-        <v>7674953</v>
+        <v>3525545</v>
       </c>
       <c r="G157">
-        <v>1426691</v>
+        <v>1293850</v>
       </c>
       <c r="H157">
-        <v>105788</v>
+        <v>35368</v>
       </c>
       <c r="I157">
-        <v>24193</v>
+        <v>14502</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
@@ -5819,7 +5924,7 @@
         <v>1994</v>
       </c>
       <c r="C158" s="2">
-        <v>34655</v>
+        <v>34556</v>
       </c>
       <c r="D158" s="4">
         <f t="shared" si="16"/>
@@ -5830,21 +5935,16 @@
         <v>1992</v>
       </c>
       <c r="F158">
-        <v>5462000</v>
+        <v>7674953</v>
       </c>
       <c r="G158">
-        <f>0.07*F158</f>
-        <v>382340.00000000006</v>
+        <v>1426691</v>
       </c>
       <c r="H158">
-        <v>277000</v>
+        <v>105788</v>
       </c>
       <c r="I158">
-        <f>0.07*H158</f>
-        <v>19390.000000000004</v>
-      </c>
-      <c r="J158">
-        <v>1</v>
+        <v>24193</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
@@ -5853,10 +5953,10 @@
       </c>
       <c r="B159">
         <f t="shared" si="18"/>
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="C159" s="2">
-        <v>34760</v>
+        <v>34655</v>
       </c>
       <c r="D159" s="4">
         <f t="shared" si="16"/>
@@ -5867,16 +5967,21 @@
         <v>1992</v>
       </c>
       <c r="F159">
-        <v>5676601</v>
+        <v>5462000</v>
       </c>
       <c r="G159">
-        <v>492869</v>
+        <f>0.07*F159</f>
+        <v>382340.00000000006</v>
       </c>
       <c r="H159">
-        <v>198950</v>
+        <v>277000</v>
       </c>
       <c r="I159">
-        <v>30347</v>
+        <f>0.07*H159</f>
+        <v>19390.000000000004</v>
+      </c>
+      <c r="J159">
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
@@ -5888,27 +5993,27 @@
         <v>1995</v>
       </c>
       <c r="C160" s="2">
-        <v>34870</v>
+        <v>34760</v>
       </c>
       <c r="D160" s="4">
         <f t="shared" si="16"/>
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E160" s="4">
         <f t="shared" si="17"/>
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="F160">
-        <v>698523</v>
+        <v>5676601</v>
       </c>
       <c r="G160">
-        <v>124464</v>
+        <v>492869</v>
       </c>
       <c r="H160">
-        <v>385025</v>
+        <v>198950</v>
       </c>
       <c r="I160">
-        <v>75839</v>
+        <v>30347</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
@@ -5920,7 +6025,7 @@
         <v>1995</v>
       </c>
       <c r="C161" s="2">
-        <v>34871</v>
+        <v>34870</v>
       </c>
       <c r="D161" s="4">
         <f t="shared" si="16"/>
@@ -5931,16 +6036,16 @@
         <v>1993</v>
       </c>
       <c r="F161">
-        <v>902286</v>
+        <v>698523</v>
       </c>
       <c r="G161">
-        <v>120601</v>
+        <v>124464</v>
       </c>
       <c r="H161">
-        <v>278206</v>
+        <v>385025</v>
       </c>
       <c r="I161">
-        <v>36419</v>
+        <v>75839</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
@@ -5952,7 +6057,7 @@
         <v>1995</v>
       </c>
       <c r="C162" s="2">
-        <v>34873</v>
+        <v>34871</v>
       </c>
       <c r="D162" s="4">
         <f t="shared" si="16"/>
@@ -5963,16 +6068,16 @@
         <v>1993</v>
       </c>
       <c r="F162">
-        <v>975466</v>
+        <v>902286</v>
       </c>
       <c r="G162">
-        <v>145868</v>
+        <v>120601</v>
       </c>
       <c r="H162">
-        <v>462863</v>
+        <v>278206</v>
       </c>
       <c r="I162">
-        <v>87893</v>
+        <v>36419</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
@@ -5984,7 +6089,7 @@
         <v>1995</v>
       </c>
       <c r="C163" s="2">
-        <v>34983</v>
+        <v>34873</v>
       </c>
       <c r="D163" s="4">
         <f t="shared" si="16"/>
@@ -5995,19 +6100,16 @@
         <v>1993</v>
       </c>
       <c r="F163">
-        <v>329750</v>
+        <v>975466</v>
       </c>
       <c r="G163">
-        <v>52749</v>
+        <v>145868</v>
       </c>
       <c r="H163">
-        <v>2135979</v>
+        <v>462863</v>
       </c>
       <c r="I163">
-        <v>439520</v>
-      </c>
-      <c r="J163">
-        <v>1</v>
+        <v>87893</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
@@ -6016,10 +6118,10 @@
       </c>
       <c r="B164">
         <f t="shared" si="18"/>
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="C164" s="2">
-        <v>35107</v>
+        <v>34983</v>
       </c>
       <c r="D164" s="4">
         <f t="shared" si="16"/>
@@ -6030,16 +6132,19 @@
         <v>1993</v>
       </c>
       <c r="F164">
-        <v>416061</v>
+        <v>329750</v>
       </c>
       <c r="G164">
-        <v>94174</v>
+        <v>52749</v>
       </c>
       <c r="H164">
-        <v>1742564</v>
+        <v>2135979</v>
       </c>
       <c r="I164">
-        <v>539162</v>
+        <v>439520</v>
+      </c>
+      <c r="J164">
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
@@ -6051,27 +6156,27 @@
         <v>1996</v>
       </c>
       <c r="C165" s="2">
-        <v>35249</v>
+        <v>35107</v>
       </c>
       <c r="D165" s="4">
         <f t="shared" si="16"/>
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="E165" s="4">
         <f t="shared" si="17"/>
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="F165">
-        <v>8275</v>
+        <v>416061</v>
       </c>
       <c r="G165">
-        <v>2718</v>
+        <v>94174</v>
       </c>
       <c r="H165">
-        <v>1448883</v>
+        <v>1742564</v>
       </c>
       <c r="I165">
-        <v>471845</v>
+        <v>539162</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
@@ -6083,7 +6188,7 @@
         <v>1996</v>
       </c>
       <c r="C166" s="2">
-        <v>35272</v>
+        <v>35249</v>
       </c>
       <c r="D166" s="4">
         <f t="shared" si="16"/>
@@ -6094,16 +6199,16 @@
         <v>1994</v>
       </c>
       <c r="F166">
-        <v>42648</v>
+        <v>8275</v>
       </c>
       <c r="G166">
-        <v>12106</v>
+        <v>2718</v>
       </c>
       <c r="H166">
-        <v>1277873</v>
+        <v>1448883</v>
       </c>
       <c r="I166">
-        <v>313811</v>
+        <v>471845</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
@@ -6115,7 +6220,7 @@
         <v>1996</v>
       </c>
       <c r="C167" s="2">
-        <v>35273</v>
+        <v>35272</v>
       </c>
       <c r="D167" s="4">
         <f t="shared" si="16"/>
@@ -6126,16 +6231,16 @@
         <v>1994</v>
       </c>
       <c r="F167">
-        <v>45685</v>
+        <v>42648</v>
       </c>
       <c r="G167">
-        <v>13079</v>
+        <v>12106</v>
       </c>
       <c r="H167">
-        <v>1314644</v>
+        <v>1277873</v>
       </c>
       <c r="I167">
-        <v>314306</v>
+        <v>313811</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
@@ -6144,10 +6249,10 @@
       </c>
       <c r="B168">
         <f t="shared" si="18"/>
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C168" s="2">
-        <v>35465</v>
+        <v>35273</v>
       </c>
       <c r="D168" s="4">
         <f t="shared" si="16"/>
@@ -6158,21 +6263,16 @@
         <v>1994</v>
       </c>
       <c r="F168">
-        <v>26000</v>
+        <v>45685</v>
       </c>
       <c r="G168">
-        <f>0.3*F168</f>
-        <v>7800</v>
+        <v>13079</v>
       </c>
       <c r="H168">
-        <v>1415000</v>
+        <v>1314644</v>
       </c>
       <c r="I168">
-        <f>0.3*H168</f>
-        <v>424500</v>
-      </c>
-      <c r="J168">
-        <v>1</v>
+        <v>314306</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
@@ -6180,32 +6280,36 @@
         <v>13</v>
       </c>
       <c r="B169">
+        <f t="shared" si="18"/>
         <v>1997</v>
       </c>
       <c r="C169" s="2">
-        <v>35592</v>
+        <v>35465</v>
       </c>
       <c r="D169" s="4">
         <f t="shared" si="16"/>
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="E169" s="4">
         <f t="shared" si="17"/>
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="F169">
-        <v>3460000</v>
+        <v>26000</v>
       </c>
       <c r="G169">
-        <f>F169*0.19</f>
-        <v>657400</v>
+        <f>0.3*F169</f>
+        <v>7800</v>
       </c>
       <c r="H169">
-        <v>71000</v>
+        <v>1415000</v>
       </c>
       <c r="I169">
-        <f>H169*0.19</f>
-        <v>13490</v>
+        <f>0.3*H169</f>
+        <v>424500</v>
+      </c>
+      <c r="J169">
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
@@ -6216,7 +6320,7 @@
         <v>1997</v>
       </c>
       <c r="C170" s="2">
-        <v>35645</v>
+        <v>35592</v>
       </c>
       <c r="D170" s="4">
         <f t="shared" si="16"/>
@@ -6227,18 +6331,18 @@
         <v>1995</v>
       </c>
       <c r="F170">
-        <v>1816000</v>
+        <v>3460000</v>
       </c>
       <c r="G170">
-        <f>F170*0.31</f>
-        <v>562960</v>
+        <f>F170*0.19</f>
+        <v>657400</v>
       </c>
       <c r="H170">
         <v>71000</v>
       </c>
       <c r="I170">
-        <f>H170*0.31</f>
-        <v>22010</v>
+        <f>H170*0.19</f>
+        <v>13490</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
@@ -6249,7 +6353,7 @@
         <v>1997</v>
       </c>
       <c r="C171" s="2">
-        <v>35748</v>
+        <v>35645</v>
       </c>
       <c r="D171" s="4">
         <f t="shared" si="16"/>
@@ -6260,21 +6364,18 @@
         <v>1995</v>
       </c>
       <c r="F171">
-        <v>1965000</v>
+        <v>1816000</v>
       </c>
       <c r="G171">
-        <f>0.11*F171</f>
-        <v>216150</v>
+        <f>F171*0.31</f>
+        <v>562960</v>
       </c>
       <c r="H171">
-        <v>6000</v>
+        <v>71000</v>
       </c>
       <c r="I171">
-        <f>H171*0.11</f>
-        <v>660</v>
-      </c>
-      <c r="J171">
-        <v>1</v>
+        <f>H171*0.31</f>
+        <v>22010</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
@@ -6282,10 +6383,10 @@
         <v>13</v>
       </c>
       <c r="B172">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C172" s="2">
-        <v>35848</v>
+        <v>35748</v>
       </c>
       <c r="D172" s="4">
         <f t="shared" si="16"/>
@@ -6296,18 +6397,21 @@
         <v>1995</v>
       </c>
       <c r="F172">
-        <v>1971000</v>
+        <v>1965000</v>
       </c>
       <c r="G172">
-        <f>F172*0.12</f>
-        <v>236520</v>
+        <f>0.11*F172</f>
+        <v>216150</v>
       </c>
       <c r="H172">
-        <v>530000</v>
+        <v>6000</v>
       </c>
       <c r="I172">
-        <f>H172*0.12</f>
-        <v>63600</v>
+        <f>H172*0.11</f>
+        <v>660</v>
+      </c>
+      <c r="J172">
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
@@ -6318,29 +6422,29 @@
         <v>1998</v>
       </c>
       <c r="C173" s="2">
-        <v>35961</v>
+        <v>35848</v>
       </c>
       <c r="D173" s="4">
         <f t="shared" si="16"/>
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E173" s="4">
         <f t="shared" si="17"/>
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="F173">
-        <v>1007000</v>
+        <v>1971000</v>
       </c>
       <c r="G173">
-        <f>F173*0.2</f>
-        <v>201400</v>
+        <f>F173*0.12</f>
+        <v>236520</v>
       </c>
       <c r="H173">
-        <v>487000</v>
+        <v>530000</v>
       </c>
       <c r="I173">
-        <f>H173*0.2</f>
-        <v>97400</v>
+        <f>H173*0.12</f>
+        <v>63600</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
@@ -6348,10 +6452,10 @@
         <v>13</v>
       </c>
       <c r="B174">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C174" s="2">
-        <v>36218</v>
+        <v>35961</v>
       </c>
       <c r="D174" s="4">
         <f t="shared" si="16"/>
@@ -6362,21 +6466,18 @@
         <v>1996</v>
       </c>
       <c r="F174">
-        <v>49000</v>
+        <v>1007000</v>
       </c>
       <c r="G174">
-        <f>F174*0.1</f>
-        <v>4900</v>
+        <f>F174*0.2</f>
+        <v>201400</v>
       </c>
       <c r="H174">
-        <v>1056000</v>
+        <v>487000</v>
       </c>
       <c r="I174">
-        <f>H174*0.1</f>
-        <v>105600</v>
-      </c>
-      <c r="J174">
-        <v>1</v>
+        <f>H174*0.2</f>
+        <v>97400</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
@@ -6387,29 +6488,29 @@
         <v>1999</v>
       </c>
       <c r="C175" s="2">
-        <v>36395</v>
+        <v>36218</v>
       </c>
       <c r="D175" s="4">
         <f t="shared" si="16"/>
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="E175" s="4">
         <f t="shared" si="17"/>
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="F175">
-        <v>2058000</v>
+        <v>49000</v>
       </c>
       <c r="G175">
-        <f>F175*0.19</f>
-        <v>391020</v>
+        <f>F175*0.1</f>
+        <v>4900</v>
       </c>
       <c r="H175">
-        <v>385000</v>
+        <v>1056000</v>
       </c>
       <c r="I175">
-        <f>H175*0.19</f>
-        <v>73150</v>
+        <f>H175*0.1</f>
+        <v>105600</v>
       </c>
       <c r="J175">
         <v>1</v>
@@ -6420,32 +6521,35 @@
         <v>13</v>
       </c>
       <c r="B176">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C176" s="2">
-        <v>36718</v>
+        <v>36395</v>
       </c>
       <c r="D176" s="4">
         <f t="shared" si="16"/>
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="E176" s="4">
         <f t="shared" si="17"/>
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="F176">
-        <v>920000</v>
+        <v>2058000</v>
       </c>
       <c r="G176">
-        <f>F176*0.14</f>
-        <v>128800.00000000001</v>
+        <f>F176*0.19</f>
+        <v>391020</v>
       </c>
       <c r="H176">
-        <v>84000</v>
+        <v>385000</v>
       </c>
       <c r="I176">
-        <f>H176*0.14</f>
-        <v>11760.000000000002</v>
+        <f>H176*0.19</f>
+        <v>73150</v>
+      </c>
+      <c r="J176">
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
@@ -6456,7 +6560,7 @@
         <v>2000</v>
       </c>
       <c r="C177" s="2">
-        <v>36719</v>
+        <v>36718</v>
       </c>
       <c r="D177" s="4">
         <f t="shared" si="16"/>
@@ -6467,18 +6571,18 @@
         <v>1998</v>
       </c>
       <c r="F177">
-        <v>1013000</v>
+        <v>920000</v>
       </c>
       <c r="G177">
-        <f>F177*0.28</f>
-        <v>283640</v>
+        <f>F177*0.14</f>
+        <v>128800.00000000001</v>
       </c>
       <c r="H177">
-        <v>82000</v>
+        <v>84000</v>
       </c>
       <c r="I177">
-        <f>H177*0.28</f>
-        <v>22960.000000000004</v>
+        <f>H177*0.14</f>
+        <v>11760.000000000002</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
@@ -6489,7 +6593,7 @@
         <v>2000</v>
       </c>
       <c r="C178" s="2">
-        <v>36851</v>
+        <v>36719</v>
       </c>
       <c r="D178" s="4">
         <f t="shared" si="16"/>
@@ -6500,21 +6604,18 @@
         <v>1998</v>
       </c>
       <c r="F178">
-        <v>1066000</v>
+        <v>1013000</v>
       </c>
       <c r="G178">
-        <f>F178*0.17</f>
-        <v>181220</v>
+        <f>F178*0.28</f>
+        <v>283640</v>
       </c>
       <c r="H178">
-        <v>101000</v>
+        <v>82000</v>
       </c>
       <c r="I178">
-        <f>H178*0.17</f>
-        <v>17170</v>
-      </c>
-      <c r="J178">
-        <v>1</v>
+        <f>H178*0.28</f>
+        <v>22960.000000000004</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
@@ -6522,32 +6623,32 @@
         <v>13</v>
       </c>
       <c r="B179">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C179" s="2">
-        <v>37193</v>
+        <v>36851</v>
       </c>
       <c r="D179" s="4">
         <f t="shared" si="16"/>
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="E179" s="4">
         <f t="shared" si="17"/>
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="F179">
-        <v>2136000</v>
+        <v>1066000</v>
       </c>
       <c r="G179">
-        <f>F179*0.1</f>
-        <v>213600</v>
+        <f>F179*0.17</f>
+        <v>181220</v>
       </c>
       <c r="H179">
-        <v>130000</v>
+        <v>101000</v>
       </c>
       <c r="I179">
-        <f>H179*0.1</f>
-        <v>13000</v>
+        <f>H179*0.17</f>
+        <v>17170</v>
       </c>
       <c r="J179">
         <v>1</v>
@@ -6558,31 +6659,32 @@
         <v>13</v>
       </c>
       <c r="B180">
-        <f t="shared" ref="B180:B189" si="19">YEAR(C180)</f>
-        <v>2002</v>
-      </c>
-      <c r="C180" s="3">
-        <v>37565</v>
+        <v>2001</v>
+      </c>
+      <c r="C180" s="2">
+        <v>37193</v>
       </c>
       <c r="D180" s="4">
         <f t="shared" si="16"/>
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="E180" s="4">
         <f t="shared" si="17"/>
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="F180">
-        <v>1824000</v>
+        <v>2136000</v>
       </c>
       <c r="G180">
-        <v>164160</v>
+        <f>F180*0.1</f>
+        <v>213600</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>130000</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <f>H180*0.1</f>
+        <v>13000</v>
       </c>
       <c r="J180">
         <v>1</v>
@@ -6593,33 +6695,31 @@
         <v>13</v>
       </c>
       <c r="B181">
-        <f t="shared" si="19"/>
-        <v>2004</v>
-      </c>
-      <c r="C181" s="2">
-        <v>38054</v>
+        <f t="shared" ref="B181:B190" si="19">YEAR(C181)</f>
+        <v>2002</v>
+      </c>
+      <c r="C181" s="3">
+        <v>37565</v>
       </c>
       <c r="D181" s="4">
         <f t="shared" si="16"/>
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="E181" s="4">
         <f t="shared" si="17"/>
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="F181">
-        <v>1367000</v>
+        <v>1824000</v>
       </c>
       <c r="G181">
-        <f>F181*0.19</f>
-        <v>259730</v>
+        <v>164160</v>
       </c>
       <c r="H181">
-        <v>83000</v>
+        <v>0</v>
       </c>
       <c r="I181">
-        <f>H181*0.19</f>
-        <v>15770</v>
+        <v>0</v>
       </c>
       <c r="J181">
         <v>1</v>
@@ -6634,29 +6734,29 @@
         <v>2004</v>
       </c>
       <c r="C182" s="2">
-        <v>38321</v>
+        <v>38054</v>
       </c>
       <c r="D182" s="4">
         <f t="shared" si="16"/>
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="E182" s="4">
         <f t="shared" si="17"/>
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="F182">
-        <v>1227000</v>
+        <v>1367000</v>
       </c>
       <c r="G182">
-        <f>F182*0.1</f>
-        <v>122700</v>
+        <f>F182*0.19</f>
+        <v>259730</v>
       </c>
       <c r="H182">
-        <v>163000</v>
+        <v>83000</v>
       </c>
       <c r="I182">
-        <f>H182*0.1</f>
-        <v>16300</v>
+        <f>H182*0.19</f>
+        <v>15770</v>
       </c>
       <c r="J182">
         <v>1</v>
@@ -6668,32 +6768,35 @@
       </c>
       <c r="B183">
         <f t="shared" si="19"/>
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C183" s="2">
-        <v>38531</v>
+        <v>38321</v>
       </c>
       <c r="D183" s="4">
         <f t="shared" si="16"/>
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="E183" s="4">
         <f t="shared" si="17"/>
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="F183">
-        <v>1530000</v>
+        <v>1227000</v>
       </c>
       <c r="G183">
-        <f>F183*0.14</f>
-        <v>214200.00000000003</v>
+        <f>F183*0.1</f>
+        <v>122700</v>
       </c>
       <c r="H183">
-        <v>476000</v>
+        <v>163000</v>
       </c>
       <c r="I183">
-        <f>H183*0.14</f>
-        <v>66640</v>
+        <f>H183*0.1</f>
+        <v>16300</v>
+      </c>
+      <c r="J183">
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
@@ -6705,7 +6808,7 @@
         <v>2005</v>
       </c>
       <c r="C184" s="2">
-        <v>38560</v>
+        <v>38531</v>
       </c>
       <c r="D184" s="4">
         <f t="shared" si="16"/>
@@ -6716,18 +6819,18 @@
         <v>2003</v>
       </c>
       <c r="F184">
-        <v>668000</v>
+        <v>1530000</v>
       </c>
       <c r="G184">
-        <f>F184*0.27</f>
-        <v>180360</v>
+        <f>F184*0.14</f>
+        <v>214200.00000000003</v>
       </c>
       <c r="H184">
-        <v>102000</v>
+        <v>476000</v>
       </c>
       <c r="I184">
-        <f>H184*0.27</f>
-        <v>27540</v>
+        <f>H184*0.14</f>
+        <v>66640</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
@@ -6739,7 +6842,7 @@
         <v>2005</v>
       </c>
       <c r="C185" s="2">
-        <v>38622</v>
+        <v>38560</v>
       </c>
       <c r="D185" s="4">
         <f t="shared" si="16"/>
@@ -6750,18 +6853,18 @@
         <v>2003</v>
       </c>
       <c r="F185">
-        <v>1627000</v>
+        <v>668000</v>
       </c>
       <c r="G185">
-        <f>F185*0.19</f>
-        <v>309130</v>
+        <f>F185*0.27</f>
+        <v>180360</v>
       </c>
       <c r="H185">
-        <v>635000</v>
+        <v>102000</v>
       </c>
       <c r="I185">
-        <f>H185*0.19</f>
-        <v>120650</v>
+        <f>H185*0.27</f>
+        <v>27540</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
@@ -6770,10 +6873,10 @@
       </c>
       <c r="B186">
         <f t="shared" si="19"/>
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C186" s="2">
-        <v>38726</v>
+        <v>38622</v>
       </c>
       <c r="D186" s="4">
         <f t="shared" si="16"/>
@@ -6784,21 +6887,18 @@
         <v>2003</v>
       </c>
       <c r="F186">
-        <v>830000</v>
+        <v>1627000</v>
       </c>
       <c r="G186">
-        <f>F186*0.13</f>
-        <v>107900</v>
+        <f>F186*0.19</f>
+        <v>309130</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>635000</v>
       </c>
       <c r="I186">
-        <f>H186*0.13</f>
-        <v>0</v>
-      </c>
-      <c r="J186">
-        <v>1</v>
+        <f>H186*0.19</f>
+        <v>120650</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
@@ -6810,29 +6910,32 @@
         <v>2006</v>
       </c>
       <c r="C187" s="2">
-        <v>38889</v>
+        <v>38726</v>
       </c>
       <c r="D187" s="4">
         <f t="shared" si="16"/>
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E187" s="4">
         <f t="shared" si="17"/>
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="F187">
-        <v>274000</v>
+        <v>830000</v>
       </c>
       <c r="G187">
-        <f>F187*0.31</f>
-        <v>84940</v>
+        <f>F187*0.13</f>
+        <v>107900</v>
       </c>
       <c r="H187">
-        <v>215000</v>
+        <v>0</v>
       </c>
       <c r="I187">
-        <f>H187*0.31</f>
-        <v>66650</v>
+        <f>H187*0.13</f>
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
@@ -6844,7 +6947,7 @@
         <v>2006</v>
       </c>
       <c r="C188" s="2">
-        <v>38918</v>
+        <v>38889</v>
       </c>
       <c r="D188" s="4">
         <f t="shared" si="16"/>
@@ -6855,18 +6958,18 @@
         <v>2004</v>
       </c>
       <c r="F188">
-        <v>52000</v>
+        <v>274000</v>
       </c>
       <c r="G188">
-        <f>F188*0.26</f>
-        <v>13520</v>
+        <f>F188*0.31</f>
+        <v>84940</v>
       </c>
       <c r="H188">
-        <v>799000</v>
+        <v>215000</v>
       </c>
       <c r="I188">
-        <f>H188*0.26</f>
-        <v>207740</v>
+        <f>H188*0.31</f>
+        <v>66650</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
@@ -6878,7 +6981,7 @@
         <v>2006</v>
       </c>
       <c r="C189" s="2">
-        <v>38979</v>
+        <v>38918</v>
       </c>
       <c r="D189" s="4">
         <f t="shared" si="16"/>
@@ -6889,18 +6992,18 @@
         <v>2004</v>
       </c>
       <c r="F189">
-        <v>783000</v>
+        <v>52000</v>
       </c>
       <c r="G189">
-        <f>F189*0.11</f>
-        <v>86130</v>
+        <f>F189*0.26</f>
+        <v>13520</v>
       </c>
       <c r="H189">
-        <v>1162000</v>
+        <v>799000</v>
       </c>
       <c r="I189">
-        <f>H189*0.11</f>
-        <v>127820</v>
+        <f>H189*0.26</f>
+        <v>207740</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
@@ -6908,10 +7011,11 @@
         <v>13</v>
       </c>
       <c r="B190">
-        <v>2007</v>
+        <f t="shared" si="19"/>
+        <v>2006</v>
       </c>
       <c r="C190" s="2">
-        <v>39107</v>
+        <v>38979</v>
       </c>
       <c r="D190" s="4">
         <f t="shared" si="16"/>
@@ -6922,20 +7026,18 @@
         <v>2004</v>
       </c>
       <c r="F190">
-        <v>634000</v>
+        <v>783000</v>
       </c>
       <c r="G190">
-        <f>F190*0.26</f>
-        <v>164840</v>
+        <f>F190*0.11</f>
+        <v>86130</v>
       </c>
       <c r="H190">
-        <v>430000</v>
+        <v>1162000</v>
       </c>
       <c r="I190">
-        <v>164840</v>
-      </c>
-      <c r="J190">
-        <v>1</v>
+        <f>H190*0.11</f>
+        <v>127820</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
@@ -6946,28 +7048,31 @@
         <v>2007</v>
       </c>
       <c r="C191" s="2">
-        <v>39261</v>
+        <v>39107</v>
       </c>
       <c r="D191" s="4">
         <f t="shared" si="16"/>
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E191" s="4">
         <f t="shared" si="17"/>
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="F191">
-        <v>1126000</v>
+        <v>634000</v>
       </c>
       <c r="G191">
-        <f>F191*0.24</f>
-        <v>270240</v>
+        <f>F191*0.26</f>
+        <v>164840</v>
       </c>
       <c r="H191">
-        <v>41000</v>
+        <v>430000</v>
       </c>
       <c r="I191">
-        <v>270240</v>
+        <v>164840</v>
+      </c>
+      <c r="J191">
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
@@ -6978,7 +7083,7 @@
         <v>2007</v>
       </c>
       <c r="C192" s="2">
-        <v>39289</v>
+        <v>39261</v>
       </c>
       <c r="D192" s="4">
         <f t="shared" si="16"/>
@@ -6989,17 +7094,17 @@
         <v>2005</v>
       </c>
       <c r="F192">
-        <v>711000</v>
+        <v>1126000</v>
       </c>
       <c r="G192">
-        <f>F192*0.41</f>
-        <v>291510</v>
+        <f>F192*0.24</f>
+        <v>270240</v>
       </c>
       <c r="H192">
         <v>41000</v>
       </c>
       <c r="I192">
-        <v>291510</v>
+        <v>270240</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
@@ -7010,7 +7115,7 @@
         <v>2007</v>
       </c>
       <c r="C193" s="2">
-        <v>39317</v>
+        <v>39289</v>
       </c>
       <c r="D193" s="4">
         <f t="shared" si="16"/>
@@ -7021,20 +7126,17 @@
         <v>2005</v>
       </c>
       <c r="F193">
-        <v>482000</v>
+        <v>711000</v>
       </c>
       <c r="G193">
-        <f>F193*0.21</f>
-        <v>101220</v>
+        <f>F193*0.41</f>
+        <v>291510</v>
       </c>
       <c r="H193">
-        <v>442000</v>
+        <v>41000</v>
       </c>
       <c r="I193">
-        <v>87990</v>
-      </c>
-      <c r="J193">
-        <v>1</v>
+        <v>291510</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
@@ -7042,32 +7144,34 @@
         <v>13</v>
       </c>
       <c r="B194">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C194" s="2">
-        <v>39644</v>
+        <v>39317</v>
       </c>
       <c r="D194" s="4">
         <f t="shared" si="16"/>
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E194" s="4">
         <f t="shared" si="17"/>
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="F194">
-        <v>237000</v>
+        <v>482000</v>
       </c>
       <c r="G194">
-        <f>F194*0.35</f>
-        <v>82950</v>
+        <f>F194*0.21</f>
+        <v>101220</v>
       </c>
       <c r="H194">
-        <v>1586000</v>
+        <v>442000</v>
       </c>
       <c r="I194">
-        <f>H194*0.35</f>
-        <v>555100</v>
+        <v>87990</v>
+      </c>
+      <c r="J194">
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
@@ -7078,7 +7182,7 @@
         <v>2008</v>
       </c>
       <c r="C195" s="2">
-        <v>39770</v>
+        <v>39644</v>
       </c>
       <c r="D195" s="4">
         <f t="shared" si="16"/>
@@ -7089,18 +7193,18 @@
         <v>2006</v>
       </c>
       <c r="F195">
-        <v>829000</v>
+        <v>237000</v>
       </c>
       <c r="G195">
-        <f>F195*0.16</f>
-        <v>132640</v>
+        <f>F195*0.35</f>
+        <v>82950</v>
       </c>
       <c r="H195">
-        <v>1771000</v>
+        <v>1586000</v>
       </c>
       <c r="I195">
-        <f>H195*0.16</f>
-        <v>283360</v>
+        <f>H195*0.35</f>
+        <v>555100</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
@@ -7108,11 +7212,10 @@
         <v>13</v>
       </c>
       <c r="B196">
-        <f t="shared" ref="B196:B259" si="20">YEAR(C196)</f>
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C196" s="2">
-        <v>39842</v>
+        <v>39770</v>
       </c>
       <c r="D196" s="4">
         <f t="shared" si="16"/>
@@ -7123,21 +7226,18 @@
         <v>2006</v>
       </c>
       <c r="F196">
-        <v>1134000</v>
+        <v>829000</v>
       </c>
       <c r="G196">
-        <f>0.25*F196</f>
-        <v>283500</v>
+        <f>F196*0.16</f>
+        <v>132640</v>
       </c>
       <c r="H196">
-        <v>1883000</v>
+        <v>1771000</v>
       </c>
       <c r="I196">
-        <f>H196*0.25</f>
-        <v>470750</v>
-      </c>
-      <c r="J196">
-        <v>1</v>
+        <f>H196*0.16</f>
+        <v>283360</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
@@ -7145,33 +7245,36 @@
         <v>13</v>
       </c>
       <c r="B197">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="B197:B264" si="20">YEAR(C197)</f>
         <v>2009</v>
       </c>
       <c r="C197" s="2">
-        <v>40057</v>
+        <v>39842</v>
       </c>
       <c r="D197" s="4">
         <f t="shared" si="16"/>
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E197" s="4">
         <f t="shared" si="17"/>
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="F197">
-        <v>1527448</v>
+        <v>1134000</v>
       </c>
       <c r="G197">
-        <f>F197*0.25</f>
-        <v>381862</v>
+        <f>0.25*F197</f>
+        <v>283500</v>
       </c>
       <c r="H197">
-        <v>1716196</v>
+        <v>1883000</v>
       </c>
       <c r="I197">
         <f>H197*0.25</f>
-        <v>429049</v>
+        <v>470750</v>
+      </c>
+      <c r="J197">
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
@@ -7180,10 +7283,10 @@
       </c>
       <c r="B198">
         <f t="shared" si="20"/>
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C198" s="2">
-        <v>40212</v>
+        <v>40057</v>
       </c>
       <c r="D198" s="4">
         <f t="shared" si="16"/>
@@ -7194,21 +7297,18 @@
         <v>2007</v>
       </c>
       <c r="F198">
-        <v>1253000</v>
+        <v>1527448</v>
       </c>
       <c r="G198">
-        <f>0.22*F198</f>
-        <v>275660</v>
+        <f>F198*0.25</f>
+        <v>381862</v>
       </c>
       <c r="H198">
-        <v>136000</v>
+        <v>1716196</v>
       </c>
       <c r="I198">
-        <f>0.22*H198</f>
-        <v>29920</v>
-      </c>
-      <c r="J198">
-        <v>1</v>
+        <f>H198*0.25</f>
+        <v>429049</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
@@ -7220,29 +7320,32 @@
         <v>2010</v>
       </c>
       <c r="C199" s="2">
-        <v>40420</v>
+        <v>40212</v>
       </c>
       <c r="D199" s="4">
         <f t="shared" si="16"/>
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E199" s="4">
         <f t="shared" si="17"/>
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="F199">
-        <v>1034736</v>
+        <v>1253000</v>
       </c>
       <c r="G199">
-        <f>F199*0.23</f>
-        <v>237989.28</v>
+        <f>0.22*F199</f>
+        <v>275660</v>
       </c>
       <c r="H199">
-        <v>887151</v>
+        <v>136000</v>
       </c>
       <c r="I199">
-        <f>H199*0.23</f>
-        <v>204044.73</v>
+        <f>0.22*H199</f>
+        <v>29920</v>
+      </c>
+      <c r="J199">
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
@@ -7251,10 +7354,10 @@
       </c>
       <c r="B200">
         <f t="shared" si="20"/>
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C200" s="2">
-        <v>40574</v>
+        <v>40420</v>
       </c>
       <c r="D200" s="4">
         <f t="shared" si="16"/>
@@ -7265,21 +7368,18 @@
         <v>2008</v>
       </c>
       <c r="F200">
-        <v>1105480</v>
+        <v>1034736</v>
       </c>
       <c r="G200">
-        <f>F200*0.22</f>
-        <v>243205.6</v>
+        <f>F200*0.23</f>
+        <v>237989.28</v>
       </c>
       <c r="H200">
-        <v>84116</v>
+        <v>887151</v>
       </c>
       <c r="I200">
-        <f>H200*0.22</f>
-        <v>18505.52</v>
-      </c>
-      <c r="J200">
-        <v>1</v>
+        <f>H200*0.23</f>
+        <v>204044.73</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
@@ -7291,27 +7391,29 @@
         <v>2011</v>
       </c>
       <c r="C201" s="2">
-        <v>40779</v>
+        <v>40574</v>
       </c>
       <c r="D201" s="4">
         <f t="shared" si="16"/>
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E201" s="4">
         <f t="shared" si="17"/>
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="F201">
-        <v>10975946</v>
+        <v>1105480</v>
       </c>
       <c r="G201">
-        <v>2169613</v>
+        <f>F201*0.22</f>
+        <v>243205.6</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>84116</v>
       </c>
       <c r="I201">
-        <v>0</v>
+        <f>H201*0.22</f>
+        <v>18505.52</v>
       </c>
       <c r="J201">
         <v>1</v>
@@ -7323,32 +7425,33 @@
       </c>
       <c r="B202">
         <f t="shared" si="20"/>
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C202" s="2">
-        <v>40973</v>
+        <v>40779</v>
       </c>
       <c r="D202" s="4">
-        <f t="shared" ref="D202:D265" si="21">IF(MONTH(C202)&lt;4,B202-2,B202-1)</f>
+        <f t="shared" si="16"/>
         <v>2010</v>
       </c>
       <c r="E202" s="4">
-        <f t="shared" ref="E202:E265" si="22">IF(MONTH(C202)&lt;4,B202-3,B202-2)</f>
+        <f t="shared" si="17"/>
         <v>2009</v>
       </c>
       <c r="F202">
-        <v>236957</v>
+        <v>10975946</v>
       </c>
       <c r="G202">
-        <f>F202*0.27</f>
-        <v>63978.390000000007</v>
+        <v>2169613</v>
       </c>
       <c r="H202">
-        <v>236957</v>
+        <v>0</v>
       </c>
       <c r="I202">
-        <f>H202*0.27</f>
-        <v>63978.390000000007</v>
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
@@ -7360,27 +7463,29 @@
         <v>2012</v>
       </c>
       <c r="C203" s="2">
-        <v>41142</v>
+        <v>40973</v>
       </c>
       <c r="D203" s="4">
-        <f t="shared" si="21"/>
-        <v>2011</v>
+        <f t="shared" ref="D203:D270" si="21">IF(MONTH(C203)&lt;4,B203-2,B203-1)</f>
+        <v>2010</v>
       </c>
       <c r="E203" s="4">
-        <f t="shared" si="22"/>
-        <v>2010</v>
+        <f t="shared" ref="E203:E270" si="22">IF(MONTH(C203)&lt;4,B203-3,B203-2)</f>
+        <v>2009</v>
       </c>
       <c r="F203">
-        <v>4155368</v>
+        <v>236957</v>
       </c>
       <c r="G203">
-        <v>900467</v>
+        <f>F203*0.27</f>
+        <v>63978.390000000007</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>236957</v>
       </c>
       <c r="I203">
-        <v>0</v>
+        <f>H203*0.27</f>
+        <v>63978.390000000007</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
@@ -7388,36 +7493,31 @@
         <v>13</v>
       </c>
       <c r="B204">
-        <f>YEAR(C204)</f>
+        <f t="shared" si="20"/>
         <v>2012</v>
       </c>
       <c r="C204" s="2">
-        <v>41248</v>
+        <v>41142</v>
       </c>
       <c r="D204" s="4">
-        <f>IF(MONTH(C204)&lt;4,B204-2,B204-1)</f>
+        <f t="shared" si="21"/>
         <v>2011</v>
       </c>
       <c r="E204" s="4">
-        <f>IF(MONTH(C204)&lt;4,B204-3,B204-2)</f>
+        <f t="shared" si="22"/>
         <v>2010</v>
       </c>
       <c r="F204">
-        <v>3126603</v>
+        <v>4155368</v>
       </c>
       <c r="G204">
-        <f>F204*0.21</f>
-        <v>656586.63</v>
+        <v>900467</v>
       </c>
       <c r="H204">
-        <v>15851</v>
+        <v>0</v>
       </c>
       <c r="I204">
-        <f>H204*0.21</f>
-        <v>3328.71</v>
-      </c>
-      <c r="J204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
@@ -7425,33 +7525,36 @@
         <v>13</v>
       </c>
       <c r="B205">
-        <f t="shared" si="20"/>
-        <v>2013</v>
+        <f>YEAR(C205)</f>
+        <v>2012</v>
       </c>
       <c r="C205" s="2">
-        <v>41493</v>
+        <v>41248</v>
       </c>
       <c r="D205" s="4">
-        <f t="shared" si="21"/>
-        <v>2012</v>
+        <f>IF(MONTH(C205)&lt;4,B205-2,B205-1)</f>
+        <v>2011</v>
       </c>
       <c r="E205" s="4">
-        <f t="shared" si="22"/>
-        <v>2011</v>
+        <f>IF(MONTH(C205)&lt;4,B205-3,B205-2)</f>
+        <v>2010</v>
       </c>
       <c r="F205">
-        <v>1819210</v>
+        <v>3126603</v>
       </c>
       <c r="G205">
         <f>F205*0.21</f>
-        <v>382034.1</v>
+        <v>656586.63</v>
       </c>
       <c r="H205">
-        <v>2106890</v>
+        <v>15851</v>
       </c>
       <c r="I205">
         <f>H205*0.21</f>
-        <v>442446.89999999997</v>
+        <v>3328.71</v>
+      </c>
+      <c r="J205">
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
@@ -7460,13 +7563,13 @@
       </c>
       <c r="B206">
         <f t="shared" si="20"/>
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C206" s="2">
-        <v>41716</v>
+        <v>41493</v>
       </c>
       <c r="D206" s="4">
-        <f>IF(MONTH(C206)&lt;4,B206-2,B206-1)</f>
+        <f t="shared" si="21"/>
         <v>2012</v>
       </c>
       <c r="E206" s="4">
@@ -7474,21 +7577,18 @@
         <v>2011</v>
       </c>
       <c r="F206">
-        <v>1222987</v>
+        <v>1819210</v>
       </c>
       <c r="G206">
-        <f>F206*0.2</f>
-        <v>244597.40000000002</v>
+        <f>F206*0.21</f>
+        <v>382034.1</v>
       </c>
       <c r="H206">
-        <v>588254</v>
+        <v>2106890</v>
       </c>
       <c r="I206">
-        <f>H206*0.2</f>
-        <v>117650.8</v>
-      </c>
-      <c r="J206">
-        <v>1</v>
+        <f>H206*0.21</f>
+        <v>442446.89999999997</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
@@ -7500,29 +7600,32 @@
         <v>2014</v>
       </c>
       <c r="C207" s="2">
-        <v>41968</v>
+        <v>41716</v>
       </c>
       <c r="D207" s="4">
-        <f t="shared" si="21"/>
-        <v>2013</v>
+        <f>IF(MONTH(C207)&lt;4,B207-2,B207-1)</f>
+        <v>2012</v>
       </c>
       <c r="E207" s="4">
         <f t="shared" si="22"/>
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F207">
-        <v>975320</v>
+        <v>1222987</v>
       </c>
       <c r="G207">
-        <f>0.21*F207</f>
-        <v>204817.19999999998</v>
+        <f>F207*0.2</f>
+        <v>244597.40000000002</v>
       </c>
       <c r="H207">
-        <v>1626770</v>
+        <v>588254</v>
       </c>
       <c r="I207">
-        <f>0.21*H207</f>
-        <v>341621.7</v>
+        <f>H207*0.2</f>
+        <v>117650.8</v>
+      </c>
+      <c r="J207">
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
@@ -7531,10 +7634,10 @@
       </c>
       <c r="B208">
         <f t="shared" si="20"/>
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C208" s="2">
-        <v>42059</v>
+        <v>41968</v>
       </c>
       <c r="D208" s="4">
         <f t="shared" si="21"/>
@@ -7545,21 +7648,18 @@
         <v>2012</v>
       </c>
       <c r="F208">
-        <v>611271</v>
+        <v>975320</v>
       </c>
       <c r="G208">
-        <f>F208*0.021</f>
-        <v>12836.691000000001</v>
+        <f>0.21*F208</f>
+        <v>204817.19999999998</v>
       </c>
       <c r="H208">
-        <v>1964649</v>
+        <v>1626770</v>
       </c>
       <c r="I208">
-        <f>H208*0.21</f>
-        <v>412576.29</v>
-      </c>
-      <c r="J208">
-        <v>1</v>
+        <f>0.21*H208</f>
+        <v>341621.7</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
@@ -7571,29 +7671,29 @@
         <v>2015</v>
       </c>
       <c r="C209" s="2">
-        <v>42334</v>
+        <v>42059</v>
       </c>
       <c r="D209" s="4">
         <f t="shared" si="21"/>
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="E209" s="4">
         <f t="shared" si="22"/>
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F209">
-        <v>219913</v>
+        <v>611271</v>
       </c>
       <c r="G209">
-        <f>0.21*F209</f>
-        <v>46181.729999999996</v>
+        <f>F209*0.021</f>
+        <v>12836.691000000001</v>
       </c>
       <c r="H209">
-        <v>1505881</v>
+        <v>1964649</v>
       </c>
       <c r="I209">
-        <f>0.21*H209</f>
-        <v>316235.01</v>
+        <f>H209*0.21</f>
+        <v>412576.29</v>
       </c>
       <c r="J209">
         <v>1</v>
@@ -7601,34 +7701,36 @@
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B210">
         <f t="shared" si="20"/>
-        <v>1980</v>
+        <v>2015</v>
       </c>
       <c r="C210" s="2">
-        <v>29277</v>
+        <v>42334</v>
       </c>
       <c r="D210" s="4">
         <f t="shared" si="21"/>
-        <v>1978</v>
+        <v>2014</v>
       </c>
       <c r="E210" s="4">
         <f t="shared" si="22"/>
-        <v>1977</v>
+        <v>2013</v>
       </c>
       <c r="F210">
-        <v>4623613</v>
+        <v>219913</v>
       </c>
       <c r="G210">
-        <v>698082</v>
+        <f>0.21*F210</f>
+        <v>46181.729999999996</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1505881</v>
       </c>
       <c r="I210">
-        <v>0</v>
+        <f>0.21*H210</f>
+        <v>316235.01</v>
       </c>
       <c r="J210">
         <v>1</v>
@@ -7636,34 +7738,36 @@
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B211">
-        <f t="shared" si="20"/>
-        <v>1981</v>
+        <f>YEAR(C211)</f>
+        <v>2020</v>
       </c>
       <c r="C211" s="2">
-        <v>29606</v>
+        <v>44167</v>
       </c>
       <c r="D211" s="4">
-        <f t="shared" si="21"/>
-        <v>1979</v>
+        <f>IF(MONTH(C211)&lt;4,B211-2,B211-1)</f>
+        <v>2019</v>
       </c>
       <c r="E211" s="4">
-        <f t="shared" si="22"/>
-        <v>1978</v>
+        <f>IF(MONTH(C211)&lt;4,B211-3,B211-2)</f>
+        <v>2018</v>
       </c>
       <c r="F211">
-        <v>5684292</v>
+        <v>91633</v>
       </c>
       <c r="G211">
-        <v>1116531</v>
+        <f>(((1243193-976715)/1.96)/1104016)*F211</f>
+        <v>11284.487158238464</v>
       </c>
       <c r="H211">
-        <v>158639</v>
+        <v>1012383</v>
       </c>
       <c r="I211">
-        <v>163338</v>
+        <f>(((1243193-976715)/1.96)/1104016)*H211</f>
+        <v>124673.67610706766</v>
       </c>
       <c r="J211">
         <v>1</v>
@@ -7671,98 +7775,107 @@
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B212">
-        <f t="shared" si="20"/>
-        <v>1981</v>
+        <f>YEAR(C212)</f>
+        <v>2021</v>
       </c>
       <c r="C212" s="2">
-        <v>29803</v>
+        <v>44532</v>
       </c>
       <c r="D212" s="4">
-        <f t="shared" si="21"/>
-        <v>1980</v>
+        <f>IF(MONTH(C212)&lt;4,B212-2,B212-1)</f>
+        <v>2020</v>
       </c>
       <c r="E212" s="4">
-        <f t="shared" si="22"/>
-        <v>1979</v>
+        <f>IF(MONTH(C212)&lt;4,B212-3,B212-2)</f>
+        <v>2019</v>
       </c>
       <c r="F212">
-        <v>14396081</v>
+        <v>28482</v>
       </c>
       <c r="G212">
-        <v>3293857</v>
+        <f>(((879230-775151)/1.96)/775151)*F212</f>
+        <v>1951.1524785467077</v>
       </c>
       <c r="H212">
-        <v>123261</v>
+        <v>797496</v>
       </c>
       <c r="I212">
-        <v>36969</v>
+        <f>(((879230-775151)/1.96)/775151)*H212</f>
+        <v>54632.269399307814</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B213">
-        <f t="shared" si="20"/>
-        <v>1981</v>
+        <f>YEAR(C213)</f>
+        <v>2022</v>
       </c>
       <c r="C213" s="2">
-        <v>29858</v>
+        <v>44615</v>
       </c>
       <c r="D213" s="4">
-        <f t="shared" si="21"/>
-        <v>1980</v>
+        <f>IF(MONTH(C213)&lt;4,B213-2,B213-1)</f>
+        <v>2020</v>
       </c>
       <c r="E213" s="4">
-        <f t="shared" si="22"/>
-        <v>1979</v>
+        <f>IF(MONTH(C213)&lt;4,B213-3,B213-2)</f>
+        <v>2019</v>
       </c>
       <c r="F213">
-        <v>11189652</v>
+        <v>17933</v>
       </c>
       <c r="G213">
-        <v>1612712</v>
+        <f>(((706813-620703)/1.96)/662703)*F213</f>
+        <v>1188.8622298775329</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>644791</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <f>(((706813-620703)/1.96)/662703)*H213</f>
+        <v>42746.203427478074</v>
+      </c>
+      <c r="J213">
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B214">
-        <f t="shared" si="20"/>
-        <v>1981</v>
+        <f>YEAR(C214)</f>
+        <v>2022</v>
       </c>
       <c r="C214" s="2">
-        <v>29923</v>
+        <v>44883</v>
       </c>
       <c r="D214" s="4">
-        <f t="shared" si="21"/>
-        <v>1980</v>
+        <f>IF(MONTH(C214)&lt;4,B214-2,B214-1)</f>
+        <v>2021</v>
       </c>
       <c r="E214" s="4">
-        <f t="shared" si="22"/>
-        <v>1979</v>
+        <f>IF(MONTH(C214)&lt;4,B214-3,B214-2)</f>
+        <v>2020</v>
       </c>
       <c r="F214">
-        <v>8335707</v>
+        <v>1097034</v>
       </c>
       <c r="G214">
-        <v>1379346</v>
+        <f>(((1818086-1300757)/1.96)/1706864)*F214</f>
+        <v>169641.42899146132</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>609830</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <f>(((1818086-1300757)/1.96)/1706864)*H214</f>
+        <v>94301.938355477454</v>
       </c>
       <c r="J214">
         <v>1</v>
@@ -7774,30 +7887,33 @@
       </c>
       <c r="B215">
         <f t="shared" si="20"/>
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="C215" s="2">
-        <v>30188</v>
+        <v>29277</v>
       </c>
       <c r="D215" s="4">
         <f t="shared" si="21"/>
-        <v>1981</v>
+        <v>1978</v>
       </c>
       <c r="E215" s="4">
         <f t="shared" si="22"/>
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="F215">
-        <v>19786826</v>
+        <v>4623613</v>
       </c>
       <c r="G215">
-        <v>3687338</v>
+        <v>698082</v>
       </c>
       <c r="H215">
-        <v>1171047</v>
+        <v>0</v>
       </c>
       <c r="I215">
-        <v>212426</v>
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
@@ -7806,30 +7922,33 @@
       </c>
       <c r="B216">
         <f t="shared" si="20"/>
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C216" s="2">
-        <v>30265</v>
+        <v>29606</v>
       </c>
       <c r="D216" s="4">
         <f t="shared" si="21"/>
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="E216" s="4">
         <f t="shared" si="22"/>
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="F216">
-        <v>7249794</v>
+        <v>5684292</v>
       </c>
       <c r="G216">
-        <v>1890346</v>
+        <v>1116531</v>
       </c>
       <c r="H216">
-        <v>435913</v>
+        <v>158639</v>
       </c>
       <c r="I216">
-        <v>137604</v>
+        <v>163338</v>
+      </c>
+      <c r="J216">
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
@@ -7838,33 +7957,30 @@
       </c>
       <c r="B217">
         <f t="shared" si="20"/>
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="C217" s="2">
-        <v>30377</v>
+        <v>29803</v>
       </c>
       <c r="D217" s="4">
         <f t="shared" si="21"/>
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="E217" s="4">
         <f t="shared" si="22"/>
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="F217">
-        <v>8427632</v>
+        <v>14396081</v>
       </c>
       <c r="G217">
-        <v>1378401</v>
+        <v>3293857</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>123261</v>
       </c>
       <c r="I217">
-        <v>0</v>
-      </c>
-      <c r="J217">
-        <v>1</v>
+        <v>36969</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
@@ -7873,30 +7989,30 @@
       </c>
       <c r="B218">
         <f t="shared" si="20"/>
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="C218" s="2">
-        <v>30551</v>
+        <v>29858</v>
       </c>
       <c r="D218" s="4">
         <f t="shared" si="21"/>
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="E218" s="4">
         <f t="shared" si="22"/>
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="F218">
-        <v>13176917</v>
+        <v>11189652</v>
       </c>
       <c r="G218">
-        <v>4038902</v>
+        <v>1612712</v>
       </c>
       <c r="H218">
-        <v>4662</v>
+        <v>0</v>
       </c>
       <c r="I218">
-        <v>5826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
@@ -7905,24 +8021,24 @@
       </c>
       <c r="B219">
         <f t="shared" si="20"/>
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="C219" s="2">
-        <v>30648</v>
+        <v>29923</v>
       </c>
       <c r="D219" s="4">
         <f t="shared" si="21"/>
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="E219" s="4">
         <f t="shared" si="22"/>
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="F219">
-        <v>9639172</v>
+        <v>8335707</v>
       </c>
       <c r="G219">
-        <v>1563720</v>
+        <v>1379346</v>
       </c>
       <c r="H219">
         <v>0</v>
@@ -7940,33 +8056,30 @@
       </c>
       <c r="B220">
         <f t="shared" si="20"/>
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="C220" s="2">
-        <v>30956</v>
+        <v>30188</v>
       </c>
       <c r="D220" s="4">
         <f t="shared" si="21"/>
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="E220" s="4">
         <f t="shared" si="22"/>
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="F220">
-        <v>19564054</v>
+        <v>19786826</v>
       </c>
       <c r="G220">
-        <v>3521352</v>
+        <v>3687338</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1171047</v>
       </c>
       <c r="I220">
-        <v>0</v>
-      </c>
-      <c r="J220">
-        <v>1</v>
+        <v>212426</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
@@ -7975,33 +8088,30 @@
       </c>
       <c r="B221">
         <f t="shared" si="20"/>
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="C221" s="2">
-        <v>31316</v>
+        <v>30265</v>
       </c>
       <c r="D221" s="4">
         <f t="shared" si="21"/>
-        <v>1984</v>
+        <v>1981</v>
       </c>
       <c r="E221" s="4">
         <f t="shared" si="22"/>
-        <v>1983</v>
+        <v>1980</v>
       </c>
       <c r="F221">
-        <v>6970095</v>
+        <v>7249794</v>
       </c>
       <c r="G221">
-        <v>1145018</v>
+        <v>1890346</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>435913</v>
       </c>
       <c r="I221">
-        <v>0</v>
-      </c>
-      <c r="J221">
-        <v>1</v>
+        <v>137604</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
@@ -8010,30 +8120,33 @@
       </c>
       <c r="B222">
         <f t="shared" si="20"/>
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="C222" s="2">
-        <v>31317</v>
+        <v>30377</v>
       </c>
       <c r="D222" s="4">
         <f t="shared" si="21"/>
-        <v>1984</v>
+        <v>1981</v>
       </c>
       <c r="E222" s="4">
         <f t="shared" si="22"/>
-        <v>1983</v>
+        <v>1980</v>
       </c>
       <c r="F222">
-        <v>9079741</v>
+        <v>8427632</v>
       </c>
       <c r="G222">
-        <v>1433266</v>
+        <v>1378401</v>
       </c>
       <c r="H222">
         <v>0</v>
       </c>
       <c r="I222">
         <v>0</v>
+      </c>
+      <c r="J222">
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
@@ -8042,30 +8155,30 @@
       </c>
       <c r="B223">
         <f t="shared" si="20"/>
-        <v>1986</v>
+        <v>1983</v>
       </c>
       <c r="C223" s="2">
-        <v>31651</v>
+        <v>30551</v>
       </c>
       <c r="D223" s="4">
         <f t="shared" si="21"/>
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="E223" s="4">
         <f t="shared" si="22"/>
-        <v>1984</v>
+        <v>1981</v>
       </c>
       <c r="F223">
-        <v>8825549</v>
+        <v>13176917</v>
       </c>
       <c r="G223">
-        <v>2013110</v>
+        <v>4038902</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>4662</v>
       </c>
       <c r="I223">
-        <v>0</v>
+        <v>5826</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
@@ -8074,30 +8187,33 @@
       </c>
       <c r="B224">
         <f t="shared" si="20"/>
-        <v>1986</v>
+        <v>1983</v>
       </c>
       <c r="C224" s="2">
-        <v>31652</v>
+        <v>30648</v>
       </c>
       <c r="D224" s="4">
         <f t="shared" si="21"/>
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="E224" s="4">
         <f t="shared" si="22"/>
-        <v>1984</v>
+        <v>1981</v>
       </c>
       <c r="F224">
-        <v>11232287</v>
+        <v>9639172</v>
       </c>
       <c r="G224">
-        <v>2012645</v>
+        <v>1563720</v>
       </c>
       <c r="H224">
         <v>0</v>
       </c>
       <c r="I224">
         <v>0</v>
+      </c>
+      <c r="J224">
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
@@ -8106,30 +8222,30 @@
       </c>
       <c r="B225">
         <f t="shared" si="20"/>
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="C225" s="2">
-        <v>31715</v>
+        <v>30956</v>
       </c>
       <c r="D225" s="4">
         <f t="shared" si="21"/>
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="E225" s="4">
         <f t="shared" si="22"/>
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="F225">
-        <v>4983068</v>
+        <v>19564054</v>
       </c>
       <c r="G225">
-        <v>114988</v>
+        <v>3521352</v>
       </c>
       <c r="H225">
-        <v>53880</v>
+        <v>0</v>
       </c>
       <c r="I225">
-        <v>23107</v>
+        <v>0</v>
       </c>
       <c r="J225">
         <v>1</v>
@@ -8141,30 +8257,33 @@
       </c>
       <c r="B226">
         <f t="shared" si="20"/>
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="C226" s="2">
-        <v>31831</v>
+        <v>31316</v>
       </c>
       <c r="D226" s="4">
         <f t="shared" si="21"/>
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="E226" s="4">
         <f t="shared" si="22"/>
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="F226">
-        <v>4762461</v>
+        <v>6970095</v>
       </c>
       <c r="G226">
-        <v>785400</v>
+        <v>1145018</v>
       </c>
       <c r="H226">
-        <v>98338</v>
+        <v>0</v>
       </c>
       <c r="I226">
-        <v>78489</v>
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
@@ -8173,30 +8292,30 @@
       </c>
       <c r="B227">
         <f t="shared" si="20"/>
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="C227" s="2">
-        <v>32021</v>
+        <v>31317</v>
       </c>
       <c r="D227" s="4">
         <f t="shared" si="21"/>
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="E227" s="4">
         <f t="shared" si="22"/>
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="F227">
-        <v>8560289</v>
+        <v>9079741</v>
       </c>
       <c r="G227">
-        <v>1390335</v>
+        <v>1433266</v>
       </c>
       <c r="H227">
-        <v>57659</v>
+        <v>0</v>
       </c>
       <c r="I227">
-        <v>14564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
@@ -8205,30 +8324,30 @@
       </c>
       <c r="B228">
         <f t="shared" si="20"/>
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C228" s="2">
-        <v>32119</v>
+        <v>31651</v>
       </c>
       <c r="D228" s="4">
         <f t="shared" si="21"/>
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="E228" s="4">
         <f t="shared" si="22"/>
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F228">
-        <v>10840544</v>
+        <v>8825549</v>
       </c>
       <c r="G228">
-        <v>1397888</v>
+        <v>2013110</v>
       </c>
       <c r="H228">
-        <v>200451</v>
+        <v>0</v>
       </c>
       <c r="I228">
-        <v>41137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
@@ -8237,33 +8356,30 @@
       </c>
       <c r="B229">
         <f t="shared" si="20"/>
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="C229" s="2">
-        <v>32169</v>
+        <v>31652</v>
       </c>
       <c r="D229" s="4">
         <f t="shared" si="21"/>
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="E229" s="4">
         <f t="shared" si="22"/>
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F229">
-        <v>8892056</v>
+        <v>11232287</v>
       </c>
       <c r="G229">
-        <v>950613</v>
+        <v>2012645</v>
       </c>
       <c r="H229">
         <v>0</v>
       </c>
       <c r="I229">
         <v>0</v>
-      </c>
-      <c r="J229">
-        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
@@ -8272,30 +8388,30 @@
       </c>
       <c r="B230">
         <f t="shared" si="20"/>
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="C230" s="2">
-        <v>32448</v>
+        <v>31715</v>
       </c>
       <c r="D230" s="4">
         <f t="shared" si="21"/>
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="E230" s="4">
         <f t="shared" si="22"/>
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="F230">
-        <v>9187558</v>
+        <v>4983068</v>
       </c>
       <c r="G230">
-        <v>1141438</v>
+        <v>114988</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>53880</v>
       </c>
       <c r="I230">
-        <v>0</v>
+        <v>23107</v>
       </c>
       <c r="J230">
         <v>1</v>
@@ -8307,30 +8423,30 @@
       </c>
       <c r="B231">
         <f t="shared" si="20"/>
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="C231" s="2">
-        <v>32687</v>
+        <v>31831</v>
       </c>
       <c r="D231" s="4">
         <f t="shared" si="21"/>
-        <v>1988</v>
+        <v>1985</v>
       </c>
       <c r="E231" s="4">
         <f t="shared" si="22"/>
-        <v>1987</v>
+        <v>1984</v>
       </c>
       <c r="F231">
-        <v>11813897</v>
+        <v>4762461</v>
       </c>
       <c r="G231">
-        <v>1910313</v>
+        <v>785400</v>
       </c>
       <c r="H231">
-        <v>1923193</v>
+        <v>98338</v>
       </c>
       <c r="I231">
-        <v>310981</v>
+        <v>78489</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
@@ -8339,33 +8455,30 @@
       </c>
       <c r="B232">
         <f t="shared" si="20"/>
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="C232" s="2">
-        <v>32799</v>
+        <v>32021</v>
       </c>
       <c r="D232" s="4">
         <f t="shared" si="21"/>
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="E232" s="4">
         <f t="shared" si="22"/>
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="F232">
-        <v>11183261</v>
+        <v>8560289</v>
       </c>
       <c r="G232">
-        <v>1959673</v>
+        <v>1390335</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>57659</v>
       </c>
       <c r="I232">
-        <v>0</v>
-      </c>
-      <c r="J232">
-        <v>1</v>
+        <v>14564</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
@@ -8374,30 +8487,30 @@
       </c>
       <c r="B233">
         <f t="shared" si="20"/>
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="C233" s="2">
-        <v>32800</v>
+        <v>32119</v>
       </c>
       <c r="D233" s="4">
         <f t="shared" si="21"/>
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="E233" s="4">
         <f t="shared" si="22"/>
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="F233">
-        <v>13224299</v>
+        <v>10840544</v>
       </c>
       <c r="G233">
-        <v>2304833</v>
+        <v>1397888</v>
       </c>
       <c r="H233">
-        <v>42305</v>
+        <v>200451</v>
       </c>
       <c r="I233">
-        <v>11020</v>
+        <v>41137</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
@@ -8406,30 +8519,33 @@
       </c>
       <c r="B234">
         <f t="shared" si="20"/>
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="C234" s="2">
-        <v>32946</v>
+        <v>32169</v>
       </c>
       <c r="D234" s="4">
         <f t="shared" si="21"/>
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="E234" s="4">
         <f t="shared" si="22"/>
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="F234">
-        <v>7487085</v>
+        <v>8892056</v>
       </c>
       <c r="G234">
-        <v>1092031</v>
+        <v>950613</v>
       </c>
       <c r="H234">
         <v>0</v>
       </c>
       <c r="I234">
         <v>0</v>
+      </c>
+      <c r="J234">
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
@@ -8438,30 +8554,33 @@
       </c>
       <c r="B235">
         <f t="shared" si="20"/>
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="C235" s="2">
-        <v>33035</v>
+        <v>32448</v>
       </c>
       <c r="D235" s="4">
         <f t="shared" si="21"/>
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="E235" s="4">
         <f t="shared" si="22"/>
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="F235">
-        <v>4226888</v>
+        <v>9187558</v>
       </c>
       <c r="G235">
-        <v>965642</v>
+        <v>1141438</v>
       </c>
       <c r="H235">
-        <v>1286444</v>
+        <v>0</v>
       </c>
       <c r="I235">
-        <v>293891</v>
+        <v>0</v>
+      </c>
+      <c r="J235">
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
@@ -8470,30 +8589,30 @@
       </c>
       <c r="B236">
         <f t="shared" si="20"/>
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="C236" s="2">
-        <v>33036</v>
+        <v>32687</v>
       </c>
       <c r="D236" s="4">
         <f t="shared" si="21"/>
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="E236" s="4">
         <f t="shared" si="22"/>
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="F236">
-        <v>4876891</v>
+        <v>11813897</v>
       </c>
       <c r="G236">
-        <v>1186063</v>
+        <v>1910313</v>
       </c>
       <c r="H236">
-        <v>1484271</v>
+        <v>1923193</v>
       </c>
       <c r="I236">
-        <v>360976</v>
+        <v>310981</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
@@ -8502,30 +8621,33 @@
       </c>
       <c r="B237">
         <f t="shared" si="20"/>
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="C237" s="2">
-        <v>33037</v>
+        <v>32799</v>
       </c>
       <c r="D237" s="4">
         <f t="shared" si="21"/>
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="E237" s="4">
         <f t="shared" si="22"/>
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="F237">
-        <v>5477969</v>
+        <v>11183261</v>
       </c>
       <c r="G237">
-        <v>1287579</v>
+        <v>1959673</v>
       </c>
       <c r="H237">
-        <v>1667208</v>
+        <v>0</v>
       </c>
       <c r="I237">
-        <v>391872</v>
+        <v>0</v>
+      </c>
+      <c r="J237">
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
@@ -8534,30 +8656,30 @@
       </c>
       <c r="B238">
         <f t="shared" si="20"/>
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="C238" s="2">
-        <v>33161</v>
+        <v>32800</v>
       </c>
       <c r="D238" s="4">
         <f t="shared" si="21"/>
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="E238" s="4">
         <f t="shared" si="22"/>
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="F238">
-        <v>10173989</v>
+        <v>13224299</v>
       </c>
       <c r="G238">
-        <v>2119602</v>
+        <v>2304833</v>
       </c>
       <c r="H238">
-        <v>2594501</v>
+        <v>42305</v>
       </c>
       <c r="I238">
-        <v>659443</v>
+        <v>11020</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
@@ -8569,27 +8691,27 @@
         <v>1990</v>
       </c>
       <c r="C239" s="2">
-        <v>33162</v>
+        <v>32946</v>
       </c>
       <c r="D239" s="4">
         <f t="shared" si="21"/>
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="E239" s="4">
         <f t="shared" si="22"/>
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="F239">
-        <v>9156313</v>
+        <v>7487085</v>
       </c>
       <c r="G239">
-        <v>1485174</v>
+        <v>1092031</v>
       </c>
       <c r="H239">
-        <v>2250977</v>
+        <v>0</v>
       </c>
       <c r="I239">
-        <v>360135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
@@ -8601,7 +8723,7 @@
         <v>1990</v>
       </c>
       <c r="C240" s="2">
-        <v>33163</v>
+        <v>33035</v>
       </c>
       <c r="D240" s="4">
         <f t="shared" si="21"/>
@@ -8612,16 +8734,16 @@
         <v>1988</v>
       </c>
       <c r="F240">
-        <v>10967889</v>
+        <v>4226888</v>
       </c>
       <c r="G240">
-        <v>1980273</v>
+        <v>965642</v>
       </c>
       <c r="H240">
-        <v>2706287</v>
+        <v>1286444</v>
       </c>
       <c r="I240">
-        <v>607388</v>
+        <v>293891</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
@@ -8633,7 +8755,7 @@
         <v>1990</v>
       </c>
       <c r="C241" s="2">
-        <v>33164</v>
+        <v>33036</v>
       </c>
       <c r="D241" s="4">
         <f t="shared" si="21"/>
@@ -8644,16 +8766,16 @@
         <v>1988</v>
       </c>
       <c r="F241">
-        <v>9142123</v>
+        <v>4876891</v>
       </c>
       <c r="G241">
-        <v>1627897</v>
+        <v>1186063</v>
       </c>
       <c r="H241">
-        <v>2244214</v>
+        <v>1484271</v>
       </c>
       <c r="I241">
-        <v>445150</v>
+        <v>360976</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
@@ -8662,10 +8784,10 @@
       </c>
       <c r="B242">
         <f t="shared" si="20"/>
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="C242" s="2">
-        <v>33275</v>
+        <v>33037</v>
       </c>
       <c r="D242" s="4">
         <f t="shared" si="21"/>
@@ -8676,19 +8798,16 @@
         <v>1988</v>
       </c>
       <c r="F242">
-        <v>8541187</v>
+        <v>5477969</v>
       </c>
       <c r="G242">
-        <v>1149338</v>
+        <v>1287579</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1667208</v>
       </c>
       <c r="I242">
-        <v>0</v>
-      </c>
-      <c r="J242">
-        <v>1</v>
+        <v>391872</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
@@ -8697,10 +8816,10 @@
       </c>
       <c r="B243">
         <f t="shared" si="20"/>
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="C243" s="2">
-        <v>33278</v>
+        <v>33161</v>
       </c>
       <c r="D243" s="4">
         <f t="shared" si="21"/>
@@ -8711,16 +8830,16 @@
         <v>1988</v>
       </c>
       <c r="F243">
-        <v>8659533</v>
+        <v>10173989</v>
       </c>
       <c r="G243">
-        <v>2139007</v>
+        <v>2119602</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2594501</v>
       </c>
       <c r="I243">
-        <v>0</v>
+        <v>659443</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
@@ -8729,30 +8848,30 @@
       </c>
       <c r="B244">
         <f t="shared" si="20"/>
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="C244" s="2">
-        <v>33438</v>
+        <v>33162</v>
       </c>
       <c r="D244" s="4">
         <f t="shared" si="21"/>
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="E244" s="4">
         <f t="shared" si="22"/>
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="F244">
-        <v>5960245</v>
+        <v>9156313</v>
       </c>
       <c r="G244">
-        <v>1254240</v>
+        <v>1485174</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2250977</v>
       </c>
       <c r="I244">
-        <v>0</v>
+        <v>360135</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
@@ -8761,33 +8880,30 @@
       </c>
       <c r="B245">
         <f t="shared" si="20"/>
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="C245" s="2">
-        <v>33527</v>
+        <v>33163</v>
       </c>
       <c r="D245" s="4">
         <f t="shared" si="21"/>
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="E245" s="4">
         <f t="shared" si="22"/>
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="F245">
-        <v>5883006</v>
+        <v>10967889</v>
       </c>
       <c r="G245">
-        <v>1124826</v>
+        <v>1980273</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2706287</v>
       </c>
       <c r="I245">
-        <v>0</v>
-      </c>
-      <c r="J245">
-        <v>1</v>
+        <v>607388</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
@@ -8796,30 +8912,30 @@
       </c>
       <c r="B246">
         <f t="shared" si="20"/>
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="C246" s="2">
-        <v>33658</v>
+        <v>33164</v>
       </c>
       <c r="D246" s="4">
         <f t="shared" si="21"/>
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="E246" s="4">
         <f t="shared" si="22"/>
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="F246">
-        <v>4776046</v>
+        <v>9142123</v>
       </c>
       <c r="G246">
-        <v>731461</v>
+        <v>1627897</v>
       </c>
       <c r="H246">
-        <v>162138</v>
+        <v>2244214</v>
       </c>
       <c r="I246">
-        <v>252918</v>
+        <v>445150</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
@@ -8828,30 +8944,33 @@
       </c>
       <c r="B247">
         <f t="shared" si="20"/>
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="C247" s="2">
-        <v>33798</v>
+        <v>33275</v>
       </c>
       <c r="D247" s="4">
         <f t="shared" si="21"/>
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="E247" s="4">
         <f t="shared" si="22"/>
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="F247">
-        <v>6032231</v>
+        <v>8541187</v>
       </c>
       <c r="G247">
-        <v>1248407</v>
+        <v>1149338</v>
       </c>
       <c r="H247">
         <v>0</v>
       </c>
       <c r="I247">
         <v>0</v>
+      </c>
+      <c r="J247">
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
@@ -8860,33 +8979,30 @@
       </c>
       <c r="B248">
         <f t="shared" si="20"/>
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="C248" s="2">
-        <v>33903</v>
+        <v>33278</v>
       </c>
       <c r="D248" s="4">
         <f t="shared" si="21"/>
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="E248" s="4">
         <f t="shared" si="22"/>
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="F248">
-        <v>3372678</v>
+        <v>8659533</v>
       </c>
       <c r="G248">
-        <v>692662</v>
+        <v>2139007</v>
       </c>
       <c r="H248">
         <v>0</v>
       </c>
       <c r="I248">
         <v>0</v>
-      </c>
-      <c r="J248">
-        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
@@ -8895,24 +9011,24 @@
       </c>
       <c r="B249">
         <f t="shared" si="20"/>
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="C249" s="2">
-        <v>34010</v>
+        <v>33438</v>
       </c>
       <c r="D249" s="4">
         <f t="shared" si="21"/>
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="E249" s="4">
         <f t="shared" si="22"/>
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="F249">
-        <v>4560412</v>
+        <v>5960245</v>
       </c>
       <c r="G249">
-        <v>604464</v>
+        <v>1254240</v>
       </c>
       <c r="H249">
         <v>0</v>
@@ -8927,30 +9043,33 @@
       </c>
       <c r="B250">
         <f t="shared" si="20"/>
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="C250" s="2">
-        <v>34177</v>
+        <v>33527</v>
       </c>
       <c r="D250" s="4">
         <f t="shared" si="21"/>
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="E250" s="4">
         <f t="shared" si="22"/>
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="F250">
-        <v>10198355</v>
+        <v>5883006</v>
       </c>
       <c r="G250">
-        <v>3860607</v>
+        <v>1124826</v>
       </c>
       <c r="H250">
         <v>0</v>
       </c>
       <c r="I250">
         <v>0</v>
+      </c>
+      <c r="J250">
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
@@ -8959,33 +9078,30 @@
       </c>
       <c r="B251">
         <f t="shared" si="20"/>
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="C251" s="2">
-        <v>34254</v>
+        <v>33658</v>
       </c>
       <c r="D251" s="4">
         <f t="shared" si="21"/>
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="E251" s="4">
         <f t="shared" si="22"/>
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="F251">
-        <v>5992046</v>
+        <v>4776046</v>
       </c>
       <c r="G251">
-        <v>806992</v>
+        <v>731461</v>
       </c>
       <c r="H251">
-        <v>57164</v>
+        <v>162138</v>
       </c>
       <c r="I251">
-        <v>58691</v>
-      </c>
-      <c r="J251">
-        <v>1</v>
+        <v>252918</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
@@ -8994,24 +9110,24 @@
       </c>
       <c r="B252">
         <f t="shared" si="20"/>
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="C252" s="2">
-        <v>34365</v>
+        <v>33798</v>
       </c>
       <c r="D252" s="4">
         <f t="shared" si="21"/>
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="E252" s="4">
         <f t="shared" si="22"/>
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="F252">
-        <v>5895395</v>
+        <v>6032231</v>
       </c>
       <c r="G252">
-        <v>780598</v>
+        <v>1248407</v>
       </c>
       <c r="H252">
         <v>0</v>
@@ -9026,30 +9142,33 @@
       </c>
       <c r="B253">
         <f t="shared" si="20"/>
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="C253" s="2">
-        <v>34626</v>
+        <v>33903</v>
       </c>
       <c r="D253" s="4">
         <f t="shared" si="21"/>
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="E253" s="4">
         <f t="shared" si="22"/>
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="F253">
-        <v>6769766</v>
+        <v>3372678</v>
       </c>
       <c r="G253">
-        <v>732204</v>
+        <v>692662</v>
       </c>
       <c r="H253">
-        <v>109137</v>
+        <v>0</v>
       </c>
       <c r="I253">
-        <v>23773</v>
+        <v>0</v>
+      </c>
+      <c r="J253">
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
@@ -9058,34 +9177,30 @@
       </c>
       <c r="B254">
         <f t="shared" si="20"/>
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="C254" s="2">
-        <v>34730</v>
+        <v>34010</v>
       </c>
       <c r="D254" s="4">
-        <f t="shared" ref="D254" si="23">IF(MONTH(C254)&lt;4,B254-2,B254-1)</f>
-        <v>1993</v>
+        <f t="shared" si="21"/>
+        <v>1991</v>
       </c>
       <c r="E254" s="4">
-        <f t="shared" ref="E254" si="24">IF(MONTH(C254)&lt;4,B254-3,B254-2)</f>
-        <v>1992</v>
+        <f t="shared" si="22"/>
+        <v>1990</v>
       </c>
       <c r="F254">
-        <v>5895000</v>
+        <v>4560412</v>
       </c>
       <c r="G254">
-        <f>0.13*F254</f>
-        <v>766350</v>
+        <v>604464</v>
       </c>
       <c r="H254">
         <v>0</v>
       </c>
       <c r="I254">
         <v>0</v>
-      </c>
-      <c r="J254">
-        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
@@ -9094,24 +9209,24 @@
       </c>
       <c r="B255">
         <f t="shared" si="20"/>
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="C255" s="2">
-        <v>34894</v>
+        <v>34177</v>
       </c>
       <c r="D255" s="4">
         <f t="shared" si="21"/>
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="E255" s="4">
         <f t="shared" si="22"/>
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="F255">
-        <v>10913020</v>
+        <v>10198355</v>
       </c>
       <c r="G255">
-        <v>1990404</v>
+        <v>3860607</v>
       </c>
       <c r="H255">
         <v>0</v>
@@ -9126,30 +9241,33 @@
       </c>
       <c r="B256">
         <f t="shared" si="20"/>
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="C256" s="2">
-        <v>35023</v>
+        <v>34254</v>
       </c>
       <c r="D256" s="4">
         <f t="shared" si="21"/>
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="E256" s="4">
         <f t="shared" si="22"/>
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="F256">
-        <v>10634355</v>
+        <v>5992046</v>
       </c>
       <c r="G256">
-        <v>1445908</v>
+        <v>806992</v>
       </c>
       <c r="H256">
-        <v>3462461</v>
+        <v>57164</v>
       </c>
       <c r="I256">
-        <v>545953</v>
+        <v>58691</v>
+      </c>
+      <c r="J256">
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
@@ -9158,30 +9276,30 @@
       </c>
       <c r="B257">
         <f t="shared" si="20"/>
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="C257" s="2">
-        <v>35024</v>
+        <v>34365</v>
       </c>
       <c r="D257" s="4">
         <f t="shared" si="21"/>
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="E257" s="4">
         <f t="shared" si="22"/>
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="F257">
-        <v>11699308</v>
+        <v>5895395</v>
       </c>
       <c r="G257">
-        <v>1924264</v>
+        <v>780598</v>
       </c>
       <c r="H257">
-        <v>2394737</v>
+        <v>0</v>
       </c>
       <c r="I257">
-        <v>962122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
@@ -9190,35 +9308,30 @@
       </c>
       <c r="B258">
         <f t="shared" si="20"/>
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="C258" s="2">
-        <v>35094</v>
+        <v>34626</v>
       </c>
       <c r="D258" s="4">
         <f t="shared" si="21"/>
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E258" s="4">
         <f t="shared" si="22"/>
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="F258">
-        <v>6152000</v>
-      </c>
-      <c r="G258" s="9">
-        <f>0.13*F258</f>
-        <v>799760</v>
+        <v>6769766</v>
+      </c>
+      <c r="G258">
+        <v>732204</v>
       </c>
       <c r="H258">
-        <v>346000</v>
+        <v>109137</v>
       </c>
       <c r="I258">
-        <f>0.13*H258</f>
-        <v>44980</v>
-      </c>
-      <c r="J258">
-        <v>1</v>
+        <v>23773</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
@@ -9227,30 +9340,34 @@
       </c>
       <c r="B259">
         <f t="shared" si="20"/>
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="C259" s="2">
-        <v>35268</v>
+        <v>34730</v>
       </c>
       <c r="D259" s="4">
-        <f t="shared" si="21"/>
-        <v>1995</v>
+        <f t="shared" ref="D259" si="23">IF(MONTH(C259)&lt;4,B259-2,B259-1)</f>
+        <v>1993</v>
       </c>
       <c r="E259" s="4">
-        <f t="shared" si="22"/>
-        <v>1994</v>
+        <f t="shared" ref="E259" si="24">IF(MONTH(C259)&lt;4,B259-3,B259-2)</f>
+        <v>1992</v>
       </c>
       <c r="F259">
-        <v>7258271</v>
-      </c>
-      <c r="G259" s="9">
-        <v>1351084</v>
+        <v>5895000</v>
+      </c>
+      <c r="G259">
+        <f>0.13*F259</f>
+        <v>766350</v>
       </c>
       <c r="H259">
-        <v>163067</v>
+        <v>0</v>
       </c>
       <c r="I259">
-        <v>88455</v>
+        <v>0</v>
+      </c>
+      <c r="J259">
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
@@ -9258,31 +9375,31 @@
         <v>12</v>
       </c>
       <c r="B260">
-        <f t="shared" ref="B260:B307" si="25">YEAR(C260)</f>
-        <v>1996</v>
+        <f t="shared" si="20"/>
+        <v>1995</v>
       </c>
       <c r="C260" s="2">
-        <v>35388</v>
+        <v>34894</v>
       </c>
       <c r="D260" s="4">
         <f t="shared" si="21"/>
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="E260" s="4">
         <f t="shared" si="22"/>
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="F260">
-        <v>4471744</v>
-      </c>
-      <c r="G260" s="9">
-        <v>756874</v>
+        <v>10913020</v>
+      </c>
+      <c r="G260">
+        <v>1990404</v>
       </c>
       <c r="H260">
-        <v>1083062</v>
+        <v>0</v>
       </c>
       <c r="I260">
-        <v>253372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
@@ -9290,36 +9407,31 @@
         <v>12</v>
       </c>
       <c r="B261">
-        <f t="shared" si="25"/>
-        <v>1997</v>
+        <f t="shared" si="20"/>
+        <v>1995</v>
       </c>
       <c r="C261" s="2">
-        <v>35487</v>
+        <v>35023</v>
       </c>
       <c r="D261" s="4">
         <f t="shared" si="21"/>
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="E261" s="4">
         <f t="shared" si="22"/>
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="F261">
-        <v>4761000</v>
-      </c>
-      <c r="G261" s="9">
-        <f>0.13*F261</f>
-        <v>618930</v>
+        <v>10634355</v>
+      </c>
+      <c r="G261">
+        <v>1445908</v>
       </c>
       <c r="H261">
-        <v>31000</v>
+        <v>3462461</v>
       </c>
       <c r="I261">
-        <f>0.13*H261</f>
-        <v>4030</v>
-      </c>
-      <c r="J261">
-        <v>1</v>
+        <v>545953</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
@@ -9327,36 +9439,31 @@
         <v>12</v>
       </c>
       <c r="B262">
-        <f t="shared" si="25"/>
-        <v>1997</v>
+        <f t="shared" si="20"/>
+        <v>1995</v>
       </c>
       <c r="C262" s="2">
-        <v>35753</v>
+        <v>35024</v>
       </c>
       <c r="D262" s="4">
         <f t="shared" si="21"/>
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="E262" s="4">
         <f t="shared" si="22"/>
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="F262">
-        <v>18123000</v>
-      </c>
-      <c r="G262" s="9">
-        <f>0.13*F262</f>
-        <v>2355990</v>
+        <v>11699308</v>
+      </c>
+      <c r="G262">
+        <v>1924264</v>
       </c>
       <c r="H262">
-        <v>648000</v>
+        <v>2394737</v>
       </c>
       <c r="I262">
-        <f>0.13*H262</f>
-        <v>84240</v>
-      </c>
-      <c r="J262">
-        <v>1</v>
+        <v>962122</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
@@ -9364,33 +9471,36 @@
         <v>12</v>
       </c>
       <c r="B263">
-        <f t="shared" si="25"/>
-        <v>1998</v>
+        <f t="shared" si="20"/>
+        <v>1996</v>
       </c>
       <c r="C263" s="2">
-        <v>35859</v>
+        <v>35094</v>
       </c>
       <c r="D263" s="4">
         <f t="shared" si="21"/>
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="E263" s="4">
         <f t="shared" si="22"/>
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="F263">
-        <v>8515000</v>
+        <v>6152000</v>
       </c>
       <c r="G263" s="9">
-        <f>0.18*F263</f>
-        <v>1532700</v>
+        <f>0.13*F263</f>
+        <v>799760</v>
       </c>
       <c r="H263">
-        <v>49000</v>
+        <v>346000</v>
       </c>
       <c r="I263">
-        <f>0.18*H263</f>
-        <v>8820</v>
+        <f>0.13*H263</f>
+        <v>44980</v>
+      </c>
+      <c r="J263">
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
@@ -9398,33 +9508,31 @@
         <v>12</v>
       </c>
       <c r="B264">
-        <f t="shared" si="25"/>
-        <v>1998</v>
+        <f t="shared" si="20"/>
+        <v>1996</v>
       </c>
       <c r="C264" s="2">
-        <v>36007</v>
+        <v>35268</v>
       </c>
       <c r="D264" s="4">
         <f t="shared" si="21"/>
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="E264" s="4">
         <f t="shared" si="22"/>
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="F264">
-        <v>9573000</v>
+        <v>7258271</v>
       </c>
       <c r="G264" s="9">
-        <f>0.24*F264</f>
-        <v>2297520</v>
+        <v>1351084</v>
       </c>
       <c r="H264">
-        <v>22000</v>
+        <v>163067</v>
       </c>
       <c r="I264">
-        <f>0.24*H264</f>
-        <v>5280</v>
+        <v>88455</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.25">
@@ -9432,35 +9540,31 @@
         <v>12</v>
       </c>
       <c r="B265">
-        <f t="shared" si="25"/>
-        <v>1998</v>
+        <f t="shared" ref="B265:B312" si="25">YEAR(C265)</f>
+        <v>1996</v>
       </c>
       <c r="C265" s="2">
-        <v>36130</v>
+        <v>35388</v>
       </c>
       <c r="D265" s="4">
         <f t="shared" si="21"/>
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="E265" s="4">
         <f t="shared" si="22"/>
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="F265">
-        <v>8233000</v>
+        <v>4471744</v>
       </c>
       <c r="G265" s="9">
-        <f>0.09*F265</f>
-        <v>740970</v>
+        <v>756874</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1083062</v>
       </c>
       <c r="I265">
-        <v>0</v>
-      </c>
-      <c r="J265">
-        <v>1</v>
+        <v>253372</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
@@ -9469,25 +9573,35 @@
       </c>
       <c r="B266">
         <f t="shared" si="25"/>
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="C266" s="2">
-        <v>36338</v>
+        <v>35487</v>
       </c>
       <c r="D266" s="4">
-        <f t="shared" ref="D266:D267" si="26">IF(MONTH(C266)&lt;4,B266-2,B266-1)</f>
-        <v>1998</v>
+        <f t="shared" si="21"/>
+        <v>1995</v>
       </c>
       <c r="E266" s="4">
-        <f t="shared" ref="E266:E267" si="27">IF(MONTH(C266)&lt;4,B266-3,B266-2)</f>
-        <v>1997</v>
+        <f t="shared" si="22"/>
+        <v>1994</v>
       </c>
       <c r="F266">
-        <v>5386000</v>
+        <v>4761000</v>
       </c>
       <c r="G266" s="9">
-        <f>0.29*F266</f>
-        <v>1561940</v>
+        <f>0.13*F266</f>
+        <v>618930</v>
+      </c>
+      <c r="H266">
+        <v>31000</v>
+      </c>
+      <c r="I266">
+        <f>0.13*H266</f>
+        <v>4030</v>
+      </c>
+      <c r="J266">
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
@@ -9496,25 +9610,35 @@
       </c>
       <c r="B267">
         <f t="shared" si="25"/>
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="C267" s="2">
-        <v>36362</v>
+        <v>35753</v>
       </c>
       <c r="D267" s="4">
-        <f t="shared" si="26"/>
-        <v>1998</v>
+        <f t="shared" si="21"/>
+        <v>1996</v>
       </c>
       <c r="E267" s="4">
-        <f t="shared" si="27"/>
-        <v>1997</v>
+        <f t="shared" si="22"/>
+        <v>1995</v>
       </c>
       <c r="F267">
-        <v>7141000</v>
+        <v>18123000</v>
       </c>
       <c r="G267" s="9">
-        <f>0.25*F267</f>
-        <v>1785250</v>
+        <f>0.13*F267</f>
+        <v>2355990</v>
+      </c>
+      <c r="H267">
+        <v>648000</v>
+      </c>
+      <c r="I267">
+        <f>0.13*H267</f>
+        <v>84240</v>
+      </c>
+      <c r="J267">
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
@@ -9523,34 +9647,32 @@
       </c>
       <c r="B268">
         <f t="shared" si="25"/>
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C268" s="2">
-        <v>36494</v>
+        <v>35859</v>
       </c>
       <c r="D268" s="4">
-        <f t="shared" ref="D268:D307" si="28">IF(MONTH(C268)&lt;4,B268-2,B268-1)</f>
-        <v>1998</v>
+        <f t="shared" si="21"/>
+        <v>1996</v>
       </c>
       <c r="E268" s="4">
-        <f t="shared" ref="E268:E307" si="29">IF(MONTH(C268)&lt;4,B268-3,B268-2)</f>
-        <v>1997</v>
+        <f t="shared" si="22"/>
+        <v>1995</v>
       </c>
       <c r="F268">
-        <v>8462000</v>
+        <v>8515000</v>
       </c>
       <c r="G268" s="9">
-        <f>0.12*F268</f>
-        <v>1015440</v>
+        <f>0.18*F268</f>
+        <v>1532700</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>49000</v>
       </c>
       <c r="I268">
-        <v>0</v>
-      </c>
-      <c r="J268">
-        <v>1</v>
+        <f>0.18*H268</f>
+        <v>8820</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
@@ -9559,34 +9681,32 @@
       </c>
       <c r="B269">
         <f t="shared" si="25"/>
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="C269" s="2">
-        <v>36858</v>
+        <v>36007</v>
       </c>
       <c r="D269" s="4">
-        <f t="shared" si="28"/>
-        <v>1999</v>
+        <f t="shared" si="21"/>
+        <v>1997</v>
       </c>
       <c r="E269" s="4">
-        <f t="shared" si="29"/>
-        <v>1998</v>
+        <f t="shared" si="22"/>
+        <v>1996</v>
       </c>
       <c r="F269">
-        <v>9679000</v>
+        <v>9573000</v>
       </c>
       <c r="G269" s="9">
-        <f>0.15*F269</f>
-        <v>1451850</v>
+        <f>0.24*F269</f>
+        <v>2297520</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>22000</v>
       </c>
       <c r="I269">
-        <v>0</v>
-      </c>
-      <c r="J269">
-        <v>1</v>
+        <f>0.24*H269</f>
+        <v>5280</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.25">
@@ -9595,32 +9715,31 @@
       </c>
       <c r="B270">
         <f t="shared" si="25"/>
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="C270" s="2">
-        <v>37230</v>
+        <v>36130</v>
       </c>
       <c r="D270" s="4">
-        <f t="shared" si="28"/>
-        <v>2000</v>
+        <f t="shared" si="21"/>
+        <v>1997</v>
       </c>
       <c r="E270" s="4">
-        <f t="shared" si="29"/>
-        <v>1999</v>
+        <f t="shared" si="22"/>
+        <v>1996</v>
       </c>
       <c r="F270">
-        <v>7478000</v>
+        <v>8233000</v>
       </c>
       <c r="G270" s="9">
-        <f>0.14*F270</f>
-        <v>1046920.0000000001</v>
+        <f>0.09*F270</f>
+        <v>740970</v>
       </c>
       <c r="H270">
-        <v>326000</v>
+        <v>0</v>
       </c>
       <c r="I270">
-        <f>0.14*H270</f>
-        <v>45640.000000000007</v>
+        <v>0</v>
       </c>
       <c r="J270">
         <v>1</v>
@@ -9631,15 +9750,27 @@
         <v>12</v>
       </c>
       <c r="B271">
-        <v>2002</v>
+        <f t="shared" si="25"/>
+        <v>1999</v>
+      </c>
+      <c r="C271" s="2">
+        <v>36338</v>
       </c>
       <c r="D271" s="4">
-        <v>2001</v>
+        <f t="shared" ref="D271:D272" si="26">IF(MONTH(C271)&lt;4,B271-2,B271-1)</f>
+        <v>1998</v>
       </c>
       <c r="E271" s="4">
-        <v>2000</v>
-      </c>
-      <c r="G271" s="9"/>
+        <f t="shared" ref="E271:E272" si="27">IF(MONTH(C271)&lt;4,B271-3,B271-2)</f>
+        <v>1997</v>
+      </c>
+      <c r="F271">
+        <v>5386000</v>
+      </c>
+      <c r="G271" s="9">
+        <f>0.29*F271</f>
+        <v>1561940</v>
+      </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
@@ -9647,34 +9778,25 @@
       </c>
       <c r="B272">
         <f t="shared" si="25"/>
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="C272" s="2">
-        <v>37637</v>
+        <v>36362</v>
       </c>
       <c r="D272" s="4">
-        <f t="shared" si="28"/>
-        <v>2001</v>
+        <f t="shared" si="26"/>
+        <v>1998</v>
       </c>
       <c r="E272" s="4">
-        <f t="shared" si="29"/>
-        <v>2000</v>
+        <f t="shared" si="27"/>
+        <v>1997</v>
       </c>
       <c r="F272">
-        <v>4773000</v>
+        <v>7141000</v>
       </c>
       <c r="G272" s="9">
-        <f>0.16*F272</f>
-        <v>763680</v>
-      </c>
-      <c r="H272">
-        <v>0</v>
-      </c>
-      <c r="I272">
-        <v>0</v>
-      </c>
-      <c r="J272">
-        <v>1</v>
+        <f>0.25*F272</f>
+        <v>1785250</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.25">
@@ -9683,24 +9805,25 @@
       </c>
       <c r="B273">
         <f t="shared" si="25"/>
-        <v>2004</v>
+        <v>1999</v>
       </c>
       <c r="C273" s="2">
-        <v>38005</v>
+        <v>36494</v>
       </c>
       <c r="D273" s="4">
-        <f t="shared" si="28"/>
-        <v>2002</v>
+        <f t="shared" ref="D273:D312" si="28">IF(MONTH(C273)&lt;4,B273-2,B273-1)</f>
+        <v>1998</v>
       </c>
       <c r="E273" s="4">
-        <f t="shared" si="29"/>
-        <v>2001</v>
+        <f t="shared" ref="E273:E312" si="29">IF(MONTH(C273)&lt;4,B273-3,B273-2)</f>
+        <v>1997</v>
       </c>
       <c r="F273">
-        <v>8636807</v>
+        <v>8462000</v>
       </c>
       <c r="G273" s="9">
-        <v>1694839</v>
+        <f>0.12*F273</f>
+        <v>1015440</v>
       </c>
       <c r="H273">
         <v>0</v>
@@ -9718,24 +9841,25 @@
       </c>
       <c r="B274">
         <f t="shared" si="25"/>
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="C274" s="2">
-        <v>38378</v>
+        <v>36858</v>
       </c>
       <c r="D274" s="4">
         <f t="shared" si="28"/>
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="E274" s="4">
         <f t="shared" si="29"/>
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="F274">
-        <v>6703046</v>
+        <v>9679000</v>
       </c>
       <c r="G274" s="9">
-        <v>1052271</v>
+        <f>0.15*F274</f>
+        <v>1451850</v>
       </c>
       <c r="H274">
         <v>0</v>
@@ -9753,30 +9877,32 @@
       </c>
       <c r="B275">
         <f t="shared" si="25"/>
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="C275" s="2">
-        <v>38721</v>
+        <v>37230</v>
       </c>
       <c r="D275" s="4">
         <f t="shared" si="28"/>
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="E275" s="4">
         <f t="shared" si="29"/>
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="F275">
-        <v>3525291</v>
-      </c>
-      <c r="G275">
-        <v>719392</v>
+        <v>7478000</v>
+      </c>
+      <c r="G275" s="9">
+        <f>0.14*F275</f>
+        <v>1046920.0000000001</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>326000</v>
       </c>
       <c r="I275">
-        <v>0</v>
+        <f>0.14*H275</f>
+        <v>45640.000000000007</v>
       </c>
       <c r="J275">
         <v>1</v>
@@ -9787,36 +9913,15 @@
         <v>12</v>
       </c>
       <c r="B276">
-        <f t="shared" si="25"/>
-        <v>2007</v>
-      </c>
-      <c r="C276" s="2">
-        <v>39120</v>
+        <v>2002</v>
       </c>
       <c r="D276" s="4">
-        <f t="shared" si="28"/>
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="E276" s="4">
-        <f t="shared" si="29"/>
-        <v>2004</v>
-      </c>
-      <c r="F276">
-        <v>3660000</v>
-      </c>
-      <c r="G276">
-        <f>0.14*F276</f>
-        <v>512400.00000000006</v>
-      </c>
-      <c r="H276">
-        <v>0</v>
-      </c>
-      <c r="I276">
-        <v>0</v>
-      </c>
-      <c r="J276">
-        <v>1</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="G276" s="9"/>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
@@ -9824,32 +9929,31 @@
       </c>
       <c r="B277">
         <f t="shared" si="25"/>
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="C277" s="2">
-        <v>39395</v>
+        <v>37637</v>
       </c>
       <c r="D277" s="4">
         <f t="shared" si="28"/>
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="E277" s="4">
         <f t="shared" si="29"/>
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="F277">
-        <v>5048000</v>
-      </c>
-      <c r="G277">
-        <f>0.18*F277</f>
-        <v>908640</v>
+        <v>4773000</v>
+      </c>
+      <c r="G277" s="9">
+        <f>0.16*F277</f>
+        <v>763680</v>
       </c>
       <c r="H277">
-        <v>51000</v>
+        <v>0</v>
       </c>
       <c r="I277">
-        <f>0.18*H277</f>
-        <v>9180</v>
+        <v>0</v>
       </c>
       <c r="J277">
         <v>1</v>
@@ -9861,31 +9965,33 @@
       </c>
       <c r="B278">
         <f t="shared" si="25"/>
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="C278" s="2">
-        <v>39651</v>
+        <v>38005</v>
       </c>
       <c r="D278" s="4">
         <f t="shared" si="28"/>
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="E278" s="4">
         <f t="shared" si="29"/>
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="F278">
-        <v>5541000</v>
-      </c>
-      <c r="G278">
-        <f>0.28*F278</f>
-        <v>1551480.0000000002</v>
+        <v>8636807</v>
+      </c>
+      <c r="G278" s="9">
+        <v>1694839</v>
       </c>
       <c r="H278">
         <v>0</v>
       </c>
       <c r="I278">
         <v>0</v>
+      </c>
+      <c r="J278">
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
@@ -9894,25 +10000,24 @@
       </c>
       <c r="B279">
         <f t="shared" si="25"/>
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="C279" s="2">
-        <v>39769</v>
+        <v>38378</v>
       </c>
       <c r="D279" s="4">
         <f t="shared" si="28"/>
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="E279" s="4">
         <f t="shared" si="29"/>
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="F279">
-        <v>6017000</v>
-      </c>
-      <c r="G279">
-        <f>0.16*F279</f>
-        <v>962720</v>
+        <v>6703046</v>
+      </c>
+      <c r="G279" s="9">
+        <v>1052271</v>
       </c>
       <c r="H279">
         <v>0</v>
@@ -9930,30 +10035,33 @@
       </c>
       <c r="B280">
         <f t="shared" si="25"/>
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C280" s="2">
-        <v>39783</v>
+        <v>38721</v>
       </c>
       <c r="D280" s="4">
         <f t="shared" si="28"/>
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="E280" s="4">
         <f t="shared" si="29"/>
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="F280">
-        <v>6017335</v>
+        <v>3525291</v>
       </c>
       <c r="G280">
-        <v>935967</v>
+        <v>719392</v>
       </c>
       <c r="H280">
         <v>0</v>
       </c>
       <c r="I280">
         <v>0</v>
+      </c>
+      <c r="J280">
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.25">
@@ -9962,31 +10070,34 @@
       </c>
       <c r="B281">
         <f t="shared" si="25"/>
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="C281" s="2">
-        <v>39973</v>
+        <v>39120</v>
       </c>
       <c r="D281" s="4">
         <f t="shared" si="28"/>
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="E281" s="4">
         <f t="shared" si="29"/>
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="F281">
-        <v>5540818</v>
+        <v>3660000</v>
       </c>
       <c r="G281">
-        <f>0.28*F281</f>
-        <v>1551429.04</v>
+        <f>0.14*F281</f>
+        <v>512400.00000000006</v>
       </c>
       <c r="H281">
         <v>0</v>
       </c>
       <c r="I281">
         <v>0</v>
+      </c>
+      <c r="J281">
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
@@ -9995,31 +10106,35 @@
       </c>
       <c r="B282">
         <f t="shared" si="25"/>
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="C282" s="2">
-        <v>40049</v>
+        <v>39395</v>
       </c>
       <c r="D282" s="4">
         <f t="shared" si="28"/>
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="E282" s="4">
         <f t="shared" si="29"/>
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="F282">
-        <v>7596484</v>
+        <v>5048000</v>
       </c>
       <c r="G282">
-        <f>0.2*F282</f>
-        <v>1519296.8</v>
+        <f>0.18*F282</f>
+        <v>908640</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>51000</v>
       </c>
       <c r="I282">
-        <v>0</v>
+        <f>0.18*H282</f>
+        <v>9180</v>
+      </c>
+      <c r="J282">
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.25">
@@ -10028,34 +10143,31 @@
       </c>
       <c r="B283">
         <f t="shared" si="25"/>
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C283" s="2">
-        <v>40147</v>
+        <v>39651</v>
       </c>
       <c r="D283" s="4">
         <f t="shared" si="28"/>
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E283" s="4">
         <f t="shared" si="29"/>
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="F283">
-        <v>2450742</v>
+        <v>5541000</v>
       </c>
       <c r="G283">
-        <f>0.19*F283</f>
-        <v>465640.98</v>
+        <f>0.28*F283</f>
+        <v>1551480.0000000002</v>
       </c>
       <c r="H283">
         <v>0</v>
       </c>
       <c r="I283">
         <v>0</v>
-      </c>
-      <c r="J283">
-        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
@@ -10064,31 +10176,34 @@
       </c>
       <c r="B284">
         <f t="shared" si="25"/>
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C284" s="2">
-        <v>40191</v>
+        <v>39769</v>
       </c>
       <c r="D284" s="4">
         <f t="shared" si="28"/>
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E284" s="4">
         <f t="shared" si="29"/>
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="F284">
-        <v>4979378</v>
+        <v>6017000</v>
       </c>
       <c r="G284">
-        <f>0.12*F284</f>
-        <v>597525.36</v>
+        <f>0.16*F284</f>
+        <v>962720</v>
       </c>
       <c r="H284">
         <v>0</v>
       </c>
       <c r="I284">
         <v>0</v>
+      </c>
+      <c r="J284">
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.25">
@@ -10097,24 +10212,24 @@
       </c>
       <c r="B285">
         <f t="shared" si="25"/>
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C285" s="2">
-        <v>40406</v>
+        <v>39783</v>
       </c>
       <c r="D285" s="4">
         <f t="shared" si="28"/>
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E285" s="4">
         <f t="shared" si="29"/>
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="F285">
-        <v>16661391</v>
+        <v>6017335</v>
       </c>
       <c r="G285">
-        <v>5621822</v>
+        <v>935967</v>
       </c>
       <c r="H285">
         <v>0</v>
@@ -10129,24 +10244,25 @@
       </c>
       <c r="B286">
         <f t="shared" si="25"/>
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C286" s="2">
-        <v>40414</v>
+        <v>39973</v>
       </c>
       <c r="D286" s="4">
         <f t="shared" si="28"/>
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E286" s="4">
         <f t="shared" si="29"/>
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="F286">
-        <v>8166458</v>
+        <v>5540818</v>
       </c>
       <c r="G286">
-        <v>2639773</v>
+        <f>0.28*F286</f>
+        <v>1551429.04</v>
       </c>
       <c r="H286">
         <v>0</v>
@@ -10161,34 +10277,31 @@
       </c>
       <c r="B287">
         <f t="shared" si="25"/>
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C287" s="2">
-        <v>40512</v>
+        <v>40049</v>
       </c>
       <c r="D287" s="4">
         <f t="shared" si="28"/>
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E287" s="4">
         <f t="shared" si="29"/>
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="F287">
-        <v>14526189</v>
+        <v>7596484</v>
       </c>
       <c r="G287">
-        <f>0.24*F287</f>
-        <v>3486285.36</v>
+        <f>0.2*F287</f>
+        <v>1519296.8</v>
       </c>
       <c r="H287">
         <v>0</v>
       </c>
       <c r="I287">
         <v>0</v>
-      </c>
-      <c r="J287">
-        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.25">
@@ -10197,31 +10310,34 @@
       </c>
       <c r="B288">
         <f t="shared" si="25"/>
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C288" s="2">
-        <v>40771</v>
+        <v>40147</v>
       </c>
       <c r="D288" s="4">
         <f t="shared" si="28"/>
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="E288" s="4">
         <f t="shared" si="29"/>
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="F288">
-        <v>16661391</v>
+        <v>2450742</v>
       </c>
       <c r="G288">
-        <f>0.34*F288</f>
-        <v>5664872.9400000004</v>
+        <f>0.19*F288</f>
+        <v>465640.98</v>
       </c>
       <c r="H288">
         <v>0</v>
       </c>
       <c r="I288">
         <v>0</v>
+      </c>
+      <c r="J288">
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
@@ -10230,34 +10346,31 @@
       </c>
       <c r="B289">
         <f t="shared" si="25"/>
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C289" s="2">
-        <v>40868</v>
+        <v>40191</v>
       </c>
       <c r="D289" s="4">
         <f t="shared" si="28"/>
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="E289" s="4">
         <f t="shared" si="29"/>
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="F289">
-        <v>13444391</v>
+        <v>4979378</v>
       </c>
       <c r="G289">
-        <f>0.09*F289</f>
-        <v>1209995.19</v>
+        <f>0.12*F289</f>
+        <v>597525.36</v>
       </c>
       <c r="H289">
         <v>0</v>
       </c>
       <c r="I289">
         <v>0</v>
-      </c>
-      <c r="J289">
-        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
@@ -10266,30 +10379,30 @@
       </c>
       <c r="B290">
         <f t="shared" si="25"/>
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C290" s="2">
-        <v>41226</v>
+        <v>40406</v>
       </c>
       <c r="D290" s="4">
         <f t="shared" si="28"/>
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="E290" s="4">
         <f t="shared" si="29"/>
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="F290">
-        <v>14526189</v>
+        <v>16661391</v>
       </c>
       <c r="G290">
-        <v>2099030</v>
+        <v>5621822</v>
       </c>
       <c r="H290">
-        <v>14526189</v>
+        <v>0</v>
       </c>
       <c r="I290">
-        <v>2099030</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
@@ -10298,24 +10411,24 @@
       </c>
       <c r="B291">
         <f t="shared" si="25"/>
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C291" s="2">
-        <v>41073</v>
+        <v>40414</v>
       </c>
       <c r="D291" s="4">
         <f t="shared" si="28"/>
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="E291" s="4">
         <f t="shared" si="29"/>
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="F291">
-        <v>15262441</v>
+        <v>8166458</v>
       </c>
       <c r="G291">
-        <v>5573233</v>
+        <v>2639773</v>
       </c>
       <c r="H291">
         <v>0</v>
@@ -10330,30 +10443,34 @@
       </c>
       <c r="B292">
         <f t="shared" si="25"/>
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C292" s="2">
-        <v>41136</v>
+        <v>40512</v>
       </c>
       <c r="D292" s="4">
         <f t="shared" si="28"/>
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="E292" s="4">
         <f t="shared" si="29"/>
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="F292">
-        <v>21862120</v>
+        <v>14526189</v>
       </c>
       <c r="G292">
-        <v>7651741.9999999991</v>
+        <f>0.24*F292</f>
+        <v>3486285.36</v>
       </c>
       <c r="H292">
         <v>0</v>
       </c>
       <c r="I292">
         <v>0</v>
+      </c>
+      <c r="J292">
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
@@ -10362,34 +10479,31 @@
       </c>
       <c r="B293">
         <f t="shared" si="25"/>
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C293" s="2">
-        <v>41331</v>
+        <v>40771</v>
       </c>
       <c r="D293" s="4">
         <f t="shared" si="28"/>
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E293" s="4">
         <f t="shared" si="29"/>
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="F293">
-        <v>14526189</v>
+        <v>16661391</v>
       </c>
       <c r="G293">
-        <f>0.14*F293</f>
-        <v>2033666.4600000002</v>
+        <f>0.34*F293</f>
+        <v>5664872.9400000004</v>
       </c>
       <c r="H293">
         <v>0</v>
       </c>
       <c r="I293">
         <v>0</v>
-      </c>
-      <c r="J293">
-        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.25">
@@ -10398,31 +10512,34 @@
       </c>
       <c r="B294">
         <f t="shared" si="25"/>
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C294" s="2">
-        <v>41513</v>
+        <v>40868</v>
       </c>
       <c r="D294" s="4">
         <f t="shared" si="28"/>
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="E294" s="4">
         <f t="shared" si="29"/>
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="F294">
-        <v>11210000</v>
+        <v>13444391</v>
       </c>
       <c r="G294">
-        <f>0.21*F294</f>
-        <v>2354100</v>
+        <f>0.09*F294</f>
+        <v>1209995.19</v>
       </c>
       <c r="H294">
         <v>0</v>
       </c>
       <c r="I294">
         <v>0</v>
+      </c>
+      <c r="J294">
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.25">
@@ -10431,34 +10548,30 @@
       </c>
       <c r="B295">
         <f t="shared" si="25"/>
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C295" s="2">
-        <v>41597</v>
+        <v>41226</v>
       </c>
       <c r="D295" s="4">
         <f t="shared" si="28"/>
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E295" s="4">
         <f t="shared" si="29"/>
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="F295">
-        <v>3687000</v>
+        <v>14526189</v>
       </c>
       <c r="G295">
-        <f>0.31*F295</f>
-        <v>1142970</v>
+        <v>2099030</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>14526189</v>
       </c>
       <c r="I295">
-        <v>0</v>
-      </c>
-      <c r="J295">
-        <v>1</v>
+        <v>2099030</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.25">
@@ -10467,25 +10580,24 @@
       </c>
       <c r="B296">
         <f t="shared" si="25"/>
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C296" s="2">
-        <v>41932</v>
+        <v>41073</v>
       </c>
       <c r="D296" s="4">
         <f t="shared" si="28"/>
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="E296" s="4">
         <f t="shared" si="29"/>
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="F296">
-        <v>13157290</v>
+        <v>15262441</v>
       </c>
       <c r="G296">
-        <f>0.28*F296</f>
-        <v>3684041.2</v>
+        <v>5573233</v>
       </c>
       <c r="H296">
         <v>0</v>
@@ -10500,34 +10612,30 @@
       </c>
       <c r="B297">
         <f t="shared" si="25"/>
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="C297" s="2">
-        <v>42042</v>
+        <v>41136</v>
       </c>
       <c r="D297" s="4">
         <f t="shared" si="28"/>
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="E297" s="4">
         <f t="shared" si="29"/>
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="F297">
-        <v>1210757</v>
+        <v>21862120</v>
       </c>
       <c r="G297">
-        <f>F297*0.23</f>
-        <v>278474.11</v>
+        <v>7651741.9999999991</v>
       </c>
       <c r="H297">
         <v>0</v>
       </c>
       <c r="I297">
         <v>0</v>
-      </c>
-      <c r="J297">
-        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.25">
@@ -10536,25 +10644,25 @@
       </c>
       <c r="B298">
         <f t="shared" si="25"/>
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C298" s="2">
-        <v>42317</v>
+        <v>41331</v>
       </c>
       <c r="D298" s="4">
         <f t="shared" si="28"/>
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="E298" s="4">
         <f t="shared" si="29"/>
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="F298">
-        <v>4151619</v>
+        <v>14526189</v>
       </c>
       <c r="G298">
-        <f>0.3*F298</f>
-        <v>1245485.7</v>
+        <f>0.14*F298</f>
+        <v>2033666.4600000002</v>
       </c>
       <c r="H298">
         <v>0</v>
@@ -10572,21 +10680,25 @@
       </c>
       <c r="B299">
         <f t="shared" si="25"/>
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="C299" s="2">
-        <v>42417</v>
+        <v>41513</v>
       </c>
       <c r="D299" s="4">
         <f t="shared" si="28"/>
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="E299" s="4">
         <f t="shared" si="29"/>
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="F299">
-        <v>4150000</v>
+        <v>11210000</v>
+      </c>
+      <c r="G299">
+        <f>0.21*F299</f>
+        <v>2354100</v>
       </c>
       <c r="H299">
         <v>0</v>
@@ -10601,24 +10713,25 @@
       </c>
       <c r="B300">
         <f t="shared" si="25"/>
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="C300" s="2">
-        <v>42668</v>
+        <v>41597</v>
       </c>
       <c r="D300" s="4">
         <f t="shared" si="28"/>
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="E300" s="4">
         <f t="shared" si="29"/>
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="F300">
-        <v>5917285</v>
+        <v>3687000</v>
       </c>
       <c r="G300">
-        <v>1047465</v>
+        <f>0.31*F300</f>
+        <v>1142970</v>
       </c>
       <c r="H300">
         <v>0</v>
@@ -10636,25 +10749,25 @@
       </c>
       <c r="B301">
         <f t="shared" si="25"/>
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="C301" s="2">
-        <v>43056</v>
+        <v>41932</v>
       </c>
       <c r="D301" s="4">
         <f t="shared" si="28"/>
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="E301" s="4">
         <f t="shared" si="29"/>
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="F301">
-        <v>6423238</v>
+        <v>13157290</v>
       </c>
       <c r="G301">
-        <f>(6823499-6022976)/1.28</f>
-        <v>625408.59375</v>
+        <f>0.28*F301</f>
+        <v>3684041.2</v>
       </c>
       <c r="H301">
         <v>0</v>
@@ -10669,25 +10782,25 @@
       </c>
       <c r="B302">
         <f t="shared" si="25"/>
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="C302" s="2">
-        <v>43151</v>
+        <v>42042</v>
       </c>
       <c r="D302" s="4">
         <f t="shared" si="28"/>
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="E302" s="4">
         <f t="shared" si="29"/>
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="F302">
-        <v>8422379</v>
+        <v>1210757</v>
       </c>
       <c r="G302">
-        <f>(8746816-8097942)/1.28</f>
-        <v>506932.8125</v>
+        <f>F302*0.23</f>
+        <v>278474.11</v>
       </c>
       <c r="H302">
         <v>0</v>
@@ -10705,25 +10818,25 @@
       </c>
       <c r="B303">
         <f t="shared" si="25"/>
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="C303" s="2">
-        <v>43488</v>
+        <v>42317</v>
       </c>
       <c r="D303" s="4">
         <f t="shared" si="28"/>
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="E303" s="4">
         <f t="shared" si="29"/>
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="F303">
-        <v>1555655</v>
+        <v>4151619</v>
       </c>
       <c r="G303">
-        <f>(1633398-1477932)/1.28</f>
-        <v>121457.8125</v>
+        <f>0.3*F303</f>
+        <v>1245485.7</v>
       </c>
       <c r="H303">
         <v>0</v>
@@ -10741,34 +10854,27 @@
       </c>
       <c r="B304">
         <f t="shared" si="25"/>
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C304" s="2">
-        <v>43886</v>
+        <v>42417</v>
       </c>
       <c r="D304" s="4">
         <f t="shared" si="28"/>
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="E304" s="4">
         <f t="shared" si="29"/>
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="F304">
-        <v>3784000</v>
-      </c>
-      <c r="G304">
-        <f>(4243000-3362000)/1.96</f>
-        <v>449489.79591836734</v>
+        <v>4150000</v>
       </c>
       <c r="H304">
         <v>0</v>
       </c>
       <c r="I304">
         <v>0</v>
-      </c>
-      <c r="J304">
-        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.25">
@@ -10777,25 +10883,24 @@
       </c>
       <c r="B305">
         <f t="shared" si="25"/>
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="C305" s="2">
-        <v>44243</v>
+        <v>42668</v>
       </c>
       <c r="D305" s="4">
         <f t="shared" si="28"/>
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="E305" s="4">
         <f t="shared" si="29"/>
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="F305">
-        <v>1630000</v>
+        <v>5917285</v>
       </c>
       <c r="G305">
-        <f>0.1*F305</f>
-        <v>163000</v>
+        <v>1047465</v>
       </c>
       <c r="H305">
         <v>0</v>
@@ -10813,35 +10918,31 @@
       </c>
       <c r="B306">
         <f t="shared" si="25"/>
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="C306" s="2">
-        <v>44593</v>
+        <v>43056</v>
       </c>
       <c r="D306" s="4">
         <f t="shared" si="28"/>
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="E306" s="4">
         <f t="shared" si="29"/>
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="F306">
-        <v>2207921</v>
+        <v>6423238</v>
       </c>
       <c r="G306">
-        <f>(2432712-1999434)/1.96</f>
-        <v>221060.20408163266</v>
+        <f>(6823499-6022976)/1.28</f>
+        <v>625408.59375</v>
       </c>
       <c r="H306">
-        <v>16791</v>
+        <v>0</v>
       </c>
       <c r="I306">
-        <f>(18495-15205)/1.96</f>
-        <v>1678.5714285714287</v>
-      </c>
-      <c r="J306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
@@ -10850,38 +10951,251 @@
       </c>
       <c r="B307">
         <f t="shared" si="25"/>
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="C307" s="2">
-        <v>44970</v>
+        <v>43151</v>
       </c>
       <c r="D307" s="4">
         <f t="shared" si="28"/>
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="E307" s="4">
         <f t="shared" si="29"/>
+        <v>2015</v>
+      </c>
+      <c r="F307">
+        <v>8422379</v>
+      </c>
+      <c r="G307">
+        <f>(8746816-8097942)/1.28</f>
+        <v>506932.8125</v>
+      </c>
+      <c r="H307">
+        <v>0</v>
+      </c>
+      <c r="I307">
+        <v>0</v>
+      </c>
+      <c r="J307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>12</v>
+      </c>
+      <c r="B308">
+        <f t="shared" si="25"/>
+        <v>2019</v>
+      </c>
+      <c r="C308" s="2">
+        <v>43488</v>
+      </c>
+      <c r="D308" s="4">
+        <f t="shared" si="28"/>
+        <v>2017</v>
+      </c>
+      <c r="E308" s="4">
+        <f t="shared" si="29"/>
+        <v>2016</v>
+      </c>
+      <c r="F308">
+        <v>1555655</v>
+      </c>
+      <c r="G308">
+        <f>(1633398-1477932)/1.28</f>
+        <v>121457.8125</v>
+      </c>
+      <c r="H308">
+        <v>0</v>
+      </c>
+      <c r="I308">
+        <v>0</v>
+      </c>
+      <c r="J308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>12</v>
+      </c>
+      <c r="B309">
+        <f t="shared" si="25"/>
         <v>2020</v>
       </c>
-      <c r="F307">
+      <c r="C309" s="2">
+        <v>43886</v>
+      </c>
+      <c r="D309" s="4">
+        <f t="shared" si="28"/>
+        <v>2018</v>
+      </c>
+      <c r="E309" s="4">
+        <f t="shared" si="29"/>
+        <v>2017</v>
+      </c>
+      <c r="F309">
+        <v>3784000</v>
+      </c>
+      <c r="G309">
+        <f>(4243000-3362000)/1.96</f>
+        <v>449489.79591836734</v>
+      </c>
+      <c r="H309">
+        <v>0</v>
+      </c>
+      <c r="I309">
+        <v>0</v>
+      </c>
+      <c r="J309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>12</v>
+      </c>
+      <c r="B310">
+        <f t="shared" si="25"/>
+        <v>2021</v>
+      </c>
+      <c r="C310" s="2">
+        <v>44243</v>
+      </c>
+      <c r="D310" s="4">
+        <f t="shared" si="28"/>
+        <v>2019</v>
+      </c>
+      <c r="E310" s="4">
+        <f t="shared" si="29"/>
+        <v>2018</v>
+      </c>
+      <c r="F310">
+        <v>1630000</v>
+      </c>
+      <c r="G310">
+        <f>0.1*F310</f>
+        <v>163000</v>
+      </c>
+      <c r="H310">
+        <v>0</v>
+      </c>
+      <c r="I310">
+        <v>0</v>
+      </c>
+      <c r="J310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>12</v>
+      </c>
+      <c r="B311">
+        <f t="shared" si="25"/>
+        <v>2022</v>
+      </c>
+      <c r="C311" s="2">
+        <v>44593</v>
+      </c>
+      <c r="D311" s="4">
+        <f t="shared" si="28"/>
+        <v>2020</v>
+      </c>
+      <c r="E311" s="4">
+        <f t="shared" si="29"/>
+        <v>2019</v>
+      </c>
+      <c r="F311">
+        <v>2207921</v>
+      </c>
+      <c r="G311">
+        <f>(2432712-1999434)/1.96</f>
+        <v>221060.20408163266</v>
+      </c>
+      <c r="H311">
+        <v>16791</v>
+      </c>
+      <c r="I311">
+        <f>(18495-15205)/1.96</f>
+        <v>1678.5714285714287</v>
+      </c>
+      <c r="J311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>12</v>
+      </c>
+      <c r="B312">
+        <f t="shared" si="25"/>
+        <v>2023</v>
+      </c>
+      <c r="C312" s="2">
+        <v>44970</v>
+      </c>
+      <c r="D312" s="4">
+        <f t="shared" si="28"/>
+        <v>2021</v>
+      </c>
+      <c r="E312" s="4">
+        <f t="shared" si="29"/>
+        <v>2020</v>
+      </c>
+      <c r="F312">
         <v>1219678</v>
       </c>
-      <c r="G307">
+      <c r="G312">
         <f>(1343499-1104508)/1.96</f>
         <v>121934.18367346939</v>
       </c>
-      <c r="H307">
-        <v>0</v>
-      </c>
-      <c r="I307">
-        <v>0</v>
-      </c>
-      <c r="J307">
+      <c r="H312">
+        <v>0</v>
+      </c>
+      <c r="I312">
+        <v>0</v>
+      </c>
+      <c r="J312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>12</v>
+      </c>
+      <c r="B313">
+        <v>2024</v>
+      </c>
+      <c r="C313" s="2">
+        <v>45357</v>
+      </c>
+      <c r="D313" s="4">
+        <f>IF(MONTH(C313)&lt;4,B313-2,B313-1)</f>
+        <v>2022</v>
+      </c>
+      <c r="E313" s="4">
+        <f>IF(MONTH(C313)&lt;4,B313-3,B313-2)</f>
+        <v>2021</v>
+      </c>
+      <c r="F313">
+        <v>1481384</v>
+      </c>
+      <c r="G313">
+        <f>(1642999-1331841)/1.96</f>
+        <v>158754.08163265308</v>
+      </c>
+      <c r="J313">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;12&amp;K000000 Unclassified - Non-Classifié&amp;1#_x000D_</oddHeader>
+  </headerFooter>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -11971,5 +12285,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;12&amp;K000000 Unclassified - Non-Classifié&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>